--- a/components_decomposition.xlsx
+++ b/components_decomposition.xlsx
@@ -7,11 +7,10 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="component_1" sheetId="1" r:id="rId1"/>
-    <sheet name="component_2" sheetId="2" r:id="rId2"/>
-    <sheet name="component_3" sheetId="3" r:id="rId3"/>
-    <sheet name="component_4" sheetId="4" r:id="rId4"/>
-    <sheet name="components_full" sheetId="5" r:id="rId5"/>
+    <sheet name="Household" sheetId="1" r:id="rId1"/>
+    <sheet name="School" sheetId="2" r:id="rId2"/>
+    <sheet name="Community" sheetId="3" r:id="rId3"/>
+    <sheet name="Combined" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -468,58 +467,58 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.03689522156020725</v>
+        <v>0.05580136839941026</v>
       </c>
       <c r="C2">
-        <v>0.03137766001952449</v>
+        <v>0.04745645349774388</v>
       </c>
       <c r="D2">
-        <v>0.02869243390587388</v>
+        <v>0.04339524217369693</v>
       </c>
       <c r="E2">
-        <v>0.02440461146015183</v>
+        <v>0.03691021918678924</v>
       </c>
       <c r="F2">
-        <v>0.01893520788956275</v>
+        <v>0.02863813975044673</v>
       </c>
       <c r="G2">
-        <v>0.01668527498062067</v>
+        <v>0.02523527808390391</v>
       </c>
       <c r="H2">
-        <v>0.01695276241969301</v>
+        <v>0.02563983359268526</v>
       </c>
       <c r="I2">
-        <v>0.01482263433872213</v>
+        <v>0.02241816810979292</v>
       </c>
       <c r="J2">
-        <v>0.02238205847426706</v>
+        <v>0.03066745080510149</v>
       </c>
       <c r="K2">
-        <v>0.04492902022401324</v>
+        <v>0.05053318402736341</v>
       </c>
       <c r="L2">
-        <v>0.03657814041543309</v>
+        <v>0.03724087763184863</v>
       </c>
       <c r="M2">
-        <v>0.01459902325639094</v>
+        <v>0.01486353413434809</v>
       </c>
       <c r="N2">
-        <v>0.00918730375899789</v>
+        <v>0.009353762962512599</v>
       </c>
       <c r="O2">
-        <v>0.00499440784458</v>
+        <v>0.005084898501430458</v>
       </c>
       <c r="P2">
-        <v>0.01175394339491158</v>
+        <v>0.01196690599057603</v>
       </c>
       <c r="Q2">
-        <v>0.02990346641412579</v>
+        <v>0.03044526924683928</v>
       </c>
       <c r="R2">
-        <v>0.03562979682753763</v>
+        <v>0.03627535157971335</v>
       </c>
       <c r="S2">
-        <v>0.02757589660490208</v>
+        <v>0.0280755276071491</v>
       </c>
       <c r="T2">
         <v>0.01704595926231429</v>
@@ -527,1180 +526,1180 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.04136472016336454</v>
+        <v>0.06256116350481275</v>
       </c>
       <c r="B3">
-        <v>0.06597200461505175</v>
+        <v>0.09638047205935925</v>
       </c>
       <c r="C3">
-        <v>0.05197805460469935</v>
+        <v>0.07593629250406468</v>
       </c>
       <c r="D3">
-        <v>0.04636016976185179</v>
+        <v>0.06772895673659533</v>
       </c>
       <c r="E3">
-        <v>0.04156246074423797</v>
+        <v>0.06071984033003453</v>
       </c>
       <c r="F3">
-        <v>0.03258927760345789</v>
+        <v>0.04761064905974</v>
       </c>
       <c r="G3">
-        <v>0.02335978171282395</v>
+        <v>0.03412700283738065</v>
       </c>
       <c r="H3">
-        <v>0.01796442133529129</v>
+        <v>0.02624475970787115</v>
       </c>
       <c r="I3">
-        <v>0.01707700744804113</v>
+        <v>0.02494831025382974</v>
       </c>
       <c r="J3">
-        <v>0.03130016084919834</v>
+        <v>0.04189306698800951</v>
       </c>
       <c r="K3">
-        <v>0.05882236205562111</v>
+        <v>0.06607295962681831</v>
       </c>
       <c r="L3">
-        <v>0.0557711033651378</v>
+        <v>0.05734765286864432</v>
       </c>
       <c r="M3">
-        <v>0.0323629256459896</v>
+        <v>0.03327776776458926</v>
       </c>
       <c r="N3">
-        <v>0.02294510915093293</v>
+        <v>0.02359372641430266</v>
       </c>
       <c r="O3">
-        <v>0.01787174851244165</v>
+        <v>0.01837695092989455</v>
       </c>
       <c r="P3">
-        <v>0.0148794696806858</v>
+        <v>0.01530008571877891</v>
       </c>
       <c r="Q3">
-        <v>0.03482236804391075</v>
+        <v>0.0358067342073542</v>
       </c>
       <c r="R3">
-        <v>0.05230015069507715</v>
+        <v>0.05377858256456713</v>
       </c>
       <c r="S3">
-        <v>0.04266420798905576</v>
+        <v>0.04387024896483266</v>
       </c>
       <c r="T3">
-        <v>0.02631643538915441</v>
+        <v>0.02679324697491859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.03621439624704147</v>
+        <v>0.05477166909123257</v>
       </c>
       <c r="B4">
-        <v>0.05813454983260721</v>
+        <v>0.08493050027081753</v>
       </c>
       <c r="C4">
-        <v>0.06006734425094649</v>
+        <v>0.08775417736718899</v>
       </c>
       <c r="D4">
-        <v>0.05040017138764089</v>
+        <v>0.07363111578248394</v>
       </c>
       <c r="E4">
-        <v>0.04373461864754285</v>
+        <v>0.06389321069113808</v>
       </c>
       <c r="F4">
-        <v>0.03532379566345683</v>
+        <v>0.05160558817088851</v>
       </c>
       <c r="G4">
-        <v>0.0220886426911855</v>
+        <v>0.03226995787302869</v>
       </c>
       <c r="H4">
-        <v>0.01460055591936775</v>
+        <v>0.0213303882464817</v>
       </c>
       <c r="I4">
-        <v>0.01752408999658665</v>
+        <v>0.02560146650290462</v>
       </c>
       <c r="J4">
-        <v>0.02721159928005351</v>
+        <v>0.03642081448023455</v>
       </c>
       <c r="K4">
-        <v>0.0478804285400441</v>
+        <v>0.05378229488386852</v>
       </c>
       <c r="L4">
-        <v>0.06224826916534248</v>
+        <v>0.06400791657995875</v>
       </c>
       <c r="M4">
-        <v>0.05204113010992219</v>
+        <v>0.0535122399299944</v>
       </c>
       <c r="N4">
-        <v>0.04227893731243398</v>
+        <v>0.04347408737414796</v>
       </c>
       <c r="O4">
-        <v>0.02830893469360109</v>
+        <v>0.02910917772705511</v>
       </c>
       <c r="P4">
-        <v>0.01004203840723223</v>
+        <v>0.01032590890126681</v>
       </c>
       <c r="Q4">
-        <v>0.02357712540272407</v>
+        <v>0.02424360863696129</v>
       </c>
       <c r="R4">
-        <v>0.05002609667454937</v>
+        <v>0.05144024509758254</v>
       </c>
       <c r="S4">
-        <v>0.04462439369426326</v>
+        <v>0.04588584561968719</v>
       </c>
       <c r="T4">
-        <v>0.02336768240649249</v>
+        <v>0.0237910673193468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.02939614151228224</v>
+        <v>0.04445954930427159</v>
       </c>
       <c r="B5">
-        <v>0.05038606847261656</v>
+        <v>0.07361051241268506</v>
       </c>
       <c r="C5">
-        <v>0.05672834385488969</v>
+        <v>0.08287613195601591</v>
       </c>
       <c r="D5">
-        <v>0.05857517460659657</v>
+        <v>0.0855742221641561</v>
       </c>
       <c r="E5">
-        <v>0.0460930916881148</v>
+        <v>0.06733877440132031</v>
       </c>
       <c r="F5">
-        <v>0.03951905541303599</v>
+        <v>0.05773456844722556</v>
       </c>
       <c r="G5">
-        <v>0.02837448155745743</v>
+        <v>0.04145312762443159</v>
       </c>
       <c r="H5">
-        <v>0.02257629819014242</v>
+        <v>0.0329823883572327</v>
       </c>
       <c r="I5">
-        <v>0.0264975941376163</v>
+        <v>0.03871112673205173</v>
       </c>
       <c r="J5">
-        <v>0.02908907445942027</v>
+        <v>0.03893368314683602</v>
       </c>
       <c r="K5">
-        <v>0.03890200197677044</v>
+        <v>0.0436971640748305</v>
       </c>
       <c r="L5">
-        <v>0.04907113343653497</v>
+        <v>0.05045828675407595</v>
       </c>
       <c r="M5">
-        <v>0.04845110038047126</v>
+        <v>0.04982072647068995</v>
       </c>
       <c r="N5">
-        <v>0.05441436635119731</v>
+        <v>0.05595256332200042</v>
       </c>
       <c r="O5">
-        <v>0.03323096695887563</v>
+        <v>0.03417034705535774</v>
       </c>
       <c r="P5">
-        <v>0.009023820987718341</v>
+        <v>0.009278908293500639</v>
       </c>
       <c r="Q5">
-        <v>0.01916921704537795</v>
+        <v>0.01971109658141005</v>
       </c>
       <c r="R5">
-        <v>0.04010298791623904</v>
+        <v>0.04123662777404389</v>
       </c>
       <c r="S5">
-        <v>0.04042978962891799</v>
+        <v>0.04157266758758121</v>
       </c>
       <c r="T5">
-        <v>0.02127553464832386</v>
+        <v>0.0216610132005532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.02466872481611394</v>
+        <v>0.03730967163759499</v>
       </c>
       <c r="B6">
-        <v>0.0409010230272424</v>
+        <v>0.0597535262127983</v>
       </c>
       <c r="C6">
-        <v>0.04633178342855535</v>
+        <v>0.06768748629441142</v>
       </c>
       <c r="D6">
-        <v>0.04904129599625692</v>
+        <v>0.07164589413497388</v>
       </c>
       <c r="E6">
-        <v>0.05047201958482895</v>
+        <v>0.07373608095978915</v>
       </c>
       <c r="F6">
-        <v>0.04413957417928788</v>
+        <v>0.06448482232307763</v>
       </c>
       <c r="G6">
-        <v>0.03588944708500242</v>
+        <v>0.05243196522806183</v>
       </c>
       <c r="H6">
-        <v>0.02665361886598062</v>
+        <v>0.0389390679180204</v>
       </c>
       <c r="I6">
-        <v>0.02564278468830196</v>
+        <v>0.03746231007525241</v>
       </c>
       <c r="J6">
-        <v>0.02851218938553433</v>
+        <v>0.03816156299189102</v>
       </c>
       <c r="K6">
-        <v>0.03331265604418741</v>
+        <v>0.03741886080311432</v>
       </c>
       <c r="L6">
-        <v>0.04087818103751817</v>
+        <v>0.04203373422062472</v>
       </c>
       <c r="M6">
-        <v>0.05756916858706634</v>
+        <v>0.05919654618365082</v>
       </c>
       <c r="N6">
-        <v>0.07157708684949299</v>
+        <v>0.07360044328187711</v>
       </c>
       <c r="O6">
-        <v>0.04552989170541361</v>
+        <v>0.04681694044269472</v>
       </c>
       <c r="P6">
-        <v>0.02134554741129648</v>
+        <v>0.02194894792057151</v>
       </c>
       <c r="Q6">
-        <v>0.01960586149169332</v>
+        <v>0.02016008418652113</v>
       </c>
       <c r="R6">
-        <v>0.02313392463918813</v>
+        <v>0.02378787937924923</v>
       </c>
       <c r="S6">
-        <v>0.03514222892124908</v>
+        <v>0.03613563698052984</v>
       </c>
       <c r="T6">
-        <v>0.0318508041298529</v>
+        <v>0.03242788959756325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.02287678287057751</v>
+        <v>0.03459948835572849</v>
       </c>
       <c r="B7">
-        <v>0.03285748968398132</v>
+        <v>0.04800248809940095</v>
       </c>
       <c r="C7">
-        <v>0.03429457732797862</v>
+        <v>0.05010197236287491</v>
       </c>
       <c r="D7">
-        <v>0.04193789438554247</v>
+        <v>0.06126832255044043</v>
       </c>
       <c r="E7">
-        <v>0.04635720346428754</v>
+        <v>0.06772462318388341</v>
       </c>
       <c r="F7">
-        <v>0.04791744717530061</v>
+        <v>0.0700040298242082</v>
       </c>
       <c r="G7">
-        <v>0.03637541627892071</v>
+        <v>0.05314193213886667</v>
       </c>
       <c r="H7">
-        <v>0.02730188024985157</v>
+        <v>0.03988613233663109</v>
       </c>
       <c r="I7">
-        <v>0.02683103162198625</v>
+        <v>0.0391982555124091</v>
       </c>
       <c r="J7">
-        <v>0.03140516709529241</v>
+        <v>0.04203361047348783</v>
       </c>
       <c r="K7">
-        <v>0.03184396082073632</v>
+        <v>0.03576913038067013</v>
       </c>
       <c r="L7">
-        <v>0.04224605161188916</v>
+        <v>0.04344027205357166</v>
       </c>
       <c r="M7">
-        <v>0.06670131092161989</v>
+        <v>0.06858683787503583</v>
       </c>
       <c r="N7">
-        <v>0.07085712660536671</v>
+        <v>0.07286013104725872</v>
       </c>
       <c r="O7">
-        <v>0.04293850740150285</v>
+        <v>0.04415230233186217</v>
       </c>
       <c r="P7">
-        <v>0.02340963503215988</v>
+        <v>0.0240713836127033</v>
       </c>
       <c r="Q7">
-        <v>0.01780045213856257</v>
+        <v>0.0183036391348375</v>
       </c>
       <c r="R7">
-        <v>0.01217717873348018</v>
+        <v>0.0125214058318879</v>
       </c>
       <c r="S7">
-        <v>0.02883477792941753</v>
+        <v>0.0296498856121671</v>
       </c>
       <c r="T7">
-        <v>0.03884812394455672</v>
+        <v>0.03955198962043778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.01893853619130809</v>
+        <v>0.02864317356740141</v>
       </c>
       <c r="B8">
-        <v>0.02956656506289108</v>
+        <v>0.04319467802385143</v>
       </c>
       <c r="C8">
-        <v>0.03012087635013911</v>
+        <v>0.04400448794011109</v>
       </c>
       <c r="D8">
-        <v>0.03730470795609774</v>
+        <v>0.0544995621070596</v>
       </c>
       <c r="E8">
-        <v>0.04072251091491177</v>
+        <v>0.05949273253591777</v>
       </c>
       <c r="F8">
-        <v>0.03841116287201977</v>
+        <v>0.05611601514242231</v>
       </c>
       <c r="G8">
-        <v>0.03762614286706765</v>
+        <v>0.05496915596943209</v>
       </c>
       <c r="H8">
-        <v>0.0320505254520102</v>
+        <v>0.04682356994970674</v>
       </c>
       <c r="I8">
-        <v>0.0325264757679521</v>
+        <v>0.04751889998242209</v>
       </c>
       <c r="J8">
-        <v>0.03753304481926786</v>
+        <v>0.05023534442692244</v>
       </c>
       <c r="K8">
-        <v>0.03317323859934164</v>
+        <v>0.03726225840085345</v>
       </c>
       <c r="L8">
-        <v>0.0296555718173773</v>
+        <v>0.03049388187767482</v>
       </c>
       <c r="M8">
-        <v>0.03542594988851428</v>
+        <v>0.03642737823290841</v>
       </c>
       <c r="N8">
-        <v>0.03962070967022031</v>
+        <v>0.04074071638319862</v>
       </c>
       <c r="O8">
-        <v>0.03333068142768521</v>
+        <v>0.03427288027414373</v>
       </c>
       <c r="P8">
-        <v>0.02060157124312386</v>
+        <v>0.02118394087461843</v>
       </c>
       <c r="Q8">
-        <v>0.01934986216692005</v>
+        <v>0.01989684821796609</v>
       </c>
       <c r="R8">
-        <v>0.01716467280420319</v>
+        <v>0.01764988745398603</v>
       </c>
       <c r="S8">
-        <v>0.02014951808516681</v>
+        <v>0.0207191089811024</v>
       </c>
       <c r="T8">
-        <v>0.02515208889808851</v>
+        <v>0.02560780439357396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.01274333663477038</v>
+        <v>0.01927337991544856</v>
       </c>
       <c r="B9">
-        <v>0.02341394925330372</v>
+        <v>0.03420613781519733</v>
       </c>
       <c r="C9">
-        <v>0.02790103095795775</v>
+        <v>0.04076144950213068</v>
       </c>
       <c r="D9">
-        <v>0.03255172193579878</v>
+        <v>0.04755578286310688</v>
       </c>
       <c r="E9">
-        <v>0.03212484952429612</v>
+        <v>0.04693215220689431</v>
       </c>
       <c r="F9">
-        <v>0.0287489885773313</v>
+        <v>0.04200025611591223</v>
       </c>
       <c r="G9">
-        <v>0.03429852962343196</v>
+        <v>0.05010774638935377</v>
       </c>
       <c r="H9">
-        <v>0.04332464271343122</v>
+        <v>0.06329426460342681</v>
       </c>
       <c r="I9">
-        <v>0.03764402757729651</v>
+        <v>0.05499528427680368</v>
       </c>
       <c r="J9">
-        <v>0.04133418323534136</v>
+        <v>0.05532290123094258</v>
       </c>
       <c r="K9">
-        <v>0.04676773408513735</v>
+        <v>0.05253244681203284</v>
       </c>
       <c r="L9">
-        <v>0.03215405408273615</v>
+        <v>0.03306299177521772</v>
       </c>
       <c r="M9">
-        <v>0.0112224725774075</v>
+        <v>0.01153971183757045</v>
       </c>
       <c r="N9">
-        <v>0.01628261955627198</v>
+        <v>0.0167429001357893</v>
       </c>
       <c r="O9">
-        <v>0.03846133320275668</v>
+        <v>0.03954856641326024</v>
       </c>
       <c r="P9">
-        <v>0.04280236919081815</v>
+        <v>0.04401231573705894</v>
       </c>
       <c r="Q9">
-        <v>0.034522701585217</v>
+        <v>0.03549859671297772</v>
       </c>
       <c r="R9">
-        <v>0.02067907638040922</v>
+        <v>0.02126363694373647</v>
       </c>
       <c r="S9">
-        <v>0.0108235549885009</v>
+        <v>0.01112951756075948</v>
       </c>
       <c r="T9">
-        <v>0.00963969044064039</v>
+        <v>0.009814346164993232</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.01008842790552506</v>
+        <v>0.01525802145430814</v>
       </c>
       <c r="B10">
-        <v>0.01955840671640377</v>
+        <v>0.02857346056187381</v>
       </c>
       <c r="C10">
-        <v>0.02731664057880215</v>
+        <v>0.03990769614207113</v>
       </c>
       <c r="D10">
-        <v>0.03226851119570807</v>
+        <v>0.04714203183368923</v>
       </c>
       <c r="E10">
-        <v>0.03011882288090335</v>
+        <v>0.04400148796556951</v>
       </c>
       <c r="F10">
-        <v>0.02613903867246141</v>
+        <v>0.03818730234331688</v>
       </c>
       <c r="G10">
-        <v>0.0297004654027057</v>
+        <v>0.04339029702975469</v>
       </c>
       <c r="H10">
-        <v>0.03734499312830978</v>
+        <v>0.05455841591842162</v>
       </c>
       <c r="I10">
-        <v>0.04197596624000621</v>
+        <v>0.06132394285979439</v>
       </c>
       <c r="J10">
-        <v>0.04595177811579104</v>
+        <v>0.0615032276702274</v>
       </c>
       <c r="K10">
-        <v>0.06235273580288768</v>
+        <v>0.07003849643831452</v>
       </c>
       <c r="L10">
-        <v>0.05142351020171341</v>
+        <v>0.05287716100984412</v>
       </c>
       <c r="M10">
-        <v>0.02645455962222912</v>
+        <v>0.02720238278371205</v>
       </c>
       <c r="N10">
-        <v>0.02387609105026336</v>
+        <v>0.02455102550950339</v>
       </c>
       <c r="O10">
-        <v>0.04643639575000653</v>
+        <v>0.04774906973791382</v>
       </c>
       <c r="P10">
-        <v>0.0658512440775323</v>
+        <v>0.06771274115920231</v>
       </c>
       <c r="Q10">
-        <v>0.04971942207739206</v>
+        <v>0.05112490135718235</v>
       </c>
       <c r="R10">
-        <v>0.02187786782018147</v>
+        <v>0.02249631607686862</v>
       </c>
       <c r="S10">
-        <v>0.01554155713718925</v>
+        <v>0.0159808892054099</v>
       </c>
       <c r="T10">
-        <v>0.01441757389274855</v>
+        <v>0.0146787971993635</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.0355473441483557</v>
+        <v>0.05438506738126541</v>
       </c>
       <c r="B11">
-        <v>0.04730513636207991</v>
+        <v>0.06965262545096251</v>
       </c>
       <c r="C11">
-        <v>0.05564834242873607</v>
+        <v>0.08193725777445866</v>
       </c>
       <c r="D11">
-        <v>0.06551244720856599</v>
+        <v>0.09646127881056107</v>
       </c>
       <c r="E11">
-        <v>0.06606931700241758</v>
+        <v>0.09728122028328438</v>
       </c>
       <c r="F11">
-        <v>0.05978245755522606</v>
+        <v>0.08802437631212744</v>
       </c>
       <c r="G11">
-        <v>0.05826100522944329</v>
+        <v>0.08578417245396475</v>
       </c>
       <c r="H11">
-        <v>0.06183113963120481</v>
+        <v>0.0910408793027125</v>
       </c>
       <c r="I11">
-        <v>0.06581578099766014</v>
+        <v>0.09690791096138461</v>
       </c>
       <c r="J11">
-        <v>0.07921114838348992</v>
+        <v>0.1087304820080664</v>
       </c>
       <c r="K11">
-        <v>0.08463451623184355</v>
+        <v>0.1025977127851882</v>
       </c>
       <c r="L11">
-        <v>0.07664161552808398</v>
+        <v>0.08789100971841167</v>
       </c>
       <c r="M11">
-        <v>0.06138278341911459</v>
+        <v>0.0703924986035251</v>
       </c>
       <c r="N11">
-        <v>0.05782709977850127</v>
+        <v>0.06631491460089892</v>
       </c>
       <c r="O11">
-        <v>0.0752719962501167</v>
+        <v>0.08632035883323773</v>
       </c>
       <c r="P11">
-        <v>0.09311850839436187</v>
+        <v>0.1067863675610266</v>
       </c>
       <c r="Q11">
-        <v>0.07121120372812932</v>
+        <v>0.08166352647714442</v>
       </c>
       <c r="R11">
-        <v>0.0466407045294616</v>
+        <v>0.05348658932653059</v>
       </c>
       <c r="S11">
-        <v>0.04436960736222401</v>
+        <v>0.05088214235836884</v>
       </c>
       <c r="T11">
-        <v>0.03339573050366337</v>
+        <v>0.03843325042717729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.1026490945756002</v>
+        <v>0.1616885793091353</v>
       </c>
       <c r="B12">
-        <v>0.1047829993971665</v>
+        <v>0.1572795210424264</v>
       </c>
       <c r="C12">
-        <v>0.0920171509884425</v>
+        <v>0.1381179534696755</v>
       </c>
       <c r="D12">
-        <v>0.09748550939837633</v>
+        <v>0.1463259719130373</v>
       </c>
       <c r="E12">
-        <v>0.1191880101811011</v>
+        <v>0.1789014750783164</v>
       </c>
       <c r="F12">
-        <v>0.128649716014521</v>
+        <v>0.1931035171107652</v>
       </c>
       <c r="G12">
-        <v>0.1352360327867848</v>
+        <v>0.202989593605378</v>
       </c>
       <c r="H12">
-        <v>0.1323754185056504</v>
+        <v>0.1986958050460469</v>
       </c>
       <c r="I12">
-        <v>0.1224042951901179</v>
+        <v>0.1837291262112709</v>
       </c>
       <c r="J12">
-        <v>0.1164108393537783</v>
+        <v>0.1686811626161844</v>
       </c>
       <c r="K12">
-        <v>0.1237814536706806</v>
+        <v>0.1708082046690732</v>
       </c>
       <c r="L12">
-        <v>0.1100763071236168</v>
+        <v>0.1492405173551285</v>
       </c>
       <c r="M12">
-        <v>0.09198332024842983</v>
+        <v>0.1247102002295722</v>
       </c>
       <c r="N12">
-        <v>0.09946906087373761</v>
+        <v>0.1348593034553248</v>
       </c>
       <c r="O12">
-        <v>0.1201465283555245</v>
+        <v>0.1628936373207424</v>
       </c>
       <c r="P12">
-        <v>0.1138104789286916</v>
+        <v>0.1543032756056979</v>
       </c>
       <c r="Q12">
-        <v>0.07564047526533718</v>
+        <v>0.1025527105384221</v>
       </c>
       <c r="R12">
-        <v>0.05712038059735959</v>
+        <v>0.07744332431409143</v>
       </c>
       <c r="S12">
-        <v>0.04992829973570092</v>
+        <v>0.06769236248859635</v>
       </c>
       <c r="T12">
-        <v>0.02452764501201661</v>
+        <v>0.03388754846813795</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.1267026916849125</v>
+        <v>0.2033678070180291</v>
       </c>
       <c r="B13">
-        <v>0.1183074299158041</v>
+        <v>0.1797223212429041</v>
       </c>
       <c r="C13">
-        <v>0.0906039415990941</v>
+        <v>0.1376375998492591</v>
       </c>
       <c r="D13">
-        <v>0.08323209345490296</v>
+        <v>0.1264389315892258</v>
       </c>
       <c r="E13">
-        <v>0.1126079964785167</v>
+        <v>0.1710642394314093</v>
       </c>
       <c r="F13">
-        <v>0.1326711202380818</v>
+        <v>0.2015423858675109</v>
       </c>
       <c r="G13">
-        <v>0.1553725985503552</v>
+        <v>0.2360284902552978</v>
       </c>
       <c r="H13">
-        <v>0.1665898410352438</v>
+        <v>0.2530687459582864</v>
       </c>
       <c r="I13">
-        <v>0.1476431116617805</v>
+        <v>0.2242865284307543</v>
       </c>
       <c r="J13">
-        <v>0.1287948668875239</v>
+        <v>0.1921306351222175</v>
       </c>
       <c r="K13">
-        <v>0.1212414732677928</v>
+        <v>0.176891100172043</v>
       </c>
       <c r="L13">
-        <v>0.1167316701508784</v>
+        <v>0.1690759949082819</v>
       </c>
       <c r="M13">
-        <v>0.09243934375776548</v>
+        <v>0.1338906056455089</v>
       </c>
       <c r="N13">
-        <v>0.1147079430406957</v>
+        <v>0.1661447965956498</v>
       </c>
       <c r="O13">
-        <v>0.1227221939986964</v>
+        <v>0.1777527642741488</v>
       </c>
       <c r="P13">
-        <v>0.07693999232152142</v>
+        <v>0.1114411002017084</v>
       </c>
       <c r="Q13">
-        <v>0.02349205500846897</v>
+        <v>0.03402626354838538</v>
       </c>
       <c r="R13">
-        <v>0.002927189967545554</v>
+        <v>0.004239788186090491</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0.0005665794795550982</v>
+        <v>0.0008399767815277173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.1157713207651036</v>
+        <v>0.185822095067484</v>
       </c>
       <c r="B14">
-        <v>0.1243071683958957</v>
+        <v>0.1888366002637552</v>
       </c>
       <c r="C14">
-        <v>0.1120914135596719</v>
+        <v>0.1702794917502595</v>
       </c>
       <c r="D14">
-        <v>0.09633121845048125</v>
+        <v>0.1463379789451838</v>
       </c>
       <c r="E14">
-        <v>0.08863698814695281</v>
+        <v>0.1346495758473248</v>
       </c>
       <c r="F14">
-        <v>0.08381269286952188</v>
+        <v>0.1273209275431726</v>
       </c>
       <c r="G14">
-        <v>0.1010842684684031</v>
+        <v>0.1535583976696246</v>
       </c>
       <c r="H14">
-        <v>0.1290510740974728</v>
+        <v>0.1960431277409528</v>
       </c>
       <c r="I14">
-        <v>0.1362724250335237</v>
+        <v>0.2070131737783008</v>
       </c>
       <c r="J14">
-        <v>0.1162698563057572</v>
+        <v>0.1734463637988202</v>
       </c>
       <c r="K14">
-        <v>0.0987655646434871</v>
+        <v>0.1440987882942568</v>
       </c>
       <c r="L14">
-        <v>0.08544299254936084</v>
+        <v>0.1237569800427926</v>
       </c>
       <c r="M14">
-        <v>0.07919744319663408</v>
+        <v>0.1147108277073023</v>
       </c>
       <c r="N14">
-        <v>0.09010361794413048</v>
+        <v>0.1305075034825496</v>
       </c>
       <c r="O14">
-        <v>0.07928513032533736</v>
+        <v>0.1148378351295982</v>
       </c>
       <c r="P14">
-        <v>0.03645245277247209</v>
+        <v>0.05279830838868968</v>
       </c>
       <c r="Q14">
-        <v>0.0162760584915834</v>
+        <v>0.02357450021140768</v>
       </c>
       <c r="R14">
-        <v>0.01158518244489697</v>
+        <v>0.01678016124958337</v>
       </c>
       <c r="S14">
-        <v>0.01208090469265016</v>
+        <v>0.01749817318352304</v>
       </c>
       <c r="T14">
-        <v>0.02377211085733841</v>
+        <v>0.03524310690487228</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.1027750098479868</v>
+        <v>0.164961991660121</v>
       </c>
       <c r="B15">
-        <v>0.1271958764225827</v>
+        <v>0.1932248733613846</v>
       </c>
       <c r="C15">
-        <v>0.1197258905609237</v>
+        <v>0.1818771228467765</v>
       </c>
       <c r="D15">
-        <v>0.09178513078565395</v>
+        <v>0.1394319593631681</v>
       </c>
       <c r="E15">
-        <v>0.0844510180059841</v>
+        <v>0.1282906153752414</v>
       </c>
       <c r="F15">
-        <v>0.07240024503100083</v>
+        <v>0.1099841329051498</v>
       </c>
       <c r="G15">
-        <v>0.05830591816932005</v>
+        <v>0.08857326173889939</v>
       </c>
       <c r="H15">
-        <v>0.08792876899202094</v>
+        <v>0.1335737111229907</v>
       </c>
       <c r="I15">
-        <v>0.1148510591282794</v>
+        <v>0.1744717044265959</v>
       </c>
       <c r="J15">
-        <v>0.08058700461877003</v>
+        <v>0.1202162225418721</v>
       </c>
       <c r="K15">
-        <v>0.05722744489541188</v>
+        <v>0.08349474329815411</v>
       </c>
       <c r="L15">
-        <v>0.06442376926399561</v>
+        <v>0.09331240502232881</v>
       </c>
       <c r="M15">
-        <v>0.0742507751396716</v>
+        <v>0.1075459955573731</v>
       </c>
       <c r="N15">
-        <v>0.0800605589797829</v>
+        <v>0.1159609782411575</v>
       </c>
       <c r="O15">
-        <v>0.06385258893502914</v>
+        <v>0.09248509841164446</v>
       </c>
       <c r="P15">
-        <v>0.05044060134395458</v>
+        <v>0.07305896373261966</v>
       </c>
       <c r="Q15">
-        <v>0.05719903906985862</v>
+        <v>0.08284799168926535</v>
       </c>
       <c r="R15">
-        <v>0.05791454915902441</v>
+        <v>0.08388434780441606</v>
       </c>
       <c r="S15">
-        <v>0.04899505870767779</v>
+        <v>0.07096521694483757</v>
       </c>
       <c r="T15">
-        <v>0.03771547494353826</v>
+        <v>0.05591470287935434</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.1031377500907307</v>
+        <v>0.1655442183413621</v>
       </c>
       <c r="B16">
-        <v>0.1222779351807398</v>
+        <v>0.1857539662818442</v>
       </c>
       <c r="C16">
-        <v>0.1120769405982839</v>
+        <v>0.1702575056905693</v>
       </c>
       <c r="D16">
-        <v>0.09020653256777046</v>
+        <v>0.1370338907361187</v>
       </c>
       <c r="E16">
-        <v>0.09870298474399433</v>
+        <v>0.1499409592822532</v>
       </c>
       <c r="F16">
-        <v>0.0892947044588015</v>
+        <v>0.1356487210605113</v>
       </c>
       <c r="G16">
-        <v>0.05645654120219967</v>
+        <v>0.08576384967052314</v>
       </c>
       <c r="H16">
-        <v>0.05952746447312814</v>
+        <v>0.09042892826282199</v>
       </c>
       <c r="I16">
-        <v>0.07553969323219953</v>
+        <v>0.1147533085904203</v>
       </c>
       <c r="J16">
-        <v>0.06597279954661003</v>
+        <v>0.09841538086102691</v>
       </c>
       <c r="K16">
-        <v>0.04815908524286899</v>
+        <v>0.07026402222178624</v>
       </c>
       <c r="L16">
-        <v>0.05247469904697518</v>
+        <v>0.07600518297572942</v>
       </c>
       <c r="M16">
-        <v>0.07431193450636039</v>
+        <v>0.1076345797501419</v>
       </c>
       <c r="N16">
-        <v>0.0849350176522939</v>
+        <v>0.1230212211780474</v>
       </c>
       <c r="O16">
-        <v>0.09387680182866692</v>
+        <v>0.1359726426210997</v>
       </c>
       <c r="P16">
-        <v>0.06984601402019405</v>
+        <v>0.1011660699755118</v>
       </c>
       <c r="Q16">
-        <v>0.04637033503624405</v>
+        <v>0.06716352571971088</v>
       </c>
       <c r="R16">
-        <v>0.04311088402696117</v>
+        <v>0.0624424853924629</v>
       </c>
       <c r="S16">
-        <v>0.04793846520759404</v>
+        <v>0.06943483022965238</v>
       </c>
       <c r="T16">
-        <v>0.04343941143007006</v>
+        <v>0.06440066808127354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.1229774306431611</v>
+        <v>0.1973884694163094</v>
       </c>
       <c r="B17">
-        <v>0.1208098202446177</v>
+        <v>0.1835237342130804</v>
       </c>
       <c r="C17">
-        <v>0.1041007953247046</v>
+        <v>0.158140841976731</v>
       </c>
       <c r="D17">
-        <v>0.1027892885725666</v>
+        <v>0.1561485153917674</v>
       </c>
       <c r="E17">
-        <v>0.1099154121878163</v>
+        <v>0.1669739003951269</v>
       </c>
       <c r="F17">
-        <v>0.09572606808907159</v>
+        <v>0.1454186873357648</v>
       </c>
       <c r="G17">
-        <v>0.07480196089868611</v>
+        <v>0.1136326100211982</v>
       </c>
       <c r="H17">
-        <v>0.06287651375796256</v>
+        <v>0.0955165116196381</v>
       </c>
       <c r="I17">
-        <v>0.07267554154628282</v>
+        <v>0.110402339342326</v>
       </c>
       <c r="J17">
-        <v>0.09673051437333505</v>
+        <v>0.1442984150795216</v>
       </c>
       <c r="K17">
-        <v>0.07300296005445917</v>
+        <v>0.1065111926784827</v>
       </c>
       <c r="L17">
-        <v>0.05031921436196261</v>
+        <v>0.07288314491050669</v>
       </c>
       <c r="M17">
-        <v>0.06312647853869462</v>
+        <v>0.09143338864415099</v>
       </c>
       <c r="N17">
-        <v>0.07835473602051422</v>
+        <v>0.1134902373222367</v>
       </c>
       <c r="O17">
-        <v>0.08533886216337104</v>
+        <v>0.1236061559469097</v>
       </c>
       <c r="P17">
-        <v>0.06212381494066044</v>
+        <v>0.08998111485095647</v>
       </c>
       <c r="Q17">
-        <v>0.01317479299371806</v>
+        <v>0.01908257827755223</v>
       </c>
       <c r="R17">
-        <v>0.02030555522075859</v>
+        <v>0.02941088692278068</v>
       </c>
       <c r="S17">
-        <v>0.03830438151975551</v>
+        <v>0.05548067123881838</v>
       </c>
       <c r="T17">
-        <v>0.04925584821771901</v>
+        <v>0.07302376868612638</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.08909330070604723</v>
+        <v>0.1430017700779769</v>
       </c>
       <c r="B18">
-        <v>0.08547347899392142</v>
+        <v>0.129843848864154</v>
       </c>
       <c r="C18">
-        <v>0.06662429624160533</v>
+        <v>0.1012098156492593</v>
       </c>
       <c r="D18">
-        <v>0.08492704033877917</v>
+        <v>0.1290137469543338</v>
       </c>
       <c r="E18">
-        <v>0.1176282802510117</v>
+        <v>0.1786906163507033</v>
       </c>
       <c r="F18">
-        <v>0.09255711864209387</v>
+        <v>0.1406046959328786</v>
       </c>
       <c r="G18">
-        <v>0.06738582990381889</v>
+        <v>0.1023666711195795</v>
       </c>
       <c r="H18">
-        <v>0.07285828487907982</v>
+        <v>0.1106799470630356</v>
       </c>
       <c r="I18">
-        <v>0.08234614246965963</v>
+        <v>0.1250930721813366</v>
       </c>
       <c r="J18">
-        <v>0.081067659827522</v>
+        <v>0.120933243280074</v>
       </c>
       <c r="K18">
-        <v>0.05823191900765674</v>
+        <v>0.08496026929367605</v>
       </c>
       <c r="L18">
-        <v>0.0524881516872004</v>
+        <v>0.07602466799232589</v>
       </c>
       <c r="M18">
-        <v>0.0643469935074704</v>
+        <v>0.09320120180384871</v>
       </c>
       <c r="N18">
-        <v>0.06762586398371591</v>
+        <v>0.09795036959378997</v>
       </c>
       <c r="O18">
-        <v>0.06487337143823148</v>
+        <v>0.09396361591328585</v>
       </c>
       <c r="P18">
-        <v>0.04086558825417969</v>
+        <v>0.05919036352908413</v>
       </c>
       <c r="Q18">
-        <v>0.01005925029201461</v>
+        <v>0.01456997701613883</v>
       </c>
       <c r="R18">
-        <v>0.02517368217760905</v>
+        <v>0.0364619589026938</v>
       </c>
       <c r="S18">
-        <v>0.03165177422634637</v>
+        <v>0.04584492975226705</v>
       </c>
       <c r="T18">
-        <v>0.03831972614820887</v>
+        <v>0.05681052950288829</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.04497956148262059</v>
+        <v>0.07219574152458524</v>
       </c>
       <c r="B19">
-        <v>0.0553223489633843</v>
+        <v>0.08404088381756994</v>
       </c>
       <c r="C19">
-        <v>0.05499034123119646</v>
+        <v>0.0835365266496232</v>
       </c>
       <c r="D19">
-        <v>0.0674705923691771</v>
+        <v>0.1024954348585881</v>
       </c>
       <c r="E19">
-        <v>0.09456389160342457</v>
+        <v>0.1436532102575877</v>
       </c>
       <c r="F19">
-        <v>0.08350228253802031</v>
+        <v>0.1268493792612519</v>
       </c>
       <c r="G19">
-        <v>0.08299171923914778</v>
+        <v>0.1260737760613506</v>
       </c>
       <c r="H19">
-        <v>0.09281534869920412</v>
+        <v>0.1409969764964202</v>
       </c>
       <c r="I19">
-        <v>0.07465720572770565</v>
+        <v>0.113412710600181</v>
       </c>
       <c r="J19">
-        <v>0.03544415600024775</v>
+        <v>0.05287406531228939</v>
       </c>
       <c r="K19">
-        <v>0.02668545572933756</v>
+        <v>0.03893403383616607</v>
       </c>
       <c r="L19">
-        <v>0.05070904571331923</v>
+        <v>0.07344778279748175</v>
       </c>
       <c r="M19">
-        <v>0.06600077555785896</v>
+        <v>0.09559656584832349</v>
       </c>
       <c r="N19">
-        <v>0.05673124147451414</v>
+        <v>0.08217042626296468</v>
       </c>
       <c r="O19">
-        <v>0.04304190757916321</v>
+        <v>0.0623425788159391</v>
       </c>
       <c r="P19">
-        <v>0.03774348438512065</v>
+        <v>0.05466825896923448</v>
       </c>
       <c r="Q19">
-        <v>0.0336203222098268</v>
+        <v>0.04869620574618926</v>
       </c>
       <c r="R19">
-        <v>0.02131179647064846</v>
+        <v>0.03086834264343459</v>
       </c>
       <c r="S19">
-        <v>0.02699812582455235</v>
+        <v>0.03910451189934268</v>
       </c>
       <c r="T19">
-        <v>0.03562666273186749</v>
+        <v>0.05281795507593449</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.05374615226527469</v>
+        <v>0.08626681072433397</v>
       </c>
       <c r="B20">
-        <v>0.05629548376386339</v>
+        <v>0.08551918526785771</v>
       </c>
       <c r="C20">
-        <v>0.06638692955861676</v>
+        <v>0.1008492289026552</v>
       </c>
       <c r="D20">
-        <v>0.06234919529504721</v>
+        <v>0.09471545543697203</v>
       </c>
       <c r="E20">
-        <v>0.04726058503341034</v>
+        <v>0.07179415571403189</v>
       </c>
       <c r="F20">
-        <v>0.0508955920361217</v>
+        <v>0.07731614107645947</v>
       </c>
       <c r="G20">
-        <v>0.08625121917298445</v>
+        <v>0.1310253238603106</v>
       </c>
       <c r="H20">
-        <v>0.09663999909529468</v>
+        <v>0.1468070515493326</v>
       </c>
       <c r="I20">
-        <v>0.06392377537579257</v>
+        <v>0.09710742006079817</v>
       </c>
       <c r="J20">
-        <v>0.01584326283528834</v>
+        <v>0.02363429711535373</v>
       </c>
       <c r="K20">
-        <v>0.009021123097999054</v>
+        <v>0.0131618030248432</v>
       </c>
       <c r="L20">
-        <v>0.02978363533455208</v>
+        <v>0.04313908787277778</v>
       </c>
       <c r="M20">
-        <v>0.04169983004869857</v>
+        <v>0.06039869252172204</v>
       </c>
       <c r="N20">
-        <v>0.04691271815540585</v>
+        <v>0.06794912199684124</v>
       </c>
       <c r="O20">
-        <v>0.0561052298943487</v>
+        <v>0.08126370120194419</v>
       </c>
       <c r="P20">
-        <v>0.06638846881751087</v>
+        <v>0.0961581068895007</v>
       </c>
       <c r="Q20">
-        <v>0.05470611011013132</v>
+        <v>0.07923719400636772</v>
       </c>
       <c r="R20">
-        <v>0.02941594827194864</v>
+        <v>0.04260652412341801</v>
       </c>
       <c r="S20">
-        <v>0.009327372017076304</v>
+        <v>0.01350991296216777</v>
       </c>
       <c r="T20">
-        <v>0.01647719837251201</v>
+        <v>0.02442810683578673</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.06505254256040501</v>
+        <v>0.1169791601480616</v>
       </c>
       <c r="B21">
-        <v>0.05874247812475664</v>
+        <v>0.09428630754542092</v>
       </c>
       <c r="C21">
-        <v>0.06734984487420261</v>
+        <v>0.1081018096216343</v>
       </c>
       <c r="D21">
-        <v>0.05852880655899573</v>
+        <v>0.09394334784051608</v>
       </c>
       <c r="E21">
-        <v>0.03166821315388615</v>
+        <v>0.05082997823993528</v>
       </c>
       <c r="F21">
-        <v>0.02469877087244633</v>
+        <v>0.03964347403811552</v>
       </c>
       <c r="G21">
-        <v>0.04610475311094336</v>
+        <v>0.07400176277704688</v>
       </c>
       <c r="H21">
-        <v>0.06363525561469528</v>
+        <v>0.1021396010715796</v>
       </c>
       <c r="I21">
-        <v>0.05084959104209253</v>
+        <v>0.08161760165056842</v>
       </c>
       <c r="J21">
-        <v>0.01672178723646996</v>
+        <v>0.02600030838959409</v>
       </c>
       <c r="K21">
-        <v>0.008220065366804849</v>
+        <v>0.01232558431683831</v>
       </c>
       <c r="L21">
-        <v>0.01447417348175013</v>
+        <v>0.02145854217314974</v>
       </c>
       <c r="M21">
-        <v>0.02135397942968895</v>
+        <v>0.03165813016779916</v>
       </c>
       <c r="N21">
-        <v>0.04292360048706442</v>
+        <v>0.06363595768949781</v>
       </c>
       <c r="O21">
-        <v>0.06826493296209574</v>
+        <v>0.1012054985219956</v>
       </c>
       <c r="P21">
-        <v>0.07163130764420124</v>
+        <v>0.1061962838803213</v>
       </c>
       <c r="Q21">
-        <v>0.06373071645554552</v>
+        <v>0.09448334086299855</v>
       </c>
       <c r="R21">
-        <v>0.04877713802540912</v>
+        <v>0.0723140616439004</v>
       </c>
       <c r="S21">
-        <v>0.02262447232767796</v>
+        <v>0.03354168679827337</v>
       </c>
       <c r="T21">
-        <v>0.008088005213129589</v>
+        <v>0.0124594040408326</v>
       </c>
     </row>
   </sheetData>
@@ -1820,61 +1819,61 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.5432932886327571</v>
+        <v>0.8749739503717548</v>
       </c>
       <c r="B2">
-        <v>0.3666823492899061</v>
+        <v>0.5545806744891748</v>
       </c>
       <c r="C2">
-        <v>0.3118461850785691</v>
+        <v>0.4716449209858644</v>
       </c>
       <c r="D2">
-        <v>0.285159124313227</v>
+        <v>0.4312826614224083</v>
       </c>
       <c r="E2">
-        <v>0.2425446950931814</v>
+        <v>0.3668314028723568</v>
       </c>
       <c r="F2">
-        <v>0.1881871478101142</v>
+        <v>0.2846195230417656</v>
       </c>
       <c r="G2">
-        <v>0.1658262390011168</v>
+        <v>0.2508002570926421</v>
       </c>
       <c r="H2">
-        <v>0.1684846570405511</v>
+        <v>0.2548209231329867</v>
       </c>
       <c r="I2">
-        <v>0.147314425883538</v>
+        <v>0.2228024714761666</v>
       </c>
       <c r="J2">
-        <v>0.1386222422640788</v>
+        <v>0.1899374358267425</v>
       </c>
       <c r="K2">
-        <v>0.1297856735437287</v>
+        <v>0.1459743233349041</v>
       </c>
       <c r="L2">
-        <v>0.07369180042005277</v>
+        <v>0.07502697760862383</v>
       </c>
       <c r="M2">
-        <v>0.02941178244489858</v>
+        <v>0.02994467675297355</v>
       </c>
       <c r="N2">
-        <v>0.01850911356665962</v>
+        <v>0.01884446900748218</v>
       </c>
       <c r="O2">
-        <v>0.01006193595188476</v>
+        <v>0.01024424208742822</v>
       </c>
       <c r="P2">
-        <v>0.0236799695383357</v>
+        <v>0.02410901259296895</v>
       </c>
       <c r="Q2">
-        <v>0.06024473234095156</v>
+        <v>0.06133627023111984</v>
       </c>
       <c r="R2">
-        <v>0.07178122908933136</v>
+        <v>0.07308178979081191</v>
       </c>
       <c r="S2">
-        <v>0.05555551610696594</v>
+        <v>0.05656209292260209</v>
       </c>
       <c r="T2">
         <v>0.05341819367336695</v>
@@ -1882,1118 +1881,1118 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.4111023630111753</v>
+        <v>0.621762749705136</v>
       </c>
       <c r="B3">
-        <v>0.378194801845546</v>
+        <v>0.5525160823133942</v>
       </c>
       <c r="C3">
-        <v>0.2979723016792525</v>
+        <v>0.4353166356552986</v>
       </c>
       <c r="D3">
-        <v>0.2657669009592162</v>
+        <v>0.3882668038005644</v>
       </c>
       <c r="E3">
-        <v>0.2382632860271474</v>
+        <v>0.3480859512410708</v>
       </c>
       <c r="F3">
-        <v>0.1868231147051917</v>
+        <v>0.2729354684907974</v>
       </c>
       <c r="G3">
-        <v>0.1339135905841647</v>
+        <v>0.1956383643482748</v>
       </c>
       <c r="H3">
-        <v>0.102983846054305</v>
+        <v>0.1504521767243333</v>
       </c>
       <c r="I3">
-        <v>0.09789660759305341</v>
+        <v>0.1430200781056097</v>
       </c>
       <c r="J3">
-        <v>0.1282710661998264</v>
+        <v>0.171681813228457</v>
       </c>
       <c r="K3">
-        <v>0.129497413312629</v>
+        <v>0.1454596018006233</v>
       </c>
       <c r="L3">
-        <v>0.0893710399087068</v>
+        <v>0.09189739961999786</v>
       </c>
       <c r="M3">
-        <v>0.05186033886642116</v>
+        <v>0.05332633804087256</v>
       </c>
       <c r="N3">
-        <v>0.03676865154006433</v>
+        <v>0.03780803566252958</v>
       </c>
       <c r="O3">
-        <v>0.0286387869912971</v>
+        <v>0.02944835436020057</v>
       </c>
       <c r="P3">
-        <v>0.02384377569055251</v>
+        <v>0.02451779665227799</v>
       </c>
       <c r="Q3">
-        <v>0.05580150035391603</v>
+        <v>0.05737890912601641</v>
       </c>
       <c r="R3">
-        <v>0.08380897226291716</v>
+        <v>0.08617810225386309</v>
       </c>
       <c r="S3">
-        <v>0.06836774610499674</v>
+        <v>0.07030038020534822</v>
       </c>
       <c r="T3">
-        <v>0.05301815462566672</v>
+        <v>0.05397875852233933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.3599159818653257</v>
+        <v>0.544347030526131</v>
       </c>
       <c r="B4">
-        <v>0.3332653704038982</v>
+        <v>0.4868773339234952</v>
       </c>
       <c r="C4">
-        <v>0.3443454157400563</v>
+        <v>0.5030645031048661</v>
       </c>
       <c r="D4">
-        <v>0.2889268401369987</v>
+        <v>0.4221018507094082</v>
       </c>
       <c r="E4">
-        <v>0.2507155198589233</v>
+        <v>0.3662777915815759</v>
       </c>
       <c r="F4">
-        <v>0.2024991658101844</v>
+        <v>0.2958370797779148</v>
       </c>
       <c r="G4">
-        <v>0.1266265879652233</v>
+        <v>0.1849925645668457</v>
       </c>
       <c r="H4">
-        <v>0.08369996311284243</v>
+        <v>0.1222797761450193</v>
       </c>
       <c r="I4">
-        <v>0.1004595780051605</v>
+        <v>0.1467643981339978</v>
       </c>
       <c r="J4">
-        <v>0.1115157480970035</v>
+        <v>0.1492559967264646</v>
       </c>
       <c r="K4">
-        <v>0.1054087497943884</v>
+        <v>0.118401706869445</v>
       </c>
       <c r="L4">
-        <v>0.09975044803042694</v>
+        <v>0.1025702150751511</v>
       </c>
       <c r="M4">
-        <v>0.0833939017755807</v>
+        <v>0.08575129846502737</v>
       </c>
       <c r="N4">
-        <v>0.06775036472040066</v>
+        <v>0.06966554655144726</v>
       </c>
       <c r="O4">
-        <v>0.04536397488338533</v>
+        <v>0.04664633344837993</v>
       </c>
       <c r="P4">
-        <v>0.01609197884039927</v>
+        <v>0.01654687034729973</v>
       </c>
       <c r="Q4">
-        <v>0.03778143318241363</v>
+        <v>0.03884944683341721</v>
       </c>
       <c r="R4">
-        <v>0.08016488849264367</v>
+        <v>0.08243100674252457</v>
       </c>
       <c r="S4">
-        <v>0.07150886801792777</v>
+        <v>0.07353029602575967</v>
       </c>
       <c r="T4">
-        <v>0.04707747765799138</v>
+        <v>0.0479304460195475</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.292152906906724</v>
+        <v>0.4418602544683877</v>
       </c>
       <c r="B5">
-        <v>0.2888459929779016</v>
+        <v>0.4219837386798602</v>
       </c>
       <c r="C5">
-        <v>0.3252040754015698</v>
+        <v>0.4751003472718436</v>
       </c>
       <c r="D5">
-        <v>0.3357913206165604</v>
+        <v>0.4905675700367584</v>
       </c>
       <c r="E5">
-        <v>0.2642358342626131</v>
+        <v>0.3860300227320792</v>
       </c>
       <c r="F5">
-        <v>0.2265491463881687</v>
+        <v>0.3309724147529521</v>
       </c>
       <c r="G5">
-        <v>0.1626611392621587</v>
+        <v>0.2376365168722369</v>
       </c>
       <c r="H5">
-        <v>0.1294221491411046</v>
+        <v>0.1890766833892831</v>
       </c>
       <c r="I5">
-        <v>0.1519015895110926</v>
+        <v>0.2219175692640068</v>
       </c>
       <c r="J5">
-        <v>0.1192098217530899</v>
+        <v>0.1595539739361684</v>
       </c>
       <c r="K5">
-        <v>0.08564274627242967</v>
+        <v>0.09619929426562941</v>
       </c>
       <c r="L5">
-        <v>0.078634596773343</v>
+        <v>0.0808574564089109</v>
       </c>
       <c r="M5">
-        <v>0.07764101773949468</v>
+        <v>0.07983579066997711</v>
       </c>
       <c r="N5">
-        <v>0.0871969212253334</v>
+        <v>0.08966182248369776</v>
       </c>
       <c r="O5">
-        <v>0.05325134155662142</v>
+        <v>0.05475666189325702</v>
       </c>
       <c r="P5">
-        <v>0.01446032473738938</v>
+        <v>0.01486909229638884</v>
       </c>
       <c r="Q5">
-        <v>0.03071793022212341</v>
+        <v>0.03158627125750463</v>
       </c>
       <c r="R5">
-        <v>0.06426348982295645</v>
+        <v>0.06608010392705017</v>
       </c>
       <c r="S5">
-        <v>0.06478717695022822</v>
+        <v>0.06661859475427903</v>
       </c>
       <c r="T5">
-        <v>0.0428625522054341</v>
+        <v>0.04363915288044024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.2451695798817166</v>
+        <v>0.3708013522830695</v>
       </c>
       <c r="B6">
-        <v>0.2344714911927786</v>
+        <v>0.3425464049104546</v>
       </c>
       <c r="C6">
-        <v>0.2656041718780125</v>
+        <v>0.3880290680252805</v>
       </c>
       <c r="D6">
-        <v>0.28113687509992</v>
+        <v>0.4107212581083422</v>
       </c>
       <c r="E6">
-        <v>0.2893387211288991</v>
+        <v>0.4227035799529452</v>
       </c>
       <c r="F6">
-        <v>0.2530369905793936</v>
+        <v>0.3696692974970995</v>
       </c>
       <c r="G6">
-        <v>0.2057418507722884</v>
+        <v>0.3005744150947814</v>
       </c>
       <c r="H6">
-        <v>0.152796025591534</v>
+        <v>0.223224277649827</v>
       </c>
       <c r="I6">
-        <v>0.147001261073515</v>
+        <v>0.2147585330816823</v>
       </c>
       <c r="J6">
-        <v>0.1168456912983415</v>
+        <v>0.1563897513627976</v>
       </c>
       <c r="K6">
-        <v>0.07333780279371399</v>
+        <v>0.08237761140102966</v>
       </c>
       <c r="L6">
-        <v>0.06550570687082821</v>
+        <v>0.06735743623267913</v>
       </c>
       <c r="M6">
-        <v>0.09225237000639827</v>
+        <v>0.09486017977445463</v>
       </c>
       <c r="N6">
-        <v>0.1146995181984097</v>
+        <v>0.1179418687627196</v>
       </c>
       <c r="O6">
-        <v>0.07295989362095283</v>
+        <v>0.07502233953153352</v>
       </c>
       <c r="P6">
-        <v>0.03420541560884104</v>
+        <v>0.03517234162861675</v>
       </c>
       <c r="Q6">
-        <v>0.03141763608919364</v>
+        <v>0.03230575655999517</v>
       </c>
       <c r="R6">
-        <v>0.03707122107012648</v>
+        <v>0.03811915829291812</v>
       </c>
       <c r="S6">
-        <v>0.05631406506052908</v>
+        <v>0.05790596312161546</v>
       </c>
       <c r="T6">
-        <v>0.0641679176277918</v>
+        <v>0.0653305373407907</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.2273604042054524</v>
+        <v>0.3438662552494511</v>
       </c>
       <c r="B7">
-        <v>0.1883606822724957</v>
+        <v>0.2751817468754642</v>
       </c>
       <c r="C7">
-        <v>0.1965990112413906</v>
+        <v>0.2872173677366986</v>
       </c>
       <c r="D7">
-        <v>0.240415517908046</v>
+        <v>0.3512302110808709</v>
       </c>
       <c r="E7">
-        <v>0.2657498961959673</v>
+        <v>0.3882419610340191</v>
       </c>
       <c r="F7">
-        <v>0.2746942365197222</v>
+        <v>0.4013090149714157</v>
       </c>
       <c r="G7">
-        <v>0.2085277449416318</v>
+        <v>0.3046444110986238</v>
       </c>
       <c r="H7">
-        <v>0.1565122850420048</v>
+        <v>0.228653472081941</v>
       </c>
       <c r="I7">
-        <v>0.1538130718749376</v>
+        <v>0.224710110943398</v>
       </c>
       <c r="J7">
-        <v>0.1287013918843819</v>
+        <v>0.1722577739341096</v>
       </c>
       <c r="K7">
-        <v>0.07010447067757612</v>
+        <v>0.07874573034586796</v>
       </c>
       <c r="L7">
-        <v>0.0676976666549424</v>
+        <v>0.06961135880577968</v>
       </c>
       <c r="M7">
-        <v>0.1068862755199755</v>
+        <v>0.1099077596656167</v>
       </c>
       <c r="N7">
-        <v>0.1135458097037215</v>
+        <v>0.1167555469890259</v>
       </c>
       <c r="O7">
-        <v>0.06880730032317753</v>
+        <v>0.07075235983637947</v>
       </c>
       <c r="P7">
-        <v>0.03751303633012232</v>
+        <v>0.03857346288137907</v>
       </c>
       <c r="Q7">
-        <v>0.0285245373047959</v>
+        <v>0.02933087503907389</v>
       </c>
       <c r="R7">
-        <v>0.01951345877882694</v>
+        <v>0.0200650694139625</v>
       </c>
       <c r="S7">
-        <v>0.04620661836680708</v>
+        <v>0.04751279695839725</v>
       </c>
       <c r="T7">
-        <v>0.07826500100611666</v>
+        <v>0.07968303725182116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.1882202260639238</v>
+        <v>0.2846695515210316</v>
       </c>
       <c r="B8">
-        <v>0.1694949438092766</v>
+        <v>0.2476202260539698</v>
       </c>
       <c r="C8">
-        <v>0.1726726196835321</v>
+        <v>0.2522625876526425</v>
       </c>
       <c r="D8">
-        <v>0.2138550543626115</v>
+        <v>0.3124272365530917</v>
       </c>
       <c r="E8">
-        <v>0.2334481426778464</v>
+        <v>0.3410513644986023</v>
       </c>
       <c r="F8">
-        <v>0.2201979796703971</v>
+        <v>0.3216938055920164</v>
       </c>
       <c r="G8">
-        <v>0.2156977301031751</v>
+        <v>0.3151192565813467</v>
       </c>
       <c r="H8">
-        <v>0.1837346340026645</v>
+        <v>0.2684234147826722</v>
       </c>
       <c r="I8">
-        <v>0.1864630933920113</v>
+        <v>0.2724095026008987</v>
       </c>
       <c r="J8">
-        <v>0.1538140235089772</v>
+        <v>0.2058692676246067</v>
       </c>
       <c r="K8">
-        <v>0.07303087532859262</v>
+        <v>0.08203285125705327</v>
       </c>
       <c r="L8">
-        <v>0.0475219088827112</v>
+        <v>0.04886526838851494</v>
       </c>
       <c r="M8">
-        <v>0.05676871695655459</v>
+        <v>0.05837346721488466</v>
       </c>
       <c r="N8">
-        <v>0.06349065755371031</v>
+        <v>0.06528542506957363</v>
       </c>
       <c r="O8">
-        <v>0.05341113014307115</v>
+        <v>0.05492096741771645</v>
       </c>
       <c r="P8">
-        <v>0.03301322252308535</v>
+        <v>0.03394644737318676</v>
       </c>
       <c r="Q8">
-        <v>0.03100740705497274</v>
+        <v>0.03188393108350934</v>
       </c>
       <c r="R8">
-        <v>0.02750572546791762</v>
+        <v>0.02828326321082588</v>
       </c>
       <c r="S8">
-        <v>0.03228882479051529</v>
+        <v>0.03320157221025016</v>
       </c>
       <c r="T8">
-        <v>0.05067241511390042</v>
+        <v>0.05159051797424894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.1266493713123397</v>
+        <v>0.1915480630634237</v>
       </c>
       <c r="B9">
-        <v>0.1342241144549754</v>
+        <v>0.1960920179461769</v>
       </c>
       <c r="C9">
-        <v>0.1599470098870361</v>
+        <v>0.2336713641998136</v>
       </c>
       <c r="D9">
-        <v>0.1866078209852056</v>
+        <v>0.2726209394646634</v>
       </c>
       <c r="E9">
-        <v>0.1841607083345655</v>
+        <v>0.2690458795005569</v>
       </c>
       <c r="F9">
-        <v>0.164808059141241</v>
+        <v>0.2407730162499193</v>
       </c>
       <c r="G9">
-        <v>0.1966216683912609</v>
+        <v>0.2872504682436904</v>
       </c>
       <c r="H9">
-        <v>0.2483652688991789</v>
+        <v>0.3628442397548599</v>
       </c>
       <c r="I9">
-        <v>0.2158002569928844</v>
+        <v>0.3152690411768977</v>
       </c>
       <c r="J9">
-        <v>0.1693914539174652</v>
+        <v>0.2267185641744856</v>
       </c>
       <c r="K9">
-        <v>0.1029591532688106</v>
+        <v>0.11565016669526</v>
       </c>
       <c r="L9">
-        <v>0.05152563025050758</v>
+        <v>0.05298216781006528</v>
       </c>
       <c r="M9">
-        <v>0.01798357902341235</v>
+        <v>0.01849194268971832</v>
       </c>
       <c r="N9">
-        <v>0.02609226919278607</v>
+        <v>0.02682985105075876</v>
       </c>
       <c r="O9">
-        <v>0.06163280152628812</v>
+        <v>0.06337505076976864</v>
       </c>
       <c r="P9">
-        <v>0.06858914409663588</v>
+        <v>0.07052803672286788</v>
       </c>
       <c r="Q9">
-        <v>0.05532129642350641</v>
+        <v>0.05688513068797848</v>
       </c>
       <c r="R9">
-        <v>0.03313742151323461</v>
+        <v>0.03407415724700947</v>
       </c>
       <c r="S9">
-        <v>0.0173443289887655</v>
+        <v>0.01783462219807978</v>
       </c>
       <c r="T9">
-        <v>0.01942051006406667</v>
+        <v>0.01977237854712928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.1002636192061668</v>
+        <v>0.1516415111710763</v>
       </c>
       <c r="B10">
-        <v>0.1121216157624123</v>
+        <v>0.1638018174268709</v>
       </c>
       <c r="C10">
-        <v>0.1565969009289286</v>
+        <v>0.2287770899585391</v>
       </c>
       <c r="D10">
-        <v>0.1849842712635604</v>
+        <v>0.2702490471825196</v>
       </c>
       <c r="E10">
-        <v>0.1726608478509912</v>
+        <v>0.2522453898308709</v>
       </c>
       <c r="F10">
-        <v>0.1498461144063699</v>
+        <v>0.2189146642885494</v>
       </c>
       <c r="G10">
-        <v>0.1702625483830459</v>
+        <v>0.2487416425033637</v>
       </c>
       <c r="H10">
-        <v>0.2140859953929917</v>
+        <v>0.3127646252023497</v>
       </c>
       <c r="I10">
-        <v>0.240633770749366</v>
+        <v>0.3515490631757474</v>
       </c>
       <c r="J10">
-        <v>0.1883148013548094</v>
+        <v>0.2520461356732226</v>
       </c>
       <c r="K10">
-        <v>0.1372695301117732</v>
+        <v>0.154189729961733</v>
       </c>
       <c r="L10">
-        <v>0.08240418971800212</v>
+        <v>0.08473360901487731</v>
       </c>
       <c r="M10">
-        <v>0.04239241042599481</v>
+        <v>0.04359076817000395</v>
       </c>
       <c r="N10">
-        <v>0.03826051409000544</v>
+        <v>0.03934207050278762</v>
       </c>
       <c r="O10">
-        <v>0.07441253135372827</v>
+        <v>0.07651604073908708</v>
       </c>
       <c r="P10">
-        <v>0.105524076222059</v>
+        <v>0.1085070534259826</v>
       </c>
       <c r="Q10">
-        <v>0.07967345429091932</v>
+        <v>0.08192568057345538</v>
       </c>
       <c r="R10">
-        <v>0.03505843851203175</v>
+        <v>0.0360494779660657</v>
       </c>
       <c r="S10">
-        <v>0.02490474527745172</v>
+        <v>0.02560875795486033</v>
       </c>
       <c r="T10">
-        <v>0.02904622722147779</v>
+        <v>0.0295724982554206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.09706536408705151</v>
+        <v>0.1485035378235294</v>
       </c>
       <c r="B11">
-        <v>0.1026909718894042</v>
+        <v>0.1512033650523759</v>
       </c>
       <c r="C11">
-        <v>0.1208025767921075</v>
+        <v>0.1778710998824366</v>
       </c>
       <c r="D11">
-        <v>0.1422157801894375</v>
+        <v>0.2094001462110102</v>
       </c>
       <c r="E11">
-        <v>0.1434246446964282</v>
+        <v>0.2111800921788624</v>
       </c>
       <c r="F11">
-        <v>0.1297769997171887</v>
+        <v>0.191085143149423</v>
       </c>
       <c r="G11">
-        <v>0.1264741994288194</v>
+        <v>0.1862220621160169</v>
       </c>
       <c r="H11">
-        <v>0.1342243212905666</v>
+        <v>0.1976334304525072</v>
       </c>
       <c r="I11">
-        <v>0.1428742634748582</v>
+        <v>0.2103697045544016</v>
       </c>
       <c r="J11">
-        <v>0.1488730910680978</v>
+        <v>0.204353090192528</v>
       </c>
       <c r="K11">
-        <v>0.1223367091518725</v>
+        <v>0.1483019825418044</v>
       </c>
       <c r="L11">
-        <v>0.09806559738793987</v>
+        <v>0.1124595862662493</v>
       </c>
       <c r="M11">
-        <v>0.07854139404360869</v>
+        <v>0.09006963618420724</v>
       </c>
       <c r="N11">
-        <v>0.0739917738674591</v>
+        <v>0.08485222644718886</v>
       </c>
       <c r="O11">
-        <v>0.09631312215940448</v>
+        <v>0.1104498841444818</v>
       </c>
       <c r="P11">
-        <v>0.1191483515926257</v>
+        <v>0.1366368500403399</v>
       </c>
       <c r="Q11">
-        <v>0.09111719770252441</v>
+        <v>0.1044913061083959</v>
       </c>
       <c r="R11">
-        <v>0.05967839431307444</v>
+        <v>0.06843794064632706</v>
       </c>
       <c r="S11">
-        <v>0.0567724469514925</v>
+        <v>0.06510546068699738</v>
       </c>
       <c r="T11">
-        <v>0.04939925593288279</v>
+        <v>0.05685079935521824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.0425252443500946</v>
+        <v>0.06698399408361683</v>
       </c>
       <c r="B12">
-        <v>0.04014811260169932</v>
+        <v>0.06026240856895559</v>
       </c>
       <c r="C12">
-        <v>0.03525681609064017</v>
+        <v>0.05292056135173728</v>
       </c>
       <c r="D12">
-        <v>0.03735204404223105</v>
+        <v>0.05606550328503556</v>
       </c>
       <c r="E12">
-        <v>0.04566746209836719</v>
+        <v>0.06854696474978537</v>
       </c>
       <c r="F12">
-        <v>0.04929276041383582</v>
+        <v>0.0739885457884385</v>
       </c>
       <c r="G12">
-        <v>0.05181633951468814</v>
+        <v>0.07777644377359068</v>
       </c>
       <c r="H12">
-        <v>0.05072028132843888</v>
+        <v>0.07613125793657811</v>
       </c>
       <c r="I12">
-        <v>0.04689979724284727</v>
+        <v>0.07039670261186855</v>
       </c>
       <c r="J12">
-        <v>0.06563440418525805</v>
+        <v>0.09510529833002664</v>
       </c>
       <c r="K12">
-        <v>0.1086254242579456</v>
+        <v>0.1498941331572913</v>
       </c>
       <c r="L12">
-        <v>0.1116877223142582</v>
+        <v>0.1514252603121679</v>
       </c>
       <c r="M12">
-        <v>0.09332987086778785</v>
+        <v>0.1265358420623072</v>
       </c>
       <c r="N12">
-        <v>0.1009251958030351</v>
+        <v>0.1368335187598333</v>
       </c>
       <c r="O12">
-        <v>0.1219053622586049</v>
+        <v>0.1652782493094303</v>
       </c>
       <c r="P12">
-        <v>0.1154765589362078</v>
+        <v>0.1565621326547222</v>
       </c>
       <c r="Q12">
-        <v>0.07674778176984241</v>
+        <v>0.104053987242931</v>
       </c>
       <c r="R12">
-        <v>0.05795657006805499</v>
+        <v>0.07857702285898673</v>
       </c>
       <c r="S12">
-        <v>0.05065920380342779</v>
+        <v>0.06868331598308475</v>
       </c>
       <c r="T12">
-        <v>0.02703080635439346</v>
+        <v>0.0373459319073881</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.001986785847196103</v>
+        <v>0.003188947885681278</v>
       </c>
       <c r="B13">
-        <v>0.002967102715843328</v>
+        <v>0.004507363466833732</v>
       </c>
       <c r="C13">
-        <v>0.002272310381318414</v>
+        <v>0.003451895596122146</v>
       </c>
       <c r="D13">
-        <v>0.002087427397511052</v>
+        <v>0.003171037504353773</v>
       </c>
       <c r="E13">
-        <v>0.002824163219629281</v>
+        <v>0.004290222260443209</v>
       </c>
       <c r="F13">
-        <v>0.003327338286805296</v>
+        <v>0.005054601903621878</v>
       </c>
       <c r="G13">
-        <v>0.003896682224053709</v>
+        <v>0.00591949951876473</v>
       </c>
       <c r="H13">
-        <v>0.004178006149904119</v>
+        <v>0.006346862271983057</v>
       </c>
       <c r="I13">
-        <v>0.003702829804510095</v>
+        <v>0.005625015843109481</v>
       </c>
       <c r="J13">
-        <v>0.03617482947661409</v>
+        <v>0.05396405253362658</v>
       </c>
       <c r="K13">
-        <v>0.08976248873832281</v>
+        <v>0.1309633160926006</v>
       </c>
       <c r="L13">
-        <v>0.1106008270071889</v>
+        <v>0.1601959848578293</v>
       </c>
       <c r="M13">
-        <v>0.08758435353829942</v>
+        <v>0.1268585611235277</v>
       </c>
       <c r="N13">
-        <v>0.1086833877061511</v>
+        <v>0.1574187354868559</v>
       </c>
       <c r="O13">
-        <v>0.1162767236247785</v>
+        <v>0.1684170431736671</v>
       </c>
       <c r="P13">
-        <v>0.07289904076321482</v>
+        <v>0.1055881221348841</v>
       </c>
       <c r="Q13">
-        <v>0.02225823299432583</v>
+        <v>0.03223917625398311</v>
       </c>
       <c r="R13">
-        <v>0.002773451547461205</v>
+        <v>0.004017111030030001</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0.0005744800650803731</v>
+        <v>0.000851689716148851</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.001815374389829933</v>
+        <v>0.002913818985744314</v>
       </c>
       <c r="B14">
-        <v>0.003117573741638567</v>
+        <v>0.004735945915585825</v>
       </c>
       <c r="C14">
-        <v>0.00281120752798292</v>
+        <v>0.00427054110451202</v>
       </c>
       <c r="D14">
-        <v>0.002415948179149295</v>
+        <v>0.003670097601378762</v>
       </c>
       <c r="E14">
-        <v>0.002222979980565568</v>
+        <v>0.003376957157027884</v>
       </c>
       <c r="F14">
-        <v>0.00210198859710062</v>
+        <v>0.00319315760781795</v>
       </c>
       <c r="G14">
-        <v>0.002535152760186611</v>
+        <v>0.003851182796298987</v>
       </c>
       <c r="H14">
-        <v>0.003236548986903139</v>
+        <v>0.004916682723617324</v>
       </c>
       <c r="I14">
-        <v>0.00341765756131527</v>
+        <v>0.005191807062076082</v>
       </c>
       <c r="J14">
-        <v>0.03265690882544497</v>
+        <v>0.04871617002594131</v>
       </c>
       <c r="K14">
-        <v>0.07312219692731305</v>
+        <v>0.1066851590701118</v>
       </c>
       <c r="L14">
-        <v>0.08095545643880499</v>
+        <v>0.1172571618563622</v>
       </c>
       <c r="M14">
-        <v>0.07503792846517994</v>
+        <v>0.1086861208676994</v>
       </c>
       <c r="N14">
-        <v>0.08537130196184062</v>
+        <v>0.1236531422634233</v>
       </c>
       <c r="O14">
-        <v>0.07512101019389961</v>
+        <v>0.1088064577559134</v>
       </c>
       <c r="P14">
-        <v>0.03453794002831347</v>
+        <v>0.05002529788892715</v>
       </c>
       <c r="Q14">
-        <v>0.01542122653826312</v>
+        <v>0.02233634810752529</v>
       </c>
       <c r="R14">
-        <v>0.01097671915238273</v>
+        <v>0.01589885340558488</v>
       </c>
       <c r="S14">
-        <v>0.01144640566073561</v>
+        <v>0.01657915476332367</v>
       </c>
       <c r="T14">
-        <v>0.0241035976155461</v>
+        <v>0.03573454930673441</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.001611583244965388</v>
+        <v>0.002586718135165215</v>
       </c>
       <c r="B15">
-        <v>0.003190021376054776</v>
+        <v>0.004846002038308673</v>
       </c>
       <c r="C15">
-        <v>0.003002677137800143</v>
+        <v>0.004561405023610879</v>
       </c>
       <c r="D15">
-        <v>0.002301934130611764</v>
+        <v>0.003496897410384428</v>
       </c>
       <c r="E15">
-        <v>0.002117997534555656</v>
+        <v>0.003217476988283734</v>
       </c>
       <c r="F15">
-        <v>0.001815768999563977</v>
+        <v>0.0027583577774852</v>
       </c>
       <c r="G15">
-        <v>0.001462288955757445</v>
+        <v>0.002221381747905617</v>
       </c>
       <c r="H15">
-        <v>0.002205218129264208</v>
+        <v>0.0033499749028472</v>
       </c>
       <c r="I15">
-        <v>0.002880418327906537</v>
+        <v>0.004375680110795926</v>
       </c>
       <c r="J15">
-        <v>0.02263460664671497</v>
+        <v>0.03376533130448985</v>
       </c>
       <c r="K15">
-        <v>0.04236898265498052</v>
+        <v>0.06181627254277717</v>
       </c>
       <c r="L15">
-        <v>0.06104018001548839</v>
+        <v>0.08841156090853439</v>
       </c>
       <c r="M15">
-        <v>0.07035106347538798</v>
+        <v>0.1018975915840386</v>
       </c>
       <c r="N15">
-        <v>0.07585571269884875</v>
+        <v>0.1098706124692429</v>
       </c>
       <c r="O15">
-        <v>0.06049899854629261</v>
+        <v>0.08762770512019574</v>
       </c>
       <c r="P15">
-        <v>0.04779141955367046</v>
+        <v>0.06922184698181627</v>
       </c>
       <c r="Q15">
-        <v>0.05419489858207316</v>
+        <v>0.07849674715416988</v>
       </c>
       <c r="R15">
-        <v>0.0548728294939794</v>
+        <v>0.07947867299538738</v>
       </c>
       <c r="S15">
-        <v>0.04642179800332581</v>
+        <v>0.06723806549412716</v>
       </c>
       <c r="T15">
-        <v>0.03824139292357483</v>
+        <v>0.05669439735852178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.001617271262882831</v>
+        <v>0.002595847852259359</v>
       </c>
       <c r="B16">
-        <v>0.003066681389500977</v>
+        <v>0.004658634696280426</v>
       </c>
       <c r="C16">
-        <v>0.002810844551937616</v>
+        <v>0.004269989702985809</v>
       </c>
       <c r="D16">
-        <v>0.002262343522795832</v>
+        <v>0.00343675481459682</v>
       </c>
       <c r="E16">
-        <v>0.002475431123000214</v>
+        <v>0.003760458897798238</v>
       </c>
       <c r="F16">
-        <v>0.002239475240893085</v>
+        <v>0.003402015316753585</v>
       </c>
       <c r="G16">
-        <v>0.001415907325916732</v>
+        <v>0.002150922824202055</v>
       </c>
       <c r="H16">
-        <v>0.001492924845305014</v>
+        <v>0.002267921117298974</v>
       </c>
       <c r="I16">
-        <v>0.00189450509661769</v>
+        <v>0.002877966783767988</v>
       </c>
       <c r="J16">
-        <v>0.01852989044802252</v>
+        <v>0.02764209247277497</v>
       </c>
       <c r="K16">
-        <v>0.03565512056433669</v>
+        <v>0.05202075934413603</v>
       </c>
       <c r="L16">
-        <v>0.04971868477549688</v>
+        <v>0.07201332837166753</v>
       </c>
       <c r="M16">
-        <v>0.07040901070193134</v>
+        <v>0.1019815232622827</v>
       </c>
       <c r="N16">
-        <v>0.08047416080033877</v>
+        <v>0.1165600456511926</v>
       </c>
       <c r="O16">
-        <v>0.08894631513127899</v>
+        <v>0.1288312478079746</v>
       </c>
       <c r="P16">
-        <v>0.066177644025862</v>
+        <v>0.09585274493114534</v>
       </c>
       <c r="Q16">
-        <v>0.04393492697380399</v>
+        <v>0.06363604221302857</v>
       </c>
       <c r="R16">
-        <v>0.04084666500727725</v>
+        <v>0.05916295479936419</v>
       </c>
       <c r="S16">
-        <v>0.04542069766124523</v>
+        <v>0.0657880559455486</v>
       </c>
       <c r="T16">
-        <v>0.04404514601375171</v>
+        <v>0.06529869387363099</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.001928371177259426</v>
+        <v>0.003095187736115973</v>
       </c>
       <c r="B17">
-        <v>0.003029861657914902</v>
+        <v>0.004602701373809475</v>
       </c>
       <c r="C17">
-        <v>0.002610806039394148</v>
+        <v>0.003966108654788961</v>
       </c>
       <c r="D17">
-        <v>0.002577913978017404</v>
+        <v>0.003916141906079269</v>
       </c>
       <c r="E17">
-        <v>0.00275663428955904</v>
+        <v>0.004187638204041083</v>
       </c>
       <c r="F17">
-        <v>0.00240077125169757</v>
+        <v>0.003647042137889273</v>
       </c>
       <c r="G17">
-        <v>0.00187600306667848</v>
+        <v>0.002849860114806056</v>
       </c>
       <c r="H17">
-        <v>0.001576917653158226</v>
+        <v>0.002395515659804304</v>
       </c>
       <c r="I17">
-        <v>0.001822673325342474</v>
+        <v>0.002768846226574253</v>
       </c>
       <c r="J17">
-        <v>0.02716886120699524</v>
+        <v>0.04052933696345176</v>
       </c>
       <c r="K17">
-        <v>0.0540485627824631</v>
+        <v>0.07885675978376114</v>
       </c>
       <c r="L17">
-        <v>0.04767640791562171</v>
+        <v>0.06905526230857387</v>
       </c>
       <c r="M17">
-        <v>0.05981102406405215</v>
+        <v>0.08663123201306064</v>
       </c>
       <c r="N17">
-        <v>0.0742394809617451</v>
+        <v>0.1075296368916645</v>
       </c>
       <c r="O17">
-        <v>0.08085679506617006</v>
+        <v>0.1171142591658096</v>
       </c>
       <c r="P17">
-        <v>0.05886102118129335</v>
+        <v>0.08525523283168535</v>
       </c>
       <c r="Q17">
-        <v>0.01248284205023662</v>
+        <v>0.01808034560114458</v>
       </c>
       <c r="R17">
-        <v>0.01923909079132748</v>
+        <v>0.02786620299761026</v>
       </c>
       <c r="S17">
-        <v>0.03629260395750418</v>
+        <v>0.05256678084016171</v>
       </c>
       <c r="T17">
-        <v>0.0499426892621028</v>
+        <v>0.07404203805644607</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.001397044581838502</v>
+        <v>0.002242366670642305</v>
       </c>
       <c r="B18">
-        <v>0.002143640444525991</v>
+        <v>0.003256431458908032</v>
       </c>
       <c r="C18">
-        <v>0.001670910529121471</v>
+        <v>0.002538301432941568</v>
       </c>
       <c r="D18">
-        <v>0.002129935983032167</v>
+        <v>0.003235612837179821</v>
       </c>
       <c r="E18">
-        <v>0.002950069915652302</v>
+        <v>0.004481488723465743</v>
       </c>
       <c r="F18">
-        <v>0.002321295275275892</v>
+        <v>0.003526309171449924</v>
       </c>
       <c r="G18">
-        <v>0.001690009486802895</v>
+        <v>0.002567314902427536</v>
       </c>
       <c r="H18">
-        <v>0.00182725645456293</v>
+        <v>0.002775808516454465</v>
       </c>
       <c r="I18">
-        <v>0.002065208103454117</v>
+        <v>0.003137283892199972</v>
       </c>
       <c r="J18">
-        <v>0.02276960907836337</v>
+        <v>0.03396672211735743</v>
       </c>
       <c r="K18">
-        <v>0.04311265636462908</v>
+        <v>0.06290129120118788</v>
       </c>
       <c r="L18">
-        <v>0.04973143087201393</v>
+        <v>0.07203179001919671</v>
       </c>
       <c r="M18">
-        <v>0.06096743658472265</v>
+        <v>0.08830619817437782</v>
       </c>
       <c r="N18">
-        <v>0.06407409809186532</v>
+        <v>0.09280593577330444</v>
       </c>
       <c r="O18">
-        <v>0.06146616871444597</v>
+        <v>0.08902856966890631</v>
       </c>
       <c r="P18">
-        <v>0.0387192940116905</v>
+        <v>0.05608163704598203</v>
       </c>
       <c r="Q18">
-        <v>0.009530930208838023</v>
+        <v>0.01380474986246534</v>
       </c>
       <c r="R18">
-        <v>0.02385153972406127</v>
+        <v>0.03454694688877218</v>
       </c>
       <c r="S18">
-        <v>0.02998939706040342</v>
+        <v>0.04343711640665718</v>
       </c>
       <c r="T18">
-        <v>0.03885407002168761</v>
+        <v>0.05760271570671298</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.0007053106368804865</v>
+        <v>0.001132079165654807</v>
       </c>
       <c r="B19">
-        <v>0.00138746224115348</v>
+        <v>0.002107711534215948</v>
       </c>
       <c r="C19">
-        <v>0.001379135620884942</v>
+        <v>0.00209506245948045</v>
       </c>
       <c r="D19">
-        <v>0.001692135295311666</v>
+        <v>0.002570544245166079</v>
       </c>
       <c r="E19">
-        <v>0.002371624333289262</v>
+        <v>0.003602764683488086</v>
       </c>
       <c r="F19">
-        <v>0.002094203630946934</v>
+        <v>0.003181331366736273</v>
       </c>
       <c r="G19">
-        <v>0.002081398908946188</v>
+        <v>0.003161879550713544</v>
       </c>
       <c r="H19">
-        <v>0.002327771581153802</v>
+        <v>0.003536147410065076</v>
       </c>
       <c r="I19">
-        <v>0.001872372665263674</v>
+        <v>0.002844345125850781</v>
       </c>
       <c r="J19">
-        <v>0.009955259322339292</v>
+        <v>0.01485082707587864</v>
       </c>
       <c r="K19">
-        <v>0.01975687736894227</v>
+        <v>0.02882524997066921</v>
       </c>
       <c r="L19">
-        <v>0.04804576500438472</v>
+        <v>0.06959024495020244</v>
       </c>
       <c r="M19">
-        <v>0.06253436064420201</v>
+        <v>0.09057575573283448</v>
       </c>
       <c r="N19">
-        <v>0.05375167010046058</v>
+        <v>0.07785476802028553</v>
       </c>
       <c r="O19">
-        <v>0.04078131125914179</v>
+        <v>0.05906829539825473</v>
       </c>
       <c r="P19">
-        <v>0.03576116560083203</v>
+        <v>0.05179703712990186</v>
       </c>
       <c r="Q19">
-        <v>0.031854555287771</v>
+        <v>0.04613864104470905</v>
       </c>
       <c r="R19">
-        <v>0.02019248342472955</v>
+        <v>0.02924711194736085</v>
       </c>
       <c r="S19">
-        <v>0.02558016209294478</v>
+        <v>0.03705071083271239</v>
       </c>
       <c r="T19">
-        <v>0.03612345357242929</v>
+        <v>0.0535544674036934</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.0008427768442950131</v>
+        <v>0.001352723263812563</v>
       </c>
       <c r="B20">
-        <v>0.001411868070199365</v>
+        <v>0.002144786739476561</v>
       </c>
       <c r="C20">
-        <v>0.001664957468267665</v>
+        <v>0.002529258062496384</v>
       </c>
       <c r="D20">
-        <v>0.00156369271838833</v>
+        <v>0.002375425493220319</v>
       </c>
       <c r="E20">
-        <v>0.001185276447174719</v>
+        <v>0.001800568523484816</v>
       </c>
       <c r="F20">
-        <v>0.001276440959475679</v>
+        <v>0.001939057693415785</v>
       </c>
       <c r="G20">
-        <v>0.002163145855125821</v>
+        <v>0.003286062376191014</v>
       </c>
       <c r="H20">
-        <v>0.002423692273416897</v>
+        <v>0.003681861753458541</v>
       </c>
       <c r="I20">
-        <v>0.0016031825529424</v>
+        <v>0.002435415003064347</v>
       </c>
       <c r="J20">
-        <v>0.004449923706355807</v>
+        <v>0.00663820452327648</v>
       </c>
       <c r="K20">
-        <v>0.006678889976061289</v>
+        <v>0.009744488943845208</v>
       </c>
       <c r="L20">
-        <v>0.02821937435679879</v>
+        <v>0.04087338756395847</v>
       </c>
       <c r="M20">
-        <v>0.03950972074231546</v>
+        <v>0.05722650360798512</v>
       </c>
       <c r="N20">
-        <v>0.04444882368629425</v>
+        <v>0.06438037832877232</v>
       </c>
       <c r="O20">
-        <v>0.05315853716239087</v>
+        <v>0.07699566490381859</v>
       </c>
       <c r="P20">
-        <v>0.06290169193559182</v>
+        <v>0.09110780417754877</v>
       </c>
       <c r="Q20">
-        <v>0.05183290029780603</v>
+        <v>0.07507559152975414</v>
       </c>
       <c r="R20">
-        <v>0.02787099852056496</v>
+        <v>0.04036879449990732</v>
       </c>
       <c r="S20">
-        <v>0.008837490781713003</v>
+        <v>0.01280036124283666</v>
       </c>
       <c r="T20">
-        <v>0.01670696227970677</v>
+        <v>0.0247687410349431</v>
       </c>
     </row>
     <row r="21">
@@ -3001,61 +3000,61 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0.0009211226897825301</v>
+        <v>0.001478474521137012</v>
       </c>
       <c r="C21">
-        <v>0.001056092154219424</v>
+        <v>0.001695111150019282</v>
       </c>
       <c r="D21">
-        <v>0.0009177721718325426</v>
+        <v>0.00147309667573529</v>
       </c>
       <c r="E21">
-        <v>0.0004965794874871046</v>
+        <v>0.0007970492184296254</v>
       </c>
       <c r="F21">
-        <v>0.0003872938116780278</v>
+        <v>0.0006216370947231662</v>
       </c>
       <c r="G21">
-        <v>0.0007229544199194022</v>
+        <v>0.00116039882813719</v>
       </c>
       <c r="H21">
-        <v>0.0009978448252101178</v>
+        <v>0.001601619595832428</v>
       </c>
       <c r="I21">
-        <v>0.0007973567607338315</v>
+        <v>0.00127982044962939</v>
       </c>
       <c r="J21">
-        <v>0.004932528070683678</v>
+        <v>0.007669470324224667</v>
       </c>
       <c r="K21">
-        <v>0.006509639520781496</v>
+        <v>0.009760884762501924</v>
       </c>
       <c r="L21">
-        <v>0.01467600649834654</v>
+        <v>0.02175776770779108</v>
       </c>
       <c r="M21">
-        <v>0.02165174690429233</v>
+        <v>0.03209958238057148</v>
       </c>
       <c r="N21">
-        <v>0.04352214241972861</v>
+        <v>0.06452332008850924</v>
       </c>
       <c r="O21">
-        <v>0.06921684343662915</v>
+        <v>0.10261674394396</v>
       </c>
       <c r="P21">
-        <v>0.07263016004311741</v>
+        <v>0.1076771225861666</v>
       </c>
       <c r="Q21">
-        <v>0.06461940020445127</v>
+        <v>0.09580085013069739</v>
       </c>
       <c r="R21">
-        <v>0.04945730376482222</v>
+        <v>0.07332243460711868</v>
       </c>
       <c r="S21">
-        <v>0.02293995600655986</v>
+        <v>0.03400940399378464</v>
       </c>
       <c r="T21">
-        <v>0.009068998191408629</v>
+        <v>0.01397060334838952</v>
       </c>
     </row>
   </sheetData>
@@ -3175,61 +3174,61 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.07763180263736839</v>
+        <v>0.1250260337267181</v>
       </c>
       <c r="B2">
-        <v>0.111507987084881</v>
+        <v>0.1686478086775086</v>
       </c>
       <c r="C2">
-        <v>0.0948323267960684</v>
+        <v>0.1434270721232919</v>
       </c>
       <c r="D2">
-        <v>0.08671680001132408</v>
+        <v>0.1311529216853603</v>
       </c>
       <c r="E2">
-        <v>0.07375776548920829</v>
+        <v>0.1115533142324217</v>
       </c>
       <c r="F2">
-        <v>0.05722765245774114</v>
+        <v>0.08655270743439576</v>
       </c>
       <c r="G2">
-        <v>0.05042770712219803</v>
+        <v>0.07626827929658678</v>
       </c>
       <c r="H2">
-        <v>0.05123613121182635</v>
+        <v>0.07749096257481818</v>
       </c>
       <c r="I2">
-        <v>0.0447982705757427</v>
+        <v>0.06775416149688077</v>
       </c>
       <c r="J2">
-        <v>0.07036567714117939</v>
+        <v>0.0964136495566652</v>
       </c>
       <c r="K2">
-        <v>0.1460691096117236</v>
+        <v>0.1642888529489285</v>
       </c>
       <c r="L2">
-        <v>0.1199571952117364</v>
+        <v>0.122130627123275</v>
       </c>
       <c r="M2">
-        <v>0.04787717097637569</v>
+        <v>0.04874462849779047</v>
       </c>
       <c r="N2">
-        <v>0.03012955765303578</v>
+        <v>0.03067545689624551</v>
       </c>
       <c r="O2">
-        <v>0.01637904907069938</v>
+        <v>0.0166758111604438</v>
       </c>
       <c r="P2">
-        <v>0.03854679506168148</v>
+        <v>0.03924520114167292</v>
       </c>
       <c r="Q2">
-        <v>0.0980677507770024</v>
+        <v>0.09984458107597137</v>
       </c>
       <c r="R2">
-        <v>0.1168471235785438</v>
+        <v>0.1189642059820531</v>
       </c>
       <c r="S2">
-        <v>0.0904345375298853</v>
+        <v>0.09207306625194944</v>
       </c>
       <c r="T2">
         <v>0.0726538829038464</v>
@@ -3237,1177 +3236,1177 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.1250160992859005</v>
+        <v>0.1890778566196147</v>
       </c>
       <c r="B3">
-        <v>0.1597388912693434</v>
+        <v>0.2333673174949331</v>
       </c>
       <c r="C3">
-        <v>0.1258551541875949</v>
+        <v>0.1838655539191596</v>
       </c>
       <c r="D3">
-        <v>0.112252494979168</v>
+        <v>0.1639930227838595</v>
       </c>
       <c r="E3">
-        <v>0.100635738393122</v>
+        <v>0.1470217561065037</v>
       </c>
       <c r="F3">
-        <v>0.0789088508378824</v>
+        <v>0.1152802971168395</v>
       </c>
       <c r="G3">
-        <v>0.05656134981608598</v>
+        <v>0.0826321653767841</v>
       </c>
       <c r="H3">
-        <v>0.04349749205195524</v>
+        <v>0.06354678536491194</v>
       </c>
       <c r="I3">
-        <v>0.04134878501669841</v>
+        <v>0.06040767507739354</v>
       </c>
       <c r="J3">
-        <v>0.08193424049677418</v>
+        <v>0.1096632264057824</v>
       </c>
       <c r="K3">
-        <v>0.1673823455340161</v>
+        <v>0.1880143294526941</v>
       </c>
       <c r="L3">
-        <v>0.1627136718396403</v>
+        <v>0.1673132967900919</v>
       </c>
       <c r="M3">
-        <v>0.09441969309547329</v>
+        <v>0.09708876921714021</v>
       </c>
       <c r="N3">
-        <v>0.06694296392643016</v>
+        <v>0.06883532197878027</v>
       </c>
       <c r="O3">
-        <v>0.052141299834347</v>
+        <v>0.05361524127365891</v>
       </c>
       <c r="P3">
-        <v>0.04341124705602289</v>
+        <v>0.04463840549225984</v>
       </c>
       <c r="Q3">
-        <v>0.1015951814594707</v>
+        <v>0.1044670958241541</v>
       </c>
       <c r="R3">
-        <v>0.1525870754545989</v>
+        <v>0.1569004396079757</v>
       </c>
       <c r="S3">
-        <v>0.1244739572853567</v>
+        <v>0.1279926137887601</v>
       </c>
       <c r="T3">
-        <v>0.08630416257907697</v>
+        <v>0.08786785553402551</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.1094503368793207</v>
+        <v>0.1655357607671791</v>
       </c>
       <c r="B4">
-        <v>0.1407619578772714</v>
+        <v>0.2056433486805972</v>
       </c>
       <c r="C4">
-        <v>0.1454418586812353</v>
+        <v>0.2124803555490244</v>
       </c>
       <c r="D4">
-        <v>0.1220346045905933</v>
+        <v>0.1782839988969374</v>
       </c>
       <c r="E4">
-        <v>0.1058952131833832</v>
+        <v>0.154705479922803</v>
       </c>
       <c r="F4">
-        <v>0.08552997574698615</v>
+        <v>0.1249532962628713</v>
       </c>
       <c r="G4">
-        <v>0.05348352401481576</v>
+        <v>0.07813567773215643</v>
       </c>
       <c r="H4">
-        <v>0.03535252002852945</v>
+        <v>0.0516475524537909</v>
       </c>
       <c r="I4">
-        <v>0.0424313119313685</v>
+        <v>0.06198917098102204</v>
       </c>
       <c r="J4">
-        <v>0.07123163776875145</v>
+        <v>0.09533854433174142</v>
       </c>
       <c r="K4">
-        <v>0.1362464571998698</v>
+        <v>0.1530405504177432</v>
       </c>
       <c r="L4">
-        <v>0.1816109746877716</v>
+        <v>0.1867447926454475</v>
       </c>
       <c r="M4">
-        <v>0.151831376034118</v>
+        <v>0.1561233779143055</v>
       </c>
       <c r="N4">
-        <v>0.1233499198777615</v>
+        <v>0.1268368018508088</v>
       </c>
       <c r="O4">
-        <v>0.08259206707292359</v>
+        <v>0.084926797327136</v>
       </c>
       <c r="P4">
-        <v>0.02929791313787846</v>
+        <v>0.0301261128259659</v>
       </c>
       <c r="Q4">
-        <v>0.06878688808762123</v>
+        <v>0.07073137058337345</v>
       </c>
       <c r="R4">
-        <v>0.1459524625938989</v>
+        <v>0.1500782780889139</v>
       </c>
       <c r="S4">
-        <v>0.1301928510195133</v>
+        <v>0.1338731704367407</v>
       </c>
       <c r="T4">
-        <v>0.07663379297704215</v>
+        <v>0.07802227435045665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.08884360709822196</v>
+        <v>0.1343695644036267</v>
       </c>
       <c r="B5">
-        <v>0.1220004570150756</v>
+        <v>0.1782341116839098</v>
       </c>
       <c r="C5">
-        <v>0.137357092660766</v>
+        <v>0.2006690793859151</v>
       </c>
       <c r="D5">
-        <v>0.1418288484966116</v>
+        <v>0.2072020010533379</v>
       </c>
       <c r="E5">
-        <v>0.1116058152908663</v>
+        <v>0.1630482691115496</v>
       </c>
       <c r="F5">
-        <v>0.0956880139162823</v>
+        <v>0.1397934776347495</v>
       </c>
       <c r="G5">
-        <v>0.06870350917450481</v>
+        <v>0.1003710086575501</v>
       </c>
       <c r="H5">
-        <v>0.0546642907533636</v>
+        <v>0.07986069512881237</v>
       </c>
       <c r="I5">
-        <v>0.06415897672877711</v>
+        <v>0.09373176546698653</v>
       </c>
       <c r="J5">
-        <v>0.07614629311554338</v>
+        <v>0.1019164653417354</v>
       </c>
       <c r="K5">
-        <v>0.1106978385309252</v>
+        <v>0.1243427424610013</v>
       </c>
       <c r="L5">
-        <v>0.1431663320432467</v>
+        <v>0.1472133886026964</v>
       </c>
       <c r="M5">
-        <v>0.1413573691731101</v>
+        <v>0.1453532895824266</v>
       </c>
       <c r="N5">
-        <v>0.1587553556518884</v>
+        <v>0.1632430860719475</v>
       </c>
       <c r="O5">
-        <v>0.09695222662638561</v>
+        <v>0.09969289294870955</v>
       </c>
       <c r="P5">
-        <v>0.02632723683664982</v>
+        <v>0.02707146081034054</v>
       </c>
       <c r="Q5">
-        <v>0.05592669865832695</v>
+        <v>0.05750764656293052</v>
       </c>
       <c r="R5">
-        <v>0.1170015298580395</v>
+        <v>0.1203089541813406</v>
       </c>
       <c r="S5">
-        <v>0.1179549825140742</v>
+        <v>0.1212893592414123</v>
       </c>
       <c r="T5">
-        <v>0.06977264109266308</v>
+        <v>0.0710368094023293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.07455599212778553</v>
+        <v>0.1127605745995342</v>
       </c>
       <c r="B6">
-        <v>0.09903419046119065</v>
+        <v>0.1446820068961241</v>
       </c>
       <c r="C6">
-        <v>0.1121837627732204</v>
+        <v>0.163892609851229</v>
       </c>
       <c r="D6">
-        <v>0.118744341551605</v>
+        <v>0.1734771553464414</v>
       </c>
       <c r="E6">
-        <v>0.12220857158501</v>
+        <v>0.1785381524752993</v>
       </c>
       <c r="F6">
-        <v>0.1068757373925805</v>
+        <v>0.1561379570272884</v>
       </c>
       <c r="G6">
-        <v>0.08689959504914094</v>
+        <v>0.1269542140105362</v>
       </c>
       <c r="H6">
-        <v>0.06453676147648855</v>
+        <v>0.0942836824889675</v>
       </c>
       <c r="I6">
-        <v>0.0620892152522723</v>
+        <v>0.09070798910427315</v>
       </c>
       <c r="J6">
-        <v>0.07463618456975997</v>
+        <v>0.09989529111287231</v>
       </c>
       <c r="K6">
-        <v>0.09479303975198262</v>
+        <v>0.1064774767547372</v>
       </c>
       <c r="L6">
-        <v>0.1192631763297319</v>
+        <v>0.12263453336024</v>
       </c>
       <c r="M6">
-        <v>0.1679595747681097</v>
+        <v>0.1727074920269129</v>
       </c>
       <c r="N6">
-        <v>0.2088280474677866</v>
+        <v>0.2147312434723214</v>
       </c>
       <c r="O6">
-        <v>0.1328346654601052</v>
+        <v>0.1365896642541669</v>
       </c>
       <c r="P6">
-        <v>0.06227620016731216</v>
+        <v>0.06403663714147864</v>
       </c>
       <c r="Q6">
-        <v>0.05720062040025851</v>
+        <v>0.05881757979770631</v>
       </c>
       <c r="R6">
-        <v>0.06749383811647537</v>
+        <v>0.06940176839850012</v>
       </c>
       <c r="S6">
-        <v>0.1025283840444872</v>
+        <v>0.1054266783798598</v>
       </c>
       <c r="T6">
-        <v>0.1044540013587869</v>
+        <v>0.106346540271858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.06914022740623035</v>
+        <v>0.1045696200636229</v>
       </c>
       <c r="B7">
-        <v>0.07955827631188234</v>
+        <v>0.1162290621894898</v>
       </c>
       <c r="C7">
-        <v>0.08303791571724045</v>
+        <v>0.1213125713300965</v>
       </c>
       <c r="D7">
-        <v>0.1015447808567719</v>
+        <v>0.1483498033938314</v>
       </c>
       <c r="E7">
-        <v>0.1122453126434658</v>
+        <v>0.1639825298951031</v>
       </c>
       <c r="F7">
-        <v>0.1160231514701237</v>
+        <v>0.1695016874772025</v>
       </c>
       <c r="G7">
-        <v>0.08807627871489472</v>
+        <v>0.12867326632419</v>
       </c>
       <c r="H7">
-        <v>0.06610640537796628</v>
+        <v>0.0965768221483163</v>
       </c>
       <c r="I7">
-        <v>0.06496633333968632</v>
+        <v>0.09491125685479135</v>
       </c>
       <c r="J7">
-        <v>0.08220911470788725</v>
+        <v>0.1100311262320777</v>
       </c>
       <c r="K7">
-        <v>0.09061378474104997</v>
+        <v>0.1017830758847683</v>
       </c>
       <c r="L7">
-        <v>0.1232539749750467</v>
+        <v>0.1267381447570199</v>
       </c>
       <c r="M7">
-        <v>0.1946028420043516</v>
+        <v>0.2001039168519168</v>
       </c>
       <c r="N7">
-        <v>0.2067275443786981</v>
+        <v>0.2125713629117036</v>
       </c>
       <c r="O7">
-        <v>0.1252742330893069</v>
+        <v>0.1288155119606617</v>
       </c>
       <c r="P7">
-        <v>0.06829823049349308</v>
+        <v>0.07022889951163909</v>
       </c>
       <c r="Q7">
-        <v>0.05193329077440848</v>
+        <v>0.05340135216903087</v>
       </c>
       <c r="R7">
-        <v>0.03552724161470863</v>
+        <v>0.03653153329532897</v>
       </c>
       <c r="S7">
-        <v>0.08412622864673269</v>
+        <v>0.0865043269091348</v>
       </c>
       <c r="T7">
-        <v>0.1274015555383653</v>
+        <v>0.1297098673148951</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.0572377115443204</v>
+        <v>0.08656792107920488</v>
       </c>
       <c r="B8">
-        <v>0.0715899168040677</v>
+        <v>0.1045878477776628</v>
       </c>
       <c r="C8">
-        <v>0.07293207808838437</v>
+        <v>0.1065486512869247</v>
       </c>
       <c r="D8">
-        <v>0.09032638499928401</v>
+        <v>0.1319605138034593</v>
       </c>
       <c r="E8">
-        <v>0.09860195671191729</v>
+        <v>0.1440505437014246</v>
       </c>
       <c r="F8">
-        <v>0.09300545898741282</v>
+        <v>0.1358744530139543</v>
       </c>
       <c r="G8">
-        <v>0.09110467961975516</v>
+        <v>0.1330975476613808</v>
       </c>
       <c r="H8">
-        <v>0.0776043630957956</v>
+        <v>0.1133745320106919</v>
       </c>
       <c r="I8">
-        <v>0.07875678791919573</v>
+        <v>0.1150581438569641</v>
       </c>
       <c r="J8">
-        <v>0.09825002291887137</v>
+        <v>0.1315007552690953</v>
       </c>
       <c r="K8">
-        <v>0.0943963195572958</v>
+        <v>0.1060318557954513</v>
       </c>
       <c r="L8">
-        <v>0.08652091656350343</v>
+        <v>0.08896670837719715</v>
       </c>
       <c r="M8">
-        <v>0.1033561474842629</v>
+        <v>0.106277841213968</v>
       </c>
       <c r="N8">
-        <v>0.1155944702963106</v>
+        <v>0.1188621195583416</v>
       </c>
       <c r="O8">
-        <v>0.09724314623128068</v>
+        <v>0.09999203633134941</v>
       </c>
       <c r="P8">
-        <v>0.06010562998346629</v>
+        <v>0.06180470881445126</v>
       </c>
       <c r="Q8">
-        <v>0.05645373558699577</v>
+        <v>0.0580495818844603</v>
       </c>
       <c r="R8">
-        <v>0.0500783877201138</v>
+        <v>0.05149401431763068</v>
       </c>
       <c r="S8">
-        <v>0.05878675291703418</v>
+        <v>0.06044854944842653</v>
       </c>
       <c r="T8">
-        <v>0.08248571424527482</v>
+        <v>0.08398022304293626</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.03851403398050996</v>
+        <v>0.05824970572914942</v>
       </c>
       <c r="B9">
-        <v>0.05669250640151208</v>
+        <v>0.08282377594994798</v>
       </c>
       <c r="C9">
-        <v>0.0675571369477371</v>
+        <v>0.0986962392304831</v>
       </c>
       <c r="D9">
-        <v>0.07881791680082</v>
+        <v>0.1151474488659871</v>
       </c>
       <c r="E9">
-        <v>0.07778432495948083</v>
+        <v>0.113637443672629</v>
       </c>
       <c r="F9">
-        <v>0.0696103079973738</v>
+        <v>0.1016957781430455</v>
       </c>
       <c r="G9">
-        <v>0.08304748546273127</v>
+        <v>0.1213265520571227</v>
       </c>
       <c r="H9">
-        <v>0.1049025330072352</v>
+        <v>0.1532552438031129</v>
       </c>
       <c r="I9">
-        <v>0.09114798410624608</v>
+        <v>0.1331608124791568</v>
       </c>
       <c r="J9">
-        <v>0.1082002398089571</v>
+        <v>0.144818421741479</v>
       </c>
       <c r="K9">
-        <v>0.1330802224344438</v>
+        <v>0.1494840373075215</v>
       </c>
       <c r="L9">
-        <v>0.0938103047751931</v>
+        <v>0.09646215457721037</v>
       </c>
       <c r="M9">
-        <v>0.03274186110743327</v>
+        <v>0.03366741505487535</v>
       </c>
       <c r="N9">
-        <v>0.04750497399743171</v>
+        <v>0.04884785478426865</v>
       </c>
       <c r="O9">
-        <v>0.1122119587323848</v>
+        <v>0.1153839904325433</v>
       </c>
       <c r="P9">
-        <v>0.124877046252368</v>
+        <v>0.128407097361086</v>
       </c>
       <c r="Q9">
-        <v>0.100720896625943</v>
+        <v>0.1035680965195643</v>
       </c>
       <c r="R9">
-        <v>0.0603317532751568</v>
+        <v>0.06203722420781693</v>
       </c>
       <c r="S9">
-        <v>0.03157800847164368</v>
+        <v>0.03247066238332538</v>
       </c>
       <c r="T9">
-        <v>0.03161314967998537</v>
+        <v>0.03218592923036954</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.03049013506424711</v>
+        <v>0.04611413585066629</v>
       </c>
       <c r="B10">
-        <v>0.04735703003271195</v>
+        <v>0.06918529968150569</v>
       </c>
       <c r="C10">
-        <v>0.06614214475855799</v>
+        <v>0.09662903487692198</v>
       </c>
       <c r="D10">
-        <v>0.07813217487313966</v>
+        <v>0.1141456280014192</v>
       </c>
       <c r="E10">
-        <v>0.07292710599604171</v>
+        <v>0.10654138740871</v>
       </c>
       <c r="F10">
-        <v>0.0632908016172793</v>
+        <v>0.09246342251508455</v>
       </c>
       <c r="G10">
-        <v>0.07191413147584222</v>
+        <v>0.1050615026756234</v>
       </c>
       <c r="H10">
-        <v>0.09042392802198423</v>
+        <v>0.1321030173188338</v>
       </c>
       <c r="I10">
-        <v>0.1016369647438023</v>
+        <v>0.1484844775878339</v>
       </c>
       <c r="J10">
-        <v>0.1202876898151806</v>
+        <v>0.160996624635216</v>
       </c>
       <c r="K10">
-        <v>0.1774282229482965</v>
+        <v>0.1992984878851976</v>
       </c>
       <c r="L10">
-        <v>0.1500294535867897</v>
+        <v>0.1542705183370248</v>
       </c>
       <c r="M10">
-        <v>0.07718187866665582</v>
+        <v>0.07936367255541864</v>
       </c>
       <c r="N10">
-        <v>0.06965912828603631</v>
+        <v>0.07162826745466706</v>
       </c>
       <c r="O10">
-        <v>0.1354794150299228</v>
+        <v>0.1393091761716809</v>
       </c>
       <c r="P10">
-        <v>0.1921227494624298</v>
+        <v>0.1975537165224546</v>
       </c>
       <c r="Q10">
-        <v>0.1450577313307086</v>
+        <v>0.1491582543706053</v>
       </c>
       <c r="R10">
-        <v>0.06382925906517499</v>
+        <v>0.06563359824113782</v>
       </c>
       <c r="S10">
-        <v>0.04534290475376149</v>
+        <v>0.04662466770381586</v>
       </c>
       <c r="T10">
-        <v>0.04728211183754883</v>
+        <v>0.04813878784211258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.03479846387130515</v>
+        <v>0.05323933046888406</v>
       </c>
       <c r="B11">
-        <v>0.0528234655757833</v>
+        <v>0.07777787668996532</v>
       </c>
       <c r="C11">
-        <v>0.06213993926862651</v>
+        <v>0.09149555943131621</v>
       </c>
       <c r="D11">
-        <v>0.07315473045927079</v>
+        <v>0.1077138643390578</v>
       </c>
       <c r="E11">
-        <v>0.07377656129304246</v>
+        <v>0.1086294551921745</v>
       </c>
       <c r="F11">
-        <v>0.06675631509722517</v>
+        <v>0.09829276415913113</v>
       </c>
       <c r="G11">
-        <v>0.06505737940573848</v>
+        <v>0.09579123175726595</v>
       </c>
       <c r="H11">
-        <v>0.06904398395178397</v>
+        <v>0.1016611540240877</v>
       </c>
       <c r="I11">
-        <v>0.07349344932150055</v>
+        <v>0.108212597877494</v>
       </c>
       <c r="J11">
-        <v>0.1014448671999381</v>
+        <v>0.1392499608071909</v>
       </c>
       <c r="K11">
-        <v>0.1290680424138204</v>
+        <v>0.1564620031506405</v>
       </c>
       <c r="L11">
-        <v>0.1240384717898107</v>
+        <v>0.1422447381154223</v>
       </c>
       <c r="M11">
-        <v>0.09934324318518511</v>
+        <v>0.1139247638777679</v>
       </c>
       <c r="N11">
-        <v>0.09358864678333743</v>
+        <v>0.1073255124815732</v>
       </c>
       <c r="O11">
-        <v>0.1218218499062249</v>
+        <v>0.1397027622688811</v>
       </c>
       <c r="P11">
-        <v>0.1507050366435831</v>
+        <v>0.1728253997386202</v>
       </c>
       <c r="Q11">
-        <v>0.1152497742106358</v>
+        <v>0.1321660426309776</v>
       </c>
       <c r="R11">
-        <v>0.07548433932625834</v>
+        <v>0.08656386945393914</v>
       </c>
       <c r="S11">
-        <v>0.0718087458517563</v>
+        <v>0.08234877534922247</v>
       </c>
       <c r="T11">
-        <v>0.05403919064153171</v>
+        <v>0.06219063681149709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.03308205236981434</v>
+        <v>0.05210947130533339</v>
       </c>
       <c r="B12">
-        <v>0.0483942778873603</v>
+        <v>0.07263992146729809</v>
       </c>
       <c r="C12">
-        <v>0.04249834038877778</v>
+        <v>0.06379010583682267</v>
       </c>
       <c r="D12">
-        <v>0.04502391474721877</v>
+        <v>0.06758099870816543</v>
       </c>
       <c r="E12">
-        <v>0.05504726643377334</v>
+        <v>0.08262607244694725</v>
       </c>
       <c r="F12">
-        <v>0.05941717781276909</v>
+        <v>0.08918531939197111</v>
       </c>
       <c r="G12">
-        <v>0.06245908390407093</v>
+        <v>0.09375122737178154</v>
       </c>
       <c r="H12">
-        <v>0.06113790238372675</v>
+        <v>0.09176813089692097</v>
       </c>
       <c r="I12">
-        <v>0.05653271532707463</v>
+        <v>0.08485573462321196</v>
       </c>
       <c r="J12">
-        <v>0.0567926189076146</v>
+        <v>0.0822934104636142</v>
       </c>
       <c r="K12">
-        <v>0.06597989037751567</v>
+        <v>0.09104681101604443</v>
       </c>
       <c r="L12">
-        <v>0.06084709168277364</v>
+        <v>0.08249596738464514</v>
       </c>
       <c r="M12">
-        <v>0.05084579658142733</v>
+        <v>0.06893629687834779</v>
       </c>
       <c r="N12">
-        <v>0.05498370380273383</v>
+        <v>0.07454643615910871</v>
       </c>
       <c r="O12">
-        <v>0.06641362721230938</v>
+        <v>0.0900430287279247</v>
       </c>
       <c r="P12">
-        <v>0.06291123700268754</v>
+        <v>0.08529451798549487</v>
       </c>
       <c r="Q12">
-        <v>0.04181193077480231</v>
+        <v>0.05668825874982065</v>
       </c>
       <c r="R12">
-        <v>0.03157454247860369</v>
+        <v>0.04280849510573102</v>
       </c>
       <c r="S12">
-        <v>0.02759896212880308</v>
+        <v>0.03741843721139394</v>
       </c>
       <c r="T12">
-        <v>0.01098636715563182</v>
+        <v>0.01517883389509405</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.02651698249719268</v>
+        <v>0.04256184700953507</v>
       </c>
       <c r="B13">
-        <v>0.03912350154886061</v>
+        <v>0.0594330087173358</v>
       </c>
       <c r="C13">
-        <v>0.02996213722170892</v>
+        <v>0.04551586366736384</v>
       </c>
       <c r="D13">
-        <v>0.0275243147409697</v>
+        <v>0.04181253653627501</v>
       </c>
       <c r="E13">
-        <v>0.03723873579010791</v>
+        <v>0.05656983708556892</v>
       </c>
       <c r="F13">
-        <v>0.0438734809962285</v>
+        <v>0.06664876289900115</v>
       </c>
       <c r="G13">
-        <v>0.05138071298109816</v>
+        <v>0.07805309447301935</v>
       </c>
       <c r="H13">
-        <v>0.05509018248815963</v>
+        <v>0.08368819677270847</v>
       </c>
       <c r="I13">
-        <v>0.0488246216817414</v>
+        <v>0.0741701036756018</v>
       </c>
       <c r="J13">
-        <v>0.04087368809365677</v>
+        <v>0.06097360743483487</v>
       </c>
       <c r="K13">
-        <v>0.03557155890558854</v>
+        <v>0.05189884302829324</v>
       </c>
       <c r="L13">
-        <v>0.03298765824108649</v>
+        <v>0.04777984526047763</v>
       </c>
       <c r="M13">
-        <v>0.02612279491906623</v>
+        <v>0.0378366687893474</v>
       </c>
       <c r="N13">
-        <v>0.03241576529894286</v>
+        <v>0.04695150648961124</v>
       </c>
       <c r="O13">
-        <v>0.03468054375468772</v>
+        <v>0.05023184737873733</v>
       </c>
       <c r="P13">
-        <v>0.02174277270678689</v>
+        <v>0.03149257543144103</v>
       </c>
       <c r="Q13">
-        <v>0.006638711508184032</v>
+        <v>0.009615614611737223</v>
       </c>
       <c r="R13">
-        <v>0.0008272060369848414</v>
+        <v>0.001198138290290681</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>9.888513755319889E-05</v>
+        <v>0.000146601178793282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.0242292097001337</v>
+        <v>0.03888979134515813</v>
       </c>
       <c r="B14">
-        <v>0.04110757624210407</v>
+        <v>0.0624470418143508</v>
       </c>
       <c r="C14">
-        <v>0.0370679051614659</v>
+        <v>0.05631032610522917</v>
       </c>
       <c r="D14">
-        <v>0.03185611061733981</v>
+        <v>0.0483930227374014</v>
       </c>
       <c r="E14">
-        <v>0.0293116784425253</v>
+        <v>0.04452774346433938</v>
       </c>
       <c r="F14">
-        <v>0.02771631521053679</v>
+        <v>0.04210420689117059</v>
       </c>
       <c r="G14">
-        <v>0.03342791350301078</v>
+        <v>0.05078076848887382</v>
       </c>
       <c r="H14">
-        <v>0.04267635516152937</v>
+        <v>0.06483019382024512</v>
       </c>
       <c r="I14">
-        <v>0.04506440918934924</v>
+        <v>0.06845791706162305</v>
       </c>
       <c r="J14">
-        <v>0.03689881403026756</v>
+        <v>0.05504406150815808</v>
       </c>
       <c r="K14">
-        <v>0.02897725510807358</v>
+        <v>0.04227776517290752</v>
       </c>
       <c r="L14">
-        <v>0.02414566872615595</v>
+        <v>0.03497296798138792</v>
       </c>
       <c r="M14">
-        <v>0.02238071455982477</v>
+        <v>0.03241658048813731</v>
       </c>
       <c r="N14">
-        <v>0.02546273304566472</v>
+        <v>0.03688062474575462</v>
       </c>
       <c r="O14">
-        <v>0.02240549440774494</v>
+        <v>0.03245247201128063</v>
       </c>
       <c r="P14">
-        <v>0.01030124089335328</v>
+        <v>0.01492048002553555</v>
       </c>
       <c r="Q14">
-        <v>0.004599514890331987</v>
+        <v>0.006662010019844527</v>
       </c>
       <c r="R14">
-        <v>0.003273901921037667</v>
+        <v>0.004741971256096295</v>
       </c>
       <c r="S14">
-        <v>0.0034139900057044</v>
+        <v>0.00494487705072092</v>
       </c>
       <c r="T14">
-        <v>0.004148947388464681</v>
+        <v>0.006150980753533418</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.02150927577817506</v>
+        <v>0.03452408301183989</v>
       </c>
       <c r="B15">
-        <v>0.04206285329475179</v>
+        <v>0.0638982153328197</v>
       </c>
       <c r="C15">
-        <v>0.03959257730585938</v>
+        <v>0.06014558766479993</v>
       </c>
       <c r="D15">
-        <v>0.03035274884265918</v>
+        <v>0.0461092467479666</v>
       </c>
       <c r="E15">
-        <v>0.02792740520279535</v>
+        <v>0.0424248763827389</v>
       </c>
       <c r="F15">
-        <v>0.02394229255613186</v>
+        <v>0.03637104108446115</v>
       </c>
       <c r="G15">
-        <v>0.01928138986223052</v>
+        <v>0.02929060453173241</v>
       </c>
       <c r="H15">
-        <v>0.02907747495061757</v>
+        <v>0.04417196196153093</v>
       </c>
       <c r="I15">
-        <v>0.03798050209434286</v>
+        <v>0.05769666371101205</v>
       </c>
       <c r="J15">
-        <v>0.02557468454131967</v>
+        <v>0.03815121287609394</v>
       </c>
       <c r="K15">
-        <v>0.01679020695020069</v>
+        <v>0.0244968829517371</v>
       </c>
       <c r="L15">
-        <v>0.01820576438541866</v>
+        <v>0.02636951670914874</v>
       </c>
       <c r="M15">
-        <v>0.02098281632805729</v>
+        <v>0.03039184260842458</v>
       </c>
       <c r="N15">
-        <v>0.02262462581749974</v>
+        <v>0.0327698654065097</v>
       </c>
       <c r="O15">
-        <v>0.01804435230708873</v>
+        <v>0.02613572490527432</v>
       </c>
       <c r="P15">
-        <v>0.01425420639025048</v>
+        <v>0.02064601769121056</v>
       </c>
       <c r="Q15">
-        <v>0.01616409968362688</v>
+        <v>0.02341233730549254</v>
       </c>
       <c r="R15">
-        <v>0.01636629847217281</v>
+        <v>0.02370520522469959</v>
       </c>
       <c r="S15">
-        <v>0.01384570485509054</v>
+        <v>0.02005433761510562</v>
       </c>
       <c r="T15">
-        <v>0.006582483238899803</v>
+        <v>0.009758795164648225</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.02158519189755624</v>
+        <v>0.03464593436724962</v>
       </c>
       <c r="B16">
-        <v>0.0404365219482812</v>
+        <v>0.06142763470313477</v>
       </c>
       <c r="C16">
-        <v>0.03706311904678412</v>
+        <v>0.0563030554575534</v>
       </c>
       <c r="D16">
-        <v>0.02983071662653931</v>
+        <v>0.04531622097003016</v>
       </c>
       <c r="E16">
-        <v>0.03264043838376861</v>
+        <v>0.04958450502129653</v>
       </c>
       <c r="F16">
-        <v>0.02952918097101092</v>
+        <v>0.04485815432123531</v>
       </c>
       <c r="G16">
-        <v>0.01866981286584869</v>
+        <v>0.02836155013940279</v>
       </c>
       <c r="H16">
-        <v>0.01968534732071856</v>
+        <v>0.0299042614438513</v>
       </c>
       <c r="I16">
-        <v>0.02498048776204223</v>
+        <v>0.03794817662398099</v>
       </c>
       <c r="J16">
-        <v>0.02093679427215346</v>
+        <v>0.03123260793029099</v>
       </c>
       <c r="K16">
-        <v>0.01412960178875564</v>
+        <v>0.02061506461477325</v>
       </c>
       <c r="L16">
-        <v>0.01482902999869791</v>
+        <v>0.02147860128544337</v>
       </c>
       <c r="M16">
-        <v>0.02100009959217887</v>
+        <v>0.03041687596118003</v>
       </c>
       <c r="N16">
-        <v>0.02400211811750076</v>
+        <v>0.03476504701232533</v>
       </c>
       <c r="O16">
-        <v>0.02652901180534481</v>
+        <v>0.03842503974392487</v>
       </c>
       <c r="P16">
-        <v>0.01973805769267459</v>
+        <v>0.02858891453906703</v>
       </c>
       <c r="Q16">
-        <v>0.01310397394917071</v>
+        <v>0.01898000285479145</v>
       </c>
       <c r="R16">
-        <v>0.01218287296767345</v>
+        <v>0.01764586564372995</v>
       </c>
       <c r="S16">
-        <v>0.01354711797429404</v>
+        <v>0.01962185966056272</v>
       </c>
       <c r="T16">
-        <v>0.007581482085912278</v>
+        <v>0.01123985098566448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.0257373409558176</v>
+        <v>0.0413104608833121</v>
       </c>
       <c r="B17">
-        <v>0.03995102583854272</v>
+        <v>0.06069011138901412</v>
       </c>
       <c r="C17">
-        <v>0.0344254594155429</v>
+        <v>0.05229615316990555</v>
       </c>
       <c r="D17">
-        <v>0.03399175261889346</v>
+        <v>0.05163730365987786</v>
       </c>
       <c r="E17">
-        <v>0.0363483155879057</v>
+        <v>0.05521718843336471</v>
       </c>
       <c r="F17">
-        <v>0.03165599130852925</v>
+        <v>0.04808901895056777</v>
       </c>
       <c r="G17">
-        <v>0.02473652445294662</v>
+        <v>0.03757756885877159</v>
       </c>
       <c r="H17">
-        <v>0.02079285624873499</v>
+        <v>0.0315866923400512</v>
       </c>
       <c r="I17">
-        <v>0.02403333133239211</v>
+        <v>0.03650933924717376</v>
       </c>
       <c r="J17">
-        <v>0.03069790721618944</v>
+        <v>0.04579381580106055</v>
       </c>
       <c r="K17">
-        <v>0.02141865340190778</v>
+        <v>0.03124977833367856</v>
       </c>
       <c r="L17">
-        <v>0.01421990316926776</v>
+        <v>0.02059633236409482</v>
       </c>
       <c r="M17">
-        <v>0.01783915793636976</v>
+        <v>0.02583851813753044</v>
       </c>
       <c r="N17">
-        <v>0.02214257065005956</v>
+        <v>0.03207164908757688</v>
       </c>
       <c r="O17">
-        <v>0.02411624211398545</v>
+        <v>0.0349303460115054</v>
       </c>
       <c r="P17">
-        <v>0.01755581131706775</v>
+        <v>0.02542811441846718</v>
       </c>
       <c r="Q17">
-        <v>0.003723116169862854</v>
+        <v>0.005392620269760934</v>
       </c>
       <c r="R17">
-        <v>0.005738226097100468</v>
+        <v>0.008311337318500868</v>
       </c>
       <c r="S17">
-        <v>0.0108245846656412</v>
+        <v>0.01567849941191342</v>
       </c>
       <c r="T17">
-        <v>0.008596625013904995</v>
+        <v>0.01274484105363433</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.0186458982364358</v>
+        <v>0.02992813636236921</v>
       </c>
       <c r="B18">
-        <v>0.02826552643553351</v>
+        <v>0.04293852064711402</v>
       </c>
       <c r="C18">
-        <v>0.02203222366554</v>
+        <v>0.03346943114334984</v>
       </c>
       <c r="D18">
-        <v>0.02808482270808351</v>
+        <v>0.04266401131682368</v>
       </c>
       <c r="E18">
-        <v>0.03889891114924392</v>
+        <v>0.05909183058527166</v>
       </c>
       <c r="F18">
-        <v>0.03060804023153158</v>
+        <v>0.04649706314321856</v>
       </c>
       <c r="G18">
-        <v>0.02228405792002701</v>
+        <v>0.03385199576179428</v>
       </c>
       <c r="H18">
-        <v>0.02409376337008252</v>
+        <v>0.03660114232411397</v>
       </c>
       <c r="I18">
-        <v>0.02723133648281592</v>
+        <v>0.04136746953865219</v>
       </c>
       <c r="J18">
-        <v>0.02572722284938964</v>
+        <v>0.03837876295412263</v>
       </c>
       <c r="K18">
-        <v>0.01708491394352414</v>
+        <v>0.02492685994617889</v>
       </c>
       <c r="L18">
-        <v>0.01483283163280129</v>
+        <v>0.02148410763232828</v>
       </c>
       <c r="M18">
-        <v>0.01818406802474653</v>
+        <v>0.0263380913576414</v>
       </c>
       <c r="N18">
-        <v>0.01911065682920184</v>
+        <v>0.02768017721815951</v>
       </c>
       <c r="O18">
-        <v>0.01833281921851556</v>
+        <v>0.02655354493632991</v>
       </c>
       <c r="P18">
-        <v>0.01154836607244152</v>
+        <v>0.01672683583417748</v>
       </c>
       <c r="Q18">
-        <v>0.00284268279864092</v>
+        <v>0.004117386667796736</v>
       </c>
       <c r="R18">
-        <v>0.007113929092861942</v>
+        <v>0.01030392726779258</v>
       </c>
       <c r="S18">
-        <v>0.008944598407212003</v>
+        <v>0.01295549761945237</v>
       </c>
       <c r="T18">
-        <v>0.006687943224032796</v>
+        <v>0.009915143818435567</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.009413550957008431</v>
+        <v>0.01510949127379303</v>
       </c>
       <c r="B19">
-        <v>0.01829474283141739</v>
+        <v>0.02779177648051576</v>
       </c>
       <c r="C19">
-        <v>0.018184950022684</v>
+        <v>0.02762498882858735</v>
       </c>
       <c r="D19">
-        <v>0.02231208831885393</v>
+        <v>0.03389457709710114</v>
       </c>
       <c r="E19">
-        <v>0.0312716670647466</v>
+        <v>0.04750518710457383</v>
       </c>
       <c r="F19">
-        <v>0.02761366452246144</v>
+        <v>0.04194826892555666</v>
       </c>
       <c r="G19">
-        <v>0.02744482454319347</v>
+        <v>0.04169178196599513</v>
       </c>
       <c r="H19">
-        <v>0.03069343524050527</v>
+        <v>0.04662678778727712</v>
       </c>
       <c r="I19">
-        <v>0.02468865485456137</v>
+        <v>0.03750484954313026</v>
       </c>
       <c r="J19">
-        <v>0.01124837823204719</v>
+        <v>0.01677984616968846</v>
       </c>
       <c r="K19">
-        <v>0.007829360983612924</v>
+        <v>0.01142302415755338</v>
       </c>
       <c r="L19">
-        <v>0.01433006713225734</v>
+        <v>0.02075589558820896</v>
       </c>
       <c r="M19">
-        <v>0.01865141674864423</v>
+        <v>0.02701500663144831</v>
       </c>
       <c r="N19">
-        <v>0.01603190293546693</v>
+        <v>0.02322086144731375</v>
       </c>
       <c r="O19">
-        <v>0.01216338064409321</v>
+        <v>0.01761763265436088</v>
       </c>
       <c r="P19">
-        <v>0.01066607855533005</v>
+        <v>0.0154489166580193</v>
       </c>
       <c r="Q19">
-        <v>0.009500898064591179</v>
+        <v>0.01376125083035862</v>
       </c>
       <c r="R19">
-        <v>0.006022583739003024</v>
+        <v>0.008723205418668591</v>
       </c>
       <c r="S19">
-        <v>0.007629505743377586</v>
+        <v>0.01105069663230814</v>
       </c>
       <c r="T19">
-        <v>0.006217922766226032</v>
+        <v>0.009218319655811944</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.01124826757788169</v>
+        <v>0.0180543560649406</v>
       </c>
       <c r="B20">
-        <v>0.01861655221313491</v>
+        <v>0.02828064120457559</v>
       </c>
       <c r="C20">
-        <v>0.02195372803938904</v>
+        <v>0.03335018743947338</v>
       </c>
       <c r="D20">
-        <v>0.02061847544513462</v>
+        <v>0.03132178824378637</v>
       </c>
       <c r="E20">
-        <v>0.0156287696645136</v>
+        <v>0.02374186274079349</v>
       </c>
       <c r="F20">
-        <v>0.01683084295950366</v>
+        <v>0.02556794756939191</v>
       </c>
       <c r="G20">
-        <v>0.02852272008027618</v>
+        <v>0.04332922678344858</v>
       </c>
       <c r="H20">
-        <v>0.03195822237857251</v>
+        <v>0.04854814201239539</v>
       </c>
       <c r="I20">
-        <v>0.02113917888930281</v>
+        <v>0.03211279546735366</v>
       </c>
       <c r="J20">
-        <v>0.00502793782985872</v>
+        <v>0.007500461097175577</v>
       </c>
       <c r="K20">
-        <v>0.002646746224918096</v>
+        <v>0.00386159817249874</v>
       </c>
       <c r="L20">
-        <v>0.008416673746922817</v>
+        <v>0.01219084320253499</v>
       </c>
       <c r="M20">
-        <v>0.01178411771698194</v>
+        <v>0.01706830223999876</v>
       </c>
       <c r="N20">
-        <v>0.01325724811159396</v>
+        <v>0.01920200757272233</v>
       </c>
       <c r="O20">
-        <v>0.01585499587986866</v>
+        <v>0.02296462647360943</v>
       </c>
       <c r="P20">
-        <v>0.01876097649995456</v>
+        <v>0.02717369470582226</v>
       </c>
       <c r="Q20">
-        <v>0.01545961315964843</v>
+        <v>0.0223919478962844</v>
       </c>
       <c r="R20">
-        <v>0.008312767624915363</v>
+        <v>0.01204034393414652</v>
       </c>
       <c r="S20">
-        <v>0.002635858460596792</v>
+        <v>0.003817819029632564</v>
       </c>
       <c r="T20">
-        <v>0.002875766042279944</v>
+        <v>0.004263438390881753</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.000437994242438957</v>
+        <v>0.0007876125453915951</v>
       </c>
       <c r="B21">
-        <v>0.01229392401662277</v>
+        <v>0.01973271706906106</v>
       </c>
       <c r="C21">
-        <v>0.01409531742355665</v>
+        <v>0.02262409547525874</v>
       </c>
       <c r="D21">
-        <v>0.01224920574667852</v>
+        <v>0.01966094072105087</v>
       </c>
       <c r="E21">
-        <v>0.006627684406320796</v>
+        <v>0.01063795587447294</v>
       </c>
       <c r="F21">
-        <v>0.005169084146653693</v>
+        <v>0.008296787489020642</v>
       </c>
       <c r="G21">
-        <v>0.009649036772798528</v>
+        <v>0.01548746456942102</v>
       </c>
       <c r="H21">
-        <v>0.01331790932694282</v>
+        <v>0.02137629420392047</v>
       </c>
       <c r="I21">
-        <v>0.01064206054126896</v>
+        <v>0.01708134598918455</v>
       </c>
       <c r="J21">
-        <v>0.003337021074323681</v>
+        <v>0.005188654526458765</v>
       </c>
       <c r="K21">
-        <v>0.001498188301821739</v>
+        <v>0.002246459780134622</v>
       </c>
       <c r="L21">
-        <v>0.002526178033902016</v>
+        <v>0.003745160160317243</v>
       </c>
       <c r="M21">
-        <v>0.003726910820827965</v>
+        <v>0.005525294630822335</v>
       </c>
       <c r="N21">
-        <v>0.007491457582923552</v>
+        <v>0.01110638605266253</v>
       </c>
       <c r="O21">
-        <v>0.01191428127844909</v>
+        <v>0.01766339940575696</v>
       </c>
       <c r="P21">
-        <v>0.01250181477640953</v>
+        <v>0.01853444135920726</v>
       </c>
       <c r="Q21">
-        <v>0.01112292430361076</v>
+        <v>0.0164901809805394</v>
       </c>
       <c r="R21">
-        <v>0.008513075706309435</v>
+        <v>0.01262097585726665</v>
       </c>
       <c r="S21">
-        <v>0.003948649993373814</v>
+        <v>0.005854031839307078</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -4530,2597 +4529,1242 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.3790748988562174</v>
+        <v>0.9999999840984729</v>
       </c>
       <c r="B2">
-        <v>0.2639442961600229</v>
+        <v>0.7790298515660937</v>
       </c>
       <c r="C2">
-        <v>0.2244722768634693</v>
+        <v>0.6625284466069001</v>
       </c>
       <c r="D2">
-        <v>0.2052624690177173</v>
+        <v>0.6058308252814656</v>
       </c>
       <c r="E2">
-        <v>0.1745878659218009</v>
+        <v>0.5152949362915679</v>
       </c>
       <c r="F2">
-        <v>0.1354603633670733</v>
+        <v>0.399810370226608</v>
       </c>
       <c r="G2">
-        <v>0.1193645945128626</v>
+        <v>0.3523038144731327</v>
       </c>
       <c r="H2">
-        <v>0.1212781697904194</v>
+        <v>0.3579517193004901</v>
       </c>
       <c r="I2">
-        <v>0.1060394713008311</v>
+        <v>0.3129748010828403</v>
       </c>
       <c r="J2">
-        <v>0.08564855908827888</v>
+        <v>0.3170185361885092</v>
       </c>
       <c r="K2">
-        <v>0.04001255726248081</v>
+        <v>0.360796360311196</v>
       </c>
       <c r="L2">
-        <v>0.004171346349497604</v>
+        <v>0.2343984823637474</v>
       </c>
       <c r="M2">
-        <v>0.001664862720606841</v>
+        <v>0.09355283938511211</v>
       </c>
       <c r="N2">
-        <v>0.001047713895828668</v>
+        <v>0.05887368886624029</v>
       </c>
       <c r="O2">
-        <v>0.0005695588866404188</v>
+        <v>0.03200495174930247</v>
       </c>
       <c r="P2">
-        <v>0.001340411740884432</v>
+        <v>0.07532111972521791</v>
       </c>
       <c r="Q2">
-        <v>0.003410171048806471</v>
+        <v>0.1916261205539305</v>
       </c>
       <c r="R2">
-        <v>0.004063197889283151</v>
+        <v>0.2283213473525784</v>
       </c>
       <c r="S2">
-        <v>0.003144736564804936</v>
+        <v>0.1767106867817007</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.1431180358395276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.2959185902044013</v>
+        <v>0.8734017698295635</v>
       </c>
       <c r="B3">
-        <v>0.2783581758809583</v>
+        <v>0.8822638718676866</v>
       </c>
       <c r="C3">
-        <v>0.2193129729804195</v>
+        <v>0.6951184820785229</v>
       </c>
       <c r="D3">
-        <v>0.1956092188457824</v>
+        <v>0.6199887833210193</v>
       </c>
       <c r="E3">
-        <v>0.1753660636113284</v>
+        <v>0.555827547677609</v>
       </c>
       <c r="F3">
-        <v>0.1375051723819684</v>
+        <v>0.4358264146673768</v>
       </c>
       <c r="G3">
-        <v>0.09856281106661263</v>
+        <v>0.3123975325624395</v>
       </c>
       <c r="H3">
-        <v>0.07579796283024816</v>
+        <v>0.2402437217971164</v>
       </c>
       <c r="I3">
-        <v>0.07205366383027469</v>
+        <v>0.2283760634368329</v>
       </c>
       <c r="J3">
-        <v>0.08173263956568802</v>
+        <v>0.3232381066222489</v>
       </c>
       <c r="K3">
-        <v>0.04384477021901194</v>
+        <v>0.3995468908801357</v>
       </c>
       <c r="L3">
-        <v>0.008702534211245498</v>
+        <v>0.3165583492787341</v>
       </c>
       <c r="M3">
-        <v>0.005049917441408735</v>
+        <v>0.183692875022602</v>
       </c>
       <c r="N3">
-        <v>0.003580359457108665</v>
+        <v>0.1302370840556125</v>
       </c>
       <c r="O3">
-        <v>0.002788711240407696</v>
+        <v>0.101440546563754</v>
       </c>
       <c r="P3">
-        <v>0.002321795448327121</v>
+        <v>0.08445628786331674</v>
       </c>
       <c r="Q3">
-        <v>0.005433689328946389</v>
+        <v>0.1976527391575247</v>
       </c>
       <c r="R3">
-        <v>0.008160926056946396</v>
+        <v>0.2968571244264059</v>
       </c>
       <c r="S3">
-        <v>0.00665733161471825</v>
+        <v>0.2421632429589409</v>
       </c>
       <c r="T3">
-        <v>0.003001108461107619</v>
+        <v>0.1686398610312834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.2590737478751122</v>
+        <v>0.7646544603845427</v>
       </c>
       <c r="B4">
-        <v>0.2452893062972529</v>
+        <v>0.77745118287491</v>
       </c>
       <c r="C4">
-        <v>0.2534444189360323</v>
+        <v>0.8032990360210794</v>
       </c>
       <c r="D4">
-        <v>0.2126553506053467</v>
+        <v>0.6740169653888295</v>
       </c>
       <c r="E4">
-        <v>0.1845311316612903</v>
+        <v>0.5848764821955169</v>
       </c>
       <c r="F4">
-        <v>0.1490430279244264</v>
+        <v>0.4723959642116746</v>
       </c>
       <c r="G4">
-        <v>0.09319944608446598</v>
+        <v>0.2953982001720308</v>
       </c>
       <c r="H4">
-        <v>0.06160467817035042</v>
+        <v>0.1952577168452919</v>
       </c>
       <c r="I4">
-        <v>0.07394005614785699</v>
+        <v>0.2343550356179245</v>
       </c>
       <c r="J4">
-        <v>0.0710563708179638</v>
+        <v>0.2810153555384406</v>
       </c>
       <c r="K4">
-        <v>0.03568891683304042</v>
+        <v>0.3252245521710567</v>
       </c>
       <c r="L4">
-        <v>0.009713232468354498</v>
+        <v>0.3533229243005573</v>
       </c>
       <c r="M4">
-        <v>0.008120508432626329</v>
+        <v>0.2953869163093272</v>
       </c>
       <c r="N4">
-        <v>0.006597213900676635</v>
+        <v>0.239976435776404</v>
       </c>
       <c r="O4">
-        <v>0.004417331876008321</v>
+        <v>0.160682308502571</v>
       </c>
       <c r="P4">
-        <v>0.001566961697304476</v>
+        <v>0.05699889207453245</v>
       </c>
       <c r="Q4">
-        <v>0.003678979400437841</v>
+        <v>0.1338244260537519</v>
       </c>
       <c r="R4">
-        <v>0.007806082209187163</v>
+        <v>0.283949529929021</v>
       </c>
       <c r="S4">
-        <v>0.006963199387286398</v>
+        <v>0.2532893120821876</v>
       </c>
       <c r="T4">
-        <v>0.002664834668889159</v>
+        <v>0.149743787689351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.2102967146739688</v>
+        <v>0.6206893681762859</v>
       </c>
       <c r="B5">
-        <v>0.2125958456422388</v>
+        <v>0.6738283627764552</v>
       </c>
       <c r="C5">
-        <v>0.2393560481955119</v>
+        <v>0.7586455586137746</v>
       </c>
       <c r="D5">
-        <v>0.2471484510822463</v>
+        <v>0.7833437932542524</v>
       </c>
       <c r="E5">
-        <v>0.1944823262212968</v>
+        <v>0.6164170662449491</v>
       </c>
       <c r="F5">
-        <v>0.1667442461616729</v>
+        <v>0.5285004608349272</v>
       </c>
       <c r="G5">
-        <v>0.1197215239098513</v>
+        <v>0.3794606531542185</v>
       </c>
       <c r="H5">
-        <v>0.09525702938726284</v>
+        <v>0.3019197668753281</v>
       </c>
       <c r="I5">
-        <v>0.1118023017857188</v>
+        <v>0.354360461463045</v>
       </c>
       <c r="J5">
-        <v>0.07595893355136389</v>
+        <v>0.3004041224247399</v>
       </c>
       <c r="K5">
-        <v>0.02899661418081484</v>
+        <v>0.2642392008014612</v>
       </c>
       <c r="L5">
-        <v>0.007657069553029154</v>
+        <v>0.2785291317656832</v>
       </c>
       <c r="M5">
-        <v>0.007560319469976816</v>
+        <v>0.2750098067230937</v>
       </c>
       <c r="N5">
-        <v>0.008490828694103791</v>
+        <v>0.3088574718776457</v>
       </c>
       <c r="O5">
-        <v>0.005185366782848288</v>
+        <v>0.1886199018973243</v>
       </c>
       <c r="P5">
-        <v>0.001408078845914724</v>
+        <v>0.05121946140023002</v>
       </c>
       <c r="Q5">
-        <v>0.002991168491826372</v>
+        <v>0.1088050144018452</v>
       </c>
       <c r="R5">
-        <v>0.006257678318273893</v>
+        <v>0.2276256858824346</v>
       </c>
       <c r="S5">
-        <v>0.006308672523395897</v>
+        <v>0.2294806215832726</v>
       </c>
       <c r="T5">
-        <v>0.002426247556079997</v>
+        <v>0.1363369754833227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1764773033854606</v>
+        <v>0.5208715985201987</v>
       </c>
       <c r="B6">
-        <v>0.1725752344189145</v>
+        <v>0.546981938019377</v>
       </c>
       <c r="C6">
-        <v>0.1954894473153817</v>
+        <v>0.6196091641709209</v>
       </c>
       <c r="D6">
-        <v>0.2069217962378194</v>
+        <v>0.6558443075897574</v>
       </c>
       <c r="E6">
-        <v>0.2129585024229442</v>
+        <v>0.6749778133880335</v>
       </c>
       <c r="F6">
-        <v>0.1862397758625267</v>
+        <v>0.5902920768474655</v>
       </c>
       <c r="G6">
-        <v>0.1514297023752734</v>
+        <v>0.4799605943333795</v>
       </c>
       <c r="H6">
-        <v>0.1124606228270943</v>
+        <v>0.3564470280568149</v>
       </c>
       <c r="I6">
-        <v>0.1081955719246913</v>
+        <v>0.3429288322612078</v>
       </c>
       <c r="J6">
-        <v>0.07445254065958576</v>
+        <v>0.294446605467561</v>
       </c>
       <c r="K6">
-        <v>0.02483045050556247</v>
+        <v>0.2262739489588811</v>
       </c>
       <c r="L6">
-        <v>0.006378639609179083</v>
+        <v>0.2320257038135439</v>
       </c>
       <c r="M6">
-        <v>0.008983104670923102</v>
+        <v>0.3267642179850183</v>
       </c>
       <c r="N6">
-        <v>0.01116890306026069</v>
+        <v>0.4062735555169181</v>
       </c>
       <c r="O6">
-        <v>0.007104493479473509</v>
+        <v>0.2584289442283952</v>
       </c>
       <c r="P6">
-        <v>0.003330763520821576</v>
+        <v>0.1211579266906669</v>
       </c>
       <c r="Q6">
-        <v>0.003059302579246726</v>
+        <v>0.1112834205442226</v>
       </c>
       <c r="R6">
-        <v>0.00360982226395679</v>
+        <v>0.1313088060706675</v>
       </c>
       <c r="S6">
-        <v>0.005483600484722731</v>
+        <v>0.1994682784820051</v>
       </c>
       <c r="T6">
-        <v>0.003632244122491485</v>
+        <v>0.2041049672102119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.1636579507545944</v>
+        <v>0.4830353636688025</v>
       </c>
       <c r="B7">
-        <v>0.1386368497642061</v>
+        <v>0.4394132971643549</v>
       </c>
       <c r="C7">
-        <v>0.144700408049244</v>
+        <v>0.4586319114296701</v>
       </c>
       <c r="D7">
-        <v>0.1769501449829292</v>
+        <v>0.5608483370251427</v>
       </c>
       <c r="E7">
-        <v>0.1955967030342056</v>
+        <v>0.6199491141130056</v>
       </c>
       <c r="F7">
-        <v>0.2021798983738277</v>
+        <v>0.6408147322728264</v>
       </c>
       <c r="G7">
-        <v>0.1534801705874</v>
+        <v>0.4864596095616806</v>
       </c>
       <c r="H7">
-        <v>0.1151958566184776</v>
+        <v>0.3651164265668884</v>
       </c>
       <c r="I7">
-        <v>0.1132091871829586</v>
+        <v>0.3588196233105984</v>
       </c>
       <c r="J7">
-        <v>0.08200683744299295</v>
+        <v>0.3243225106396752</v>
       </c>
       <c r="K7">
-        <v>0.02373572050248842</v>
+        <v>0.2162979366113064</v>
       </c>
       <c r="L7">
-        <v>0.006592082409334634</v>
+        <v>0.2397897756163712</v>
       </c>
       <c r="M7">
-        <v>0.01040808600163304</v>
+        <v>0.3785985143925693</v>
       </c>
       <c r="N7">
-        <v>0.01105656031864009</v>
+        <v>0.4021870409479882</v>
       </c>
       <c r="O7">
-        <v>0.006700133350328837</v>
+        <v>0.2437201741289033</v>
       </c>
       <c r="P7">
-        <v>0.003652844169252865</v>
+        <v>0.1328737460057215</v>
       </c>
       <c r="Q7">
-        <v>0.002777586139855924</v>
+        <v>0.1010358663429423</v>
       </c>
       <c r="R7">
-        <v>0.001900129424206534</v>
+        <v>0.06911800854117936</v>
       </c>
       <c r="S7">
-        <v>0.00449938456052281</v>
+        <v>0.1636670094796991</v>
       </c>
       <c r="T7">
-        <v>0.004430213733134045</v>
+        <v>0.248944894187154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.135484173666197</v>
+        <v>0.3998806461676379</v>
       </c>
       <c r="B8">
-        <v>0.1247513269605015</v>
+        <v>0.395402751855484</v>
       </c>
       <c r="C8">
-        <v>0.1270901535535225</v>
+        <v>0.4028157268796783</v>
       </c>
       <c r="D8">
-        <v>0.1574011661313392</v>
+        <v>0.4988873124636106</v>
       </c>
       <c r="E8">
-        <v>0.1718220315073014</v>
+        <v>0.5445946407359445</v>
       </c>
       <c r="F8">
-        <v>0.1620696732335215</v>
+        <v>0.513684273748393</v>
       </c>
       <c r="G8">
-        <v>0.158757408616377</v>
+        <v>0.5031859602121596</v>
       </c>
       <c r="H8">
-        <v>0.1352319950394884</v>
+        <v>0.4286215167430709</v>
       </c>
       <c r="I8">
-        <v>0.1372401902205899</v>
+        <v>0.434986546440285</v>
       </c>
       <c r="J8">
-        <v>0.09800827666016942</v>
+        <v>0.3876053673206244</v>
       </c>
       <c r="K8">
-        <v>0.0247265321041218</v>
+        <v>0.225326965453358</v>
       </c>
       <c r="L8">
-        <v>0.004627461404252892</v>
+        <v>0.1683258586433869</v>
       </c>
       <c r="M8">
-        <v>0.005527872361646299</v>
+        <v>0.2010786866617611</v>
       </c>
       <c r="N8">
-        <v>0.006182423523549123</v>
+        <v>0.2248882610111138</v>
       </c>
       <c r="O8">
-        <v>0.00520092624866144</v>
+        <v>0.1891858840232096</v>
       </c>
       <c r="P8">
-        <v>0.003214673329571732</v>
+        <v>0.1169350970622565</v>
       </c>
       <c r="Q8">
-        <v>0.003019356393005631</v>
+        <v>0.1098303611859357</v>
       </c>
       <c r="R8">
-        <v>0.002678379004364249</v>
+        <v>0.09742716498244258</v>
       </c>
       <c r="S8">
-        <v>0.003144134863680777</v>
+        <v>0.1143692306397791</v>
       </c>
       <c r="T8">
-        <v>0.002868327176168135</v>
+        <v>0.1611785454107592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.09116440765387314</v>
+        <v>0.2690711487080217</v>
       </c>
       <c r="B9">
-        <v>0.09879136222021007</v>
+        <v>0.3131219317113222</v>
       </c>
       <c r="C9">
-        <v>0.11772387587694</v>
+        <v>0.3731290529324274</v>
       </c>
       <c r="D9">
-        <v>0.1373467123320642</v>
+        <v>0.4353241711937573</v>
       </c>
       <c r="E9">
-        <v>0.1355455934105895</v>
+        <v>0.4296154753800802</v>
       </c>
       <c r="F9">
-        <v>0.1213016955525805</v>
+        <v>0.3844690505088771</v>
       </c>
       <c r="G9">
-        <v>0.1447170841190308</v>
+        <v>0.4586847666901669</v>
       </c>
       <c r="H9">
-        <v>0.182801304686344</v>
+        <v>0.5793937481613995</v>
       </c>
       <c r="I9">
-        <v>0.1588328702511191</v>
+        <v>0.5034251379328581</v>
       </c>
       <c r="J9">
-        <v>0.1079340108312187</v>
+        <v>0.4268598871469071</v>
       </c>
       <c r="K9">
-        <v>0.03485954121814717</v>
+        <v>0.3176666508148144</v>
       </c>
       <c r="L9">
-        <v>0.005017325080575047</v>
+        <v>0.1825073141624934</v>
       </c>
       <c r="M9">
-        <v>0.001751156883166533</v>
+        <v>0.06369906958216412</v>
       </c>
       <c r="N9">
-        <v>0.002540743237755769</v>
+        <v>0.09242060597081672</v>
       </c>
       <c r="O9">
-        <v>0.00600151418586293</v>
+        <v>0.2183076076155722</v>
       </c>
       <c r="P9">
-        <v>0.006678890316491317</v>
+        <v>0.2429474498210129</v>
       </c>
       <c r="Q9">
-        <v>0.005386929314326069</v>
+        <v>0.1959518239205205</v>
       </c>
       <c r="R9">
-        <v>0.003226767246816962</v>
+        <v>0.1173750183985629</v>
       </c>
       <c r="S9">
-        <v>0.001688909702181095</v>
+        <v>0.06143480214216464</v>
       </c>
       <c r="T9">
-        <v>0.001099303766489086</v>
+        <v>0.06177265394249205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.07217148699160673</v>
+        <v>0.2130136684760507</v>
       </c>
       <c r="B10">
-        <v>0.08252352567552439</v>
+        <v>0.2615605776702503</v>
       </c>
       <c r="C10">
-        <v>0.1152581354330454</v>
+        <v>0.3653138209775322</v>
       </c>
       <c r="D10">
-        <v>0.1361517505378676</v>
+        <v>0.431536707017628</v>
       </c>
       <c r="E10">
-        <v>0.1270814892730594</v>
+        <v>0.4027882652051503</v>
       </c>
       <c r="F10">
-        <v>0.1102894351415257</v>
+        <v>0.3495653891469508</v>
       </c>
       <c r="G10">
-        <v>0.1253162977319389</v>
+        <v>0.3971934422087418</v>
       </c>
       <c r="H10">
-        <v>0.1575711428831058</v>
+        <v>0.4994260584396051</v>
       </c>
       <c r="I10">
-        <v>0.1771107829993541</v>
+        <v>0.5613574836233757</v>
       </c>
       <c r="J10">
-        <v>0.1199917194111356</v>
+        <v>0.474545987978666</v>
       </c>
       <c r="K10">
-        <v>0.04647622567790306</v>
+        <v>0.4235267142852451</v>
       </c>
       <c r="L10">
-        <v>0.008024134897651709</v>
+        <v>0.2918812883617463</v>
       </c>
       <c r="M10">
-        <v>0.004127974816072815</v>
+        <v>0.1501568235091346</v>
       </c>
       <c r="N10">
-        <v>0.003725630060344351</v>
+        <v>0.1355213634669581</v>
       </c>
       <c r="O10">
-        <v>0.007245944553321791</v>
+        <v>0.2635742866486818</v>
       </c>
       <c r="P10">
-        <v>0.01027544139992803</v>
+        <v>0.3737735111076395</v>
       </c>
       <c r="Q10">
-        <v>0.007758228643228313</v>
+        <v>0.282208836301243</v>
       </c>
       <c r="R10">
-        <v>0.003413826904727327</v>
+        <v>0.1241793922840721</v>
       </c>
       <c r="S10">
-        <v>0.002425107708501257</v>
+        <v>0.0882143148640861</v>
       </c>
       <c r="T10">
-        <v>0.001644170358117877</v>
+        <v>0.09239008329689669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.08871676448619119</v>
+        <v>0.2561279356736789</v>
       </c>
       <c r="B11">
-        <v>0.09581429400820476</v>
+        <v>0.2986338671933038</v>
       </c>
       <c r="C11">
-        <v>0.1127130593541691</v>
+        <v>0.3513039170882115</v>
       </c>
       <c r="D11">
-        <v>0.1326923323926879</v>
+        <v>0.4135752893606291</v>
       </c>
       <c r="E11">
-        <v>0.1338202455593257</v>
+        <v>0.4170907676543213</v>
       </c>
       <c r="F11">
-        <v>0.12108651206259</v>
+        <v>0.3774022836206816</v>
       </c>
       <c r="G11">
-        <v>0.1180048830541411</v>
+        <v>0.3677974663272476</v>
       </c>
       <c r="H11">
-        <v>0.1252360197451113</v>
+        <v>0.3903354637793073</v>
       </c>
       <c r="I11">
-        <v>0.1333067204927122</v>
+        <v>0.4154902133932802</v>
       </c>
       <c r="J11">
-        <v>0.122804427117524</v>
+        <v>0.4523335330077853</v>
       </c>
       <c r="K11">
-        <v>0.07132243106450036</v>
+        <v>0.4073616984776332</v>
       </c>
       <c r="L11">
-        <v>0.04384964961610089</v>
+        <v>0.3425953341000832</v>
       </c>
       <c r="M11">
-        <v>0.03511947819527483</v>
+        <v>0.2743868986655003</v>
       </c>
       <c r="N11">
-        <v>0.03308513326775352</v>
+        <v>0.2584926535296609</v>
       </c>
       <c r="O11">
-        <v>0.04306603714874214</v>
+        <v>0.3364730052466006</v>
       </c>
       <c r="P11">
-        <v>0.05327672097896338</v>
+        <v>0.4162486173399866</v>
       </c>
       <c r="Q11">
-        <v>0.04074269978136136</v>
+        <v>0.3183208752165179</v>
       </c>
       <c r="R11">
-        <v>0.02668496139301188</v>
+        <v>0.2084883994267968</v>
       </c>
       <c r="S11">
-        <v>0.02538557835755125</v>
+        <v>0.1983363783945887</v>
       </c>
       <c r="T11">
-        <v>0.0206405096711832</v>
+        <v>0.1574746865938926</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.1025256546714994</v>
+        <v>0.2807820446980855</v>
       </c>
       <c r="B12">
-        <v>0.09685646194766612</v>
+        <v>0.2901818510786801</v>
       </c>
       <c r="C12">
-        <v>0.08505631385357861</v>
+        <v>0.2548286206582354</v>
       </c>
       <c r="D12">
-        <v>0.09011100642102843</v>
+        <v>0.2699724739062383</v>
       </c>
       <c r="E12">
-        <v>0.1101717744208421</v>
+        <v>0.330074512275049</v>
       </c>
       <c r="F12">
-        <v>0.1189177289772778</v>
+        <v>0.3562773822911748</v>
       </c>
       <c r="G12">
-        <v>0.1250058095199054</v>
+        <v>0.3745172647507503</v>
       </c>
       <c r="H12">
-        <v>0.1223615926158115</v>
+        <v>0.366595193879546</v>
       </c>
       <c r="I12">
-        <v>0.1131447565685273</v>
+        <v>0.3389815634463513</v>
       </c>
       <c r="J12">
-        <v>0.1072420096789469</v>
+        <v>0.3460798714098253</v>
       </c>
       <c r="K12">
-        <v>0.1133623811236996</v>
+        <v>0.411749148842409</v>
       </c>
       <c r="L12">
-        <v>0.1005506243999387</v>
+        <v>0.3831617450519415</v>
       </c>
       <c r="M12">
-        <v>0.08402335186419765</v>
+        <v>0.3201823391702271</v>
       </c>
       <c r="N12">
-        <v>0.09086129831824612</v>
+        <v>0.3462392583742668</v>
       </c>
       <c r="O12">
-        <v>0.1097493980431779</v>
+        <v>0.4182149153580973</v>
       </c>
       <c r="P12">
-        <v>0.1039616518628718</v>
+        <v>0.3961599262459149</v>
       </c>
       <c r="Q12">
-        <v>0.06909476904322831</v>
+        <v>0.2632949565311737</v>
       </c>
       <c r="R12">
-        <v>0.05217734937797879</v>
+        <v>0.1988288422788092</v>
       </c>
       <c r="S12">
-        <v>0.04560765022771111</v>
+        <v>0.173794115683075</v>
       </c>
       <c r="T12">
-        <v>0.02386749591258649</v>
+        <v>0.08641231427062009</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.09391214317147421</v>
+        <v>0.2491186019132454</v>
       </c>
       <c r="B13">
-        <v>0.08326465995355314</v>
+        <v>0.2436626934270736</v>
       </c>
       <c r="C13">
-        <v>0.0637669704520593</v>
+        <v>0.186605359112745</v>
       </c>
       <c r="D13">
-        <v>0.05857867053385347</v>
+        <v>0.1714225056298545</v>
       </c>
       <c r="E13">
-        <v>0.07925340396209615</v>
+        <v>0.2319242987774214</v>
       </c>
       <c r="F13">
-        <v>0.09337381194184115</v>
+        <v>0.2732457506701339</v>
       </c>
       <c r="G13">
-        <v>0.1093510914200584</v>
+        <v>0.3200010842470819</v>
       </c>
       <c r="H13">
-        <v>0.1172457763251865</v>
+        <v>0.343103805002978</v>
       </c>
       <c r="I13">
-        <v>0.1039110856837268</v>
+        <v>0.3040816479494656</v>
       </c>
       <c r="J13">
-        <v>0.1012249113354338</v>
+        <v>0.307068295090679</v>
       </c>
       <c r="K13">
-        <v>0.1131777389566183</v>
+        <v>0.3597532592929368</v>
       </c>
       <c r="L13">
-        <v>0.1167316701508784</v>
+        <v>0.3770518250265888</v>
       </c>
       <c r="M13">
-        <v>0.09243934375776548</v>
+        <v>0.298585835558384</v>
       </c>
       <c r="N13">
-        <v>0.1147079430406957</v>
+        <v>0.3705150385721169</v>
       </c>
       <c r="O13">
-        <v>0.1227221939986964</v>
+        <v>0.3964016548265532</v>
       </c>
       <c r="P13">
-        <v>0.07693999232152142</v>
+        <v>0.2485217977680335</v>
       </c>
       <c r="Q13">
-        <v>0.02349205500846897</v>
+        <v>0.07588105441410571</v>
       </c>
       <c r="R13">
-        <v>0.002927189967545554</v>
+        <v>0.009455037506411173</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0.0005983229982210182</v>
+        <v>0.00183826767646985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.08580980171976671</v>
+        <v>0.2276257053983865</v>
       </c>
       <c r="B14">
-        <v>0.08748727035689464</v>
+        <v>0.2560195879936918</v>
       </c>
       <c r="C14">
-        <v>0.07888983338072154</v>
+        <v>0.2308603589600007</v>
       </c>
       <c r="D14">
-        <v>0.06779782261265468</v>
+        <v>0.198401099283964</v>
       </c>
       <c r="E14">
-        <v>0.06238263042832987</v>
+        <v>0.1825542764686921</v>
       </c>
       <c r="F14">
-        <v>0.05898729586585401</v>
+        <v>0.1726182920421611</v>
       </c>
       <c r="G14">
-        <v>0.07114301482726151</v>
+        <v>0.2081903489547974</v>
       </c>
       <c r="H14">
-        <v>0.09082602681010005</v>
+        <v>0.2657900042848153</v>
       </c>
       <c r="I14">
-        <v>0.09590840693215549</v>
+        <v>0.2806628979019999</v>
       </c>
       <c r="J14">
-        <v>0.09138101680567816</v>
+        <v>0.2772065953329196</v>
       </c>
       <c r="K14">
-        <v>0.09219669632712223</v>
+        <v>0.2930617125372761</v>
       </c>
       <c r="L14">
-        <v>0.08544299254936084</v>
+        <v>0.2759871098805428</v>
       </c>
       <c r="M14">
-        <v>0.07919744319663408</v>
+        <v>0.255813529063139</v>
       </c>
       <c r="N14">
-        <v>0.09010361794413048</v>
+        <v>0.2910412704917275</v>
       </c>
       <c r="O14">
-        <v>0.07928513032533736</v>
+        <v>0.2560967648967922</v>
       </c>
       <c r="P14">
-        <v>0.03645245277247209</v>
+        <v>0.1177440863031524</v>
       </c>
       <c r="Q14">
-        <v>0.0162760584915834</v>
+        <v>0.05257285833877749</v>
       </c>
       <c r="R14">
-        <v>0.01158518244489697</v>
+        <v>0.03742098591126454</v>
       </c>
       <c r="S14">
-        <v>0.01208090469265016</v>
+        <v>0.03902220499756764</v>
       </c>
       <c r="T14">
-        <v>0.02510398126909564</v>
+        <v>0.07712863696514011</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.0761769249803801</v>
+        <v>0.2020727928071261</v>
       </c>
       <c r="B15">
-        <v>0.08952034039922732</v>
+        <v>0.261969090732513</v>
       </c>
       <c r="C15">
-        <v>0.08426297124606819</v>
+        <v>0.2465841155351873</v>
       </c>
       <c r="D15">
-        <v>0.06459829031108855</v>
+        <v>0.1890381035215191</v>
       </c>
       <c r="E15">
-        <v>0.0594365485075956</v>
+        <v>0.173932968746264</v>
       </c>
       <c r="F15">
-        <v>0.05095522561305262</v>
+        <v>0.1491135317670962</v>
       </c>
       <c r="G15">
-        <v>0.0410356513796569</v>
+        <v>0.1200852480185374</v>
       </c>
       <c r="H15">
-        <v>0.06188418644091537</v>
+        <v>0.1810956479873688</v>
       </c>
       <c r="I15">
-        <v>0.08083206938420801</v>
+        <v>0.2365440482484039</v>
       </c>
       <c r="J15">
-        <v>0.06333647135523679</v>
+        <v>0.1921327667224559</v>
       </c>
       <c r="K15">
-        <v>0.05342126456366426</v>
+        <v>0.1698078987926684</v>
       </c>
       <c r="L15">
-        <v>0.06442376926399561</v>
+        <v>0.2080934826400119</v>
       </c>
       <c r="M15">
-        <v>0.0742507751396716</v>
+        <v>0.2398354297498363</v>
       </c>
       <c r="N15">
-        <v>0.0800605589797829</v>
+        <v>0.2586014561169101</v>
       </c>
       <c r="O15">
-        <v>0.06385258893502914</v>
+        <v>0.2062485284371145</v>
       </c>
       <c r="P15">
-        <v>0.05044060134395458</v>
+        <v>0.1629268284056465</v>
       </c>
       <c r="Q15">
-        <v>0.05719903906985862</v>
+        <v>0.1847570761489278</v>
       </c>
       <c r="R15">
-        <v>0.05791454915902441</v>
+        <v>0.187068226024503</v>
       </c>
       <c r="S15">
-        <v>0.04899505870767779</v>
+        <v>0.1582576200540703</v>
       </c>
       <c r="T15">
-        <v>0.03982854455877451</v>
+        <v>0.1223678954025244</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.07644578835776863</v>
+        <v>0.2027860005608711</v>
       </c>
       <c r="B16">
-        <v>0.08605909789345213</v>
+        <v>0.2518402356812594</v>
       </c>
       <c r="C16">
-        <v>0.07887964732385802</v>
+        <v>0.2308305508511085</v>
       </c>
       <c r="D16">
-        <v>0.06348727434270096</v>
+        <v>0.1857868665207457</v>
       </c>
       <c r="E16">
-        <v>0.06946706954041915</v>
+        <v>0.2032859232013479</v>
       </c>
       <c r="F16">
-        <v>0.06284553056140654</v>
+        <v>0.1839088906985001</v>
       </c>
       <c r="G16">
-        <v>0.0397340615775388</v>
+        <v>0.116276322634128</v>
       </c>
       <c r="H16">
-        <v>0.04189537454054785</v>
+        <v>0.1226011108239723</v>
       </c>
       <c r="I16">
-        <v>0.05316476635872377</v>
+        <v>0.1555794519981692</v>
       </c>
       <c r="J16">
-        <v>0.05185059735717498</v>
+        <v>0.1572900812640929</v>
       </c>
       <c r="K16">
-        <v>0.04495603881328672</v>
+        <v>0.1428998461806955</v>
       </c>
       <c r="L16">
-        <v>0.05247469904697518</v>
+        <v>0.1694971126328403</v>
       </c>
       <c r="M16">
-        <v>0.07431193450636039</v>
+        <v>0.2400329789736046</v>
       </c>
       <c r="N16">
-        <v>0.0849350176522939</v>
+        <v>0.2743463138415653</v>
       </c>
       <c r="O16">
-        <v>0.09387680182866692</v>
+        <v>0.3032289301729992</v>
       </c>
       <c r="P16">
-        <v>0.06984601402019405</v>
+        <v>0.2256077294457241</v>
       </c>
       <c r="Q16">
-        <v>0.04637033503624405</v>
+        <v>0.1497795707875309</v>
       </c>
       <c r="R16">
-        <v>0.04311088402696117</v>
+        <v>0.1392513058355571</v>
       </c>
       <c r="S16">
-        <v>0.04793846520759404</v>
+        <v>0.1548447458357637</v>
       </c>
       <c r="T16">
-        <v>0.0458731737129007</v>
+        <v>0.140939212940569</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.09115097650917406</v>
+        <v>0.2417941180357375</v>
       </c>
       <c r="B17">
-        <v>0.08502583995677021</v>
+        <v>0.248816546975904</v>
       </c>
       <c r="C17">
-        <v>0.07326604364387478</v>
+        <v>0.2144031038014255</v>
       </c>
       <c r="D17">
-        <v>0.07234300640250053</v>
+        <v>0.2117019609577245</v>
       </c>
       <c r="E17">
-        <v>0.07735836562408981</v>
+        <v>0.2263787270325327</v>
       </c>
       <c r="F17">
-        <v>0.06737191834696821</v>
+        <v>0.1971547484242219</v>
       </c>
       <c r="G17">
-        <v>0.05264555102347007</v>
+        <v>0.1540600389947759</v>
       </c>
       <c r="H17">
-        <v>0.04425243233537852</v>
+        <v>0.1294987196194936</v>
       </c>
       <c r="I17">
-        <v>0.05114897904635485</v>
+        <v>0.1496805248160741</v>
       </c>
       <c r="J17">
-        <v>0.07602428557515932</v>
+        <v>0.2306215678440339</v>
       </c>
       <c r="K17">
-        <v>0.0681475549035485</v>
+        <v>0.2166177307959224</v>
       </c>
       <c r="L17">
-        <v>0.05031921436196261</v>
+        <v>0.1625347395831754</v>
       </c>
       <c r="M17">
-        <v>0.06312647853869462</v>
+        <v>0.2039031387947421</v>
       </c>
       <c r="N17">
-        <v>0.07835473602051422</v>
+        <v>0.2530915233014781</v>
       </c>
       <c r="O17">
-        <v>0.08533886216337104</v>
+        <v>0.2756507611242247</v>
       </c>
       <c r="P17">
-        <v>0.06212381494066044</v>
+        <v>0.200664462101109</v>
       </c>
       <c r="Q17">
-        <v>0.01317479299371806</v>
+        <v>0.04255554414845775</v>
       </c>
       <c r="R17">
-        <v>0.02030555522075859</v>
+        <v>0.06558842723889181</v>
       </c>
       <c r="S17">
-        <v>0.03830438151975551</v>
+        <v>0.1237259514908935</v>
       </c>
       <c r="T17">
-        <v>0.05201548564499163</v>
+        <v>0.1598106477962068</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.06603603049201701</v>
+        <v>0.1751722731109884</v>
       </c>
       <c r="B18">
-        <v>0.06015615560697189</v>
+        <v>0.176038800970176</v>
       </c>
       <c r="C18">
-        <v>0.04689011818742078</v>
+        <v>0.1372175482255507</v>
       </c>
       <c r="D18">
-        <v>0.05977157258595388</v>
+        <v>0.1749133711083374</v>
       </c>
       <c r="E18">
-        <v>0.08278667504646189</v>
+        <v>0.2422639356594407</v>
       </c>
       <c r="F18">
-        <v>0.06514161465175328</v>
+        <v>0.190628068247547</v>
       </c>
       <c r="G18">
-        <v>0.04742608487584028</v>
+        <v>0.1387859817838014</v>
       </c>
       <c r="H18">
-        <v>0.0512775936352691</v>
+        <v>0.1500568979036041</v>
       </c>
       <c r="I18">
-        <v>0.05795513904834745</v>
+        <v>0.1695978256121888</v>
       </c>
       <c r="J18">
-        <v>0.06371423703848658</v>
+        <v>0.1932787283515541</v>
       </c>
       <c r="K18">
-        <v>0.05435893140158885</v>
+        <v>0.1727884204410428</v>
       </c>
       <c r="L18">
-        <v>0.0524881516872004</v>
+        <v>0.1695405656438509</v>
       </c>
       <c r="M18">
-        <v>0.0643469935074704</v>
+        <v>0.2078454913358679</v>
       </c>
       <c r="N18">
-        <v>0.06762586398371591</v>
+        <v>0.2184364825852539</v>
       </c>
       <c r="O18">
-        <v>0.06487337143823148</v>
+        <v>0.2095457305185221</v>
       </c>
       <c r="P18">
-        <v>0.04086558825417969</v>
+        <v>0.1319988364092436</v>
       </c>
       <c r="Q18">
-        <v>0.01005925029201461</v>
+        <v>0.03249211354640091</v>
       </c>
       <c r="R18">
-        <v>0.02517368217760905</v>
+        <v>0.08131283305925856</v>
       </c>
       <c r="S18">
-        <v>0.03165177422634637</v>
+        <v>0.1022375437783766</v>
       </c>
       <c r="T18">
-        <v>0.04046664990057241</v>
+        <v>0.1243283890280368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.03333888934459782</v>
+        <v>0.08843731196403308</v>
       </c>
       <c r="B19">
-        <v>0.03893581812694462</v>
+        <v>0.1139403718323017</v>
       </c>
       <c r="C19">
-        <v>0.03870215139153971</v>
+        <v>0.113256577937691</v>
       </c>
       <c r="D19">
-        <v>0.04748574062070684</v>
+        <v>0.1389605562008553</v>
       </c>
       <c r="E19">
-        <v>0.06655397960928892</v>
+        <v>0.1947611620456496</v>
       </c>
       <c r="F19">
-        <v>0.05876882936111343</v>
+        <v>0.1719789795535449</v>
       </c>
       <c r="G19">
-        <v>0.05840949538271798</v>
+        <v>0.1709274375780592</v>
       </c>
       <c r="H19">
-        <v>0.06532335672754996</v>
+        <v>0.1911599116937625</v>
       </c>
       <c r="I19">
-        <v>0.05254367246777172</v>
+        <v>0.1537619052691621</v>
       </c>
       <c r="J19">
-        <v>0.02785694519656287</v>
+        <v>0.08450473855785649</v>
       </c>
       <c r="K19">
-        <v>0.02491061400913926</v>
+        <v>0.07918230796438866</v>
       </c>
       <c r="L19">
-        <v>0.05070904571331923</v>
+        <v>0.1637939233358932</v>
       </c>
       <c r="M19">
-        <v>0.06600077555785896</v>
+        <v>0.2131873282126063</v>
       </c>
       <c r="N19">
-        <v>0.05673124147451414</v>
+        <v>0.183246055730564</v>
       </c>
       <c r="O19">
-        <v>0.04304190757916321</v>
+        <v>0.1390285068685547</v>
       </c>
       <c r="P19">
-        <v>0.03774348438512065</v>
+        <v>0.1219142127571557</v>
       </c>
       <c r="Q19">
-        <v>0.0336203222098268</v>
+        <v>0.1085960976212569</v>
       </c>
       <c r="R19">
-        <v>0.02131179647064846</v>
+        <v>0.06883866000946404</v>
       </c>
       <c r="S19">
-        <v>0.02699812582455235</v>
+        <v>0.0872059193643632</v>
       </c>
       <c r="T19">
-        <v>0.03762270331265506</v>
+        <v>0.1155907421354398</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.03983669391179451</v>
+        <v>0.1056738900530871</v>
       </c>
       <c r="B20">
-        <v>0.03962070950112564</v>
+        <v>0.1159446132119099</v>
       </c>
       <c r="C20">
-        <v>0.04672305973506988</v>
+        <v>0.1367286744046249</v>
       </c>
       <c r="D20">
-        <v>0.04388130608799808</v>
+        <v>0.1284126691739787</v>
       </c>
       <c r="E20">
-        <v>0.03326195611563377</v>
+        <v>0.09733658697831019</v>
       </c>
       <c r="F20">
-        <v>0.0358202706883106</v>
+        <v>0.1048231463392672</v>
       </c>
       <c r="G20">
-        <v>0.06070352842698822</v>
+        <v>0.1776406130199502</v>
       </c>
       <c r="H20">
-        <v>0.06801514214540869</v>
+        <v>0.1990370553151865</v>
       </c>
       <c r="I20">
-        <v>0.04498949409517738</v>
+        <v>0.1316556305312162</v>
       </c>
       <c r="J20">
-        <v>0.01245183845072467</v>
+        <v>0.03777296273580578</v>
       </c>
       <c r="K20">
-        <v>0.008421130885020995</v>
+        <v>0.02676789014118715</v>
       </c>
       <c r="L20">
-        <v>0.02978363533455208</v>
+        <v>0.09620331863927126</v>
       </c>
       <c r="M20">
-        <v>0.04169983004869857</v>
+        <v>0.1346934983697059</v>
       </c>
       <c r="N20">
-        <v>0.04691271815540585</v>
+        <v>0.1515315078983359</v>
       </c>
       <c r="O20">
-        <v>0.0561052298943487</v>
+        <v>0.1812239925793722</v>
       </c>
       <c r="P20">
-        <v>0.06638846881751087</v>
+        <v>0.2144396057728717</v>
       </c>
       <c r="Q20">
-        <v>0.05470611011013132</v>
+        <v>0.1767047334324063</v>
       </c>
       <c r="R20">
-        <v>0.02941594827194864</v>
+        <v>0.09501566255747185</v>
       </c>
       <c r="S20">
-        <v>0.009327372017076304</v>
+        <v>0.030128093234637</v>
       </c>
       <c r="T20">
-        <v>0.01740035968169077</v>
+        <v>0.05346028626161158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.05227623722031274</v>
+        <v>0.1177667726934532</v>
       </c>
       <c r="B21">
-        <v>0.04353997490138758</v>
+        <v>0.115497499135619</v>
       </c>
       <c r="C21">
-        <v>0.04991976247933066</v>
+        <v>0.1324210162469123</v>
       </c>
       <c r="D21">
-        <v>0.0433816013545547</v>
+        <v>0.1150773852373022</v>
       </c>
       <c r="E21">
-        <v>0.02347250660695049</v>
+        <v>0.06226498333283784</v>
       </c>
       <c r="F21">
-        <v>0.01830675004206576</v>
+        <v>0.04856189862185933</v>
       </c>
       <c r="G21">
-        <v>0.03417288233945204</v>
+        <v>0.09064962617460509</v>
       </c>
       <c r="H21">
-        <v>0.0471665057511343</v>
+        <v>0.1251175148713325</v>
       </c>
       <c r="I21">
-        <v>0.03768976026201147</v>
+        <v>0.09997876808938236</v>
       </c>
       <c r="J21">
-        <v>0.01386709700843807</v>
+        <v>0.03885843324027752</v>
       </c>
       <c r="K21">
-        <v>0.008105035731406475</v>
+        <v>0.02433292885947485</v>
       </c>
       <c r="L21">
-        <v>0.01528511212790881</v>
+        <v>0.04696147004125806</v>
       </c>
       <c r="M21">
-        <v>0.02255037017287344</v>
+        <v>0.06928300717919299</v>
       </c>
       <c r="N21">
-        <v>0.04532846363943194</v>
+        <v>0.1392656638306696</v>
       </c>
       <c r="O21">
-        <v>0.07208958466923426</v>
+        <v>0.2214856418717126</v>
       </c>
       <c r="P21">
-        <v>0.07564456586007144</v>
+        <v>0.2324078478256952</v>
       </c>
       <c r="Q21">
-        <v>0.06730133145379369</v>
+        <v>0.2067743719742353</v>
       </c>
       <c r="R21">
-        <v>0.05150995495092779</v>
+        <v>0.1582574721082858</v>
       </c>
       <c r="S21">
-        <v>0.02389204446107782</v>
+        <v>0.07340512263136509</v>
       </c>
       <c r="T21">
-        <v>0.009273004078818408</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>[-0.1,5]</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>(5,10]</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>(10,15]</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>(15,20]</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>(20,25]</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>(25,30]</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>(30,35]</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>(35,40]</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>(40,45]</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>(45,50]</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>(50,55]</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>(55,60]</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>(60,65]</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>(65,70]</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>(70,75]</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>(75,80]</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>(80,85]</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>(85,90]</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>(90,95]</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>(95,100]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0.9999999901263428</v>
-      </c>
-      <c r="B2">
-        <v>0.7790298540950172</v>
-      </c>
-      <c r="C2">
-        <v>0.6625284487576314</v>
-      </c>
-      <c r="D2">
-        <v>0.6058308272481423</v>
-      </c>
-      <c r="E2">
-        <v>0.5152949379643426</v>
-      </c>
-      <c r="F2">
-        <v>0.3998103715244914</v>
-      </c>
-      <c r="G2">
-        <v>0.352303815616798</v>
-      </c>
-      <c r="H2">
-        <v>0.3579517204624899</v>
-      </c>
-      <c r="I2">
-        <v>0.3129748020988339</v>
-      </c>
-      <c r="J2">
-        <v>0.3170185369678042</v>
-      </c>
-      <c r="K2">
-        <v>0.3607963606419464</v>
-      </c>
-      <c r="L2">
-        <v>0.2343984823967198</v>
-      </c>
-      <c r="M2">
-        <v>0.09355283939827205</v>
-      </c>
-      <c r="N2">
-        <v>0.05887368887452196</v>
-      </c>
-      <c r="O2">
-        <v>0.03200495175380456</v>
-      </c>
-      <c r="P2">
-        <v>0.07532111973581319</v>
-      </c>
-      <c r="Q2">
-        <v>0.1916261205808862</v>
-      </c>
-      <c r="R2">
-        <v>0.228321347384696</v>
-      </c>
-      <c r="S2">
-        <v>0.1767106868065582</v>
-      </c>
-      <c r="T2">
-        <v>0.1431180358395276</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.8734017726648415</v>
-      </c>
-      <c r="B3">
-        <v>0.8822638736108994</v>
-      </c>
-      <c r="C3">
-        <v>0.6951184834519663</v>
-      </c>
-      <c r="D3">
-        <v>0.6199887845460184</v>
-      </c>
-      <c r="E3">
-        <v>0.5558275487758357</v>
-      </c>
-      <c r="F3">
-        <v>0.4358264155285004</v>
-      </c>
-      <c r="G3">
-        <v>0.3123975331796873</v>
-      </c>
-      <c r="H3">
-        <v>0.2402437222717997</v>
-      </c>
-      <c r="I3">
-        <v>0.2283760638880676</v>
-      </c>
-      <c r="J3">
-        <v>0.3232381071114869</v>
-      </c>
-      <c r="K3">
-        <v>0.3995468911212782</v>
-      </c>
-      <c r="L3">
-        <v>0.3165583493247304</v>
-      </c>
-      <c r="M3">
-        <v>0.1836928750492928</v>
-      </c>
-      <c r="N3">
-        <v>0.1302370840745361</v>
-      </c>
-      <c r="O3">
-        <v>0.1014405465784934</v>
-      </c>
-      <c r="P3">
-        <v>0.08445628787558833</v>
-      </c>
-      <c r="Q3">
-        <v>0.1976527391862438</v>
-      </c>
-      <c r="R3">
-        <v>0.2968571244695396</v>
-      </c>
-      <c r="S3">
-        <v>0.2421632429941275</v>
-      </c>
-      <c r="T3">
-        <v>0.1686398610550057</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0.7646544628668001</v>
-      </c>
-      <c r="B4">
-        <v>0.7774511844110296</v>
-      </c>
-      <c r="C4">
-        <v>0.8032990376082705</v>
-      </c>
-      <c r="D4">
-        <v>0.6740169667205796</v>
-      </c>
-      <c r="E4">
-        <v>0.5848764833511397</v>
-      </c>
-      <c r="F4">
-        <v>0.4723959651450538</v>
-      </c>
-      <c r="G4">
-        <v>0.2953982007556906</v>
-      </c>
-      <c r="H4">
-        <v>0.1952577172310901</v>
-      </c>
-      <c r="I4">
-        <v>0.2343550360809727</v>
-      </c>
-      <c r="J4">
-        <v>0.2810153559637723</v>
-      </c>
-      <c r="K4">
-        <v>0.3252245523673427</v>
-      </c>
-      <c r="L4">
-        <v>0.3533229243518955</v>
-      </c>
-      <c r="M4">
-        <v>0.2953869163522472</v>
-      </c>
-      <c r="N4">
-        <v>0.2399764358112728</v>
-      </c>
-      <c r="O4">
-        <v>0.1606823085259183</v>
-      </c>
-      <c r="P4">
-        <v>0.05699889208281444</v>
-      </c>
-      <c r="Q4">
-        <v>0.1338244260731968</v>
-      </c>
-      <c r="R4">
-        <v>0.2839495299702791</v>
-      </c>
-      <c r="S4">
-        <v>0.2532893121189908</v>
-      </c>
-      <c r="T4">
-        <v>0.1497437877104152</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0.6206893701911971</v>
-      </c>
-      <c r="B5">
-        <v>0.6738283641078325</v>
-      </c>
-      <c r="C5">
-        <v>0.7586455601127374</v>
-      </c>
-      <c r="D5">
-        <v>0.7833437948020149</v>
-      </c>
-      <c r="E5">
-        <v>0.616417067462891</v>
-      </c>
-      <c r="F5">
-        <v>0.5285004618791599</v>
-      </c>
-      <c r="G5">
-        <v>0.3794606539039723</v>
-      </c>
-      <c r="H5">
-        <v>0.3019197674718735</v>
-      </c>
-      <c r="I5">
-        <v>0.3543604621632048</v>
-      </c>
-      <c r="J5">
-        <v>0.3004041228794175</v>
-      </c>
-      <c r="K5">
-        <v>0.2642392009609402</v>
-      </c>
-      <c r="L5">
-        <v>0.2785291318061538</v>
-      </c>
-      <c r="M5">
-        <v>0.2750098067630529</v>
-      </c>
-      <c r="N5">
-        <v>0.3088574719225229</v>
-      </c>
-      <c r="O5">
-        <v>0.1886199019247309</v>
-      </c>
-      <c r="P5">
-        <v>0.05121946140767226</v>
-      </c>
-      <c r="Q5">
-        <v>0.1088050144176547</v>
-      </c>
-      <c r="R5">
-        <v>0.2276256859155089</v>
-      </c>
-      <c r="S5">
-        <v>0.2294806216166163</v>
-      </c>
-      <c r="T5">
-        <v>0.1363369755025011</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>0.5208716002110767</v>
-      </c>
-      <c r="B6">
-        <v>0.546981939100126</v>
-      </c>
-      <c r="C6">
-        <v>0.6196091653951699</v>
-      </c>
-      <c r="D6">
-        <v>0.6558443088856013</v>
-      </c>
-      <c r="E6">
-        <v>0.6749778147216823</v>
-      </c>
-      <c r="F6">
-        <v>0.5902920780137887</v>
-      </c>
-      <c r="G6">
-        <v>0.4799605952817051</v>
-      </c>
-      <c r="H6">
-        <v>0.3564470287610975</v>
-      </c>
-      <c r="I6">
-        <v>0.3429288329387805</v>
-      </c>
-      <c r="J6">
-        <v>0.2944466059132216</v>
-      </c>
-      <c r="K6">
-        <v>0.2262739490954465</v>
-      </c>
-      <c r="L6">
-        <v>0.2320257038472574</v>
-      </c>
-      <c r="M6">
-        <v>0.3267642180324974</v>
-      </c>
-      <c r="N6">
-        <v>0.40627355557595</v>
-      </c>
-      <c r="O6">
-        <v>0.2584289442659451</v>
-      </c>
-      <c r="P6">
-        <v>0.1211579267082713</v>
-      </c>
-      <c r="Q6">
-        <v>0.1112834205603922</v>
-      </c>
-      <c r="R6">
-        <v>0.1313088060897468</v>
-      </c>
-      <c r="S6">
-        <v>0.1994682785109881</v>
-      </c>
-      <c r="T6">
-        <v>0.204104967238923</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>0.4830353652368548</v>
-      </c>
-      <c r="B7">
-        <v>0.4394132980325656</v>
-      </c>
-      <c r="C7">
-        <v>0.4586319123358537</v>
-      </c>
-      <c r="D7">
-        <v>0.5608483381332896</v>
-      </c>
-      <c r="E7">
-        <v>0.6199491153379262</v>
-      </c>
-      <c r="F7">
-        <v>0.6408147335389742</v>
-      </c>
-      <c r="G7">
-        <v>0.4864596105228473</v>
-      </c>
-      <c r="H7">
-        <v>0.3651164272883003</v>
-      </c>
-      <c r="I7">
-        <v>0.3588196240195688</v>
-      </c>
-      <c r="J7">
-        <v>0.3243225111305545</v>
-      </c>
-      <c r="K7">
-        <v>0.2162979367418509</v>
-      </c>
-      <c r="L7">
-        <v>0.2397897756512129</v>
-      </c>
-      <c r="M7">
-        <v>0.37859851444758</v>
-      </c>
-      <c r="N7">
-        <v>0.4021870410064264</v>
-      </c>
-      <c r="O7">
-        <v>0.2437201741643161</v>
-      </c>
-      <c r="P7">
-        <v>0.1328737460250282</v>
-      </c>
-      <c r="Q7">
-        <v>0.1010358663576229</v>
-      </c>
-      <c r="R7">
-        <v>0.06911800855122227</v>
-      </c>
-      <c r="S7">
-        <v>0.1636670095034801</v>
-      </c>
-      <c r="T7">
-        <v>0.2489448942221727</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>0.3998806474657493</v>
-      </c>
-      <c r="B8">
-        <v>0.3954027526367369</v>
-      </c>
-      <c r="C8">
-        <v>0.4028157276755781</v>
-      </c>
-      <c r="D8">
-        <v>0.4988873134493325</v>
-      </c>
-      <c r="E8">
-        <v>0.5445946418119768</v>
-      </c>
-      <c r="F8">
-        <v>0.5136842747633512</v>
-      </c>
-      <c r="G8">
-        <v>0.5031859612063749</v>
-      </c>
-      <c r="H8">
-        <v>0.4286215175899587</v>
-      </c>
-      <c r="I8">
-        <v>0.4349865472997491</v>
-      </c>
-      <c r="J8">
-        <v>0.3876053679072858</v>
-      </c>
-      <c r="K8">
-        <v>0.2253269655893518</v>
-      </c>
-      <c r="L8">
-        <v>0.1683258586678448</v>
-      </c>
-      <c r="M8">
-        <v>0.2010786866909781</v>
-      </c>
-      <c r="N8">
-        <v>0.2248882610437903</v>
-      </c>
-      <c r="O8">
-        <v>0.1891858840506985</v>
-      </c>
-      <c r="P8">
-        <v>0.1169350970792472</v>
-      </c>
-      <c r="Q8">
-        <v>0.1098303612018942</v>
-      </c>
-      <c r="R8">
-        <v>0.09742716499659887</v>
-      </c>
-      <c r="S8">
-        <v>0.1143692306563971</v>
-      </c>
-      <c r="T8">
-        <v>0.1611785454334319</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>0.2690711495814932</v>
-      </c>
-      <c r="B9">
-        <v>0.3131219323300012</v>
-      </c>
-      <c r="C9">
-        <v>0.373129053669671</v>
-      </c>
-      <c r="D9">
-        <v>0.4353241720538886</v>
-      </c>
-      <c r="E9">
-        <v>0.4296154762289319</v>
-      </c>
-      <c r="F9">
-        <v>0.3844690512685267</v>
-      </c>
-      <c r="G9">
-        <v>0.4586847675964549</v>
-      </c>
-      <c r="H9">
-        <v>0.5793937493061893</v>
-      </c>
-      <c r="I9">
-        <v>0.503425138927546</v>
-      </c>
-      <c r="J9">
-        <v>0.4268598877929823</v>
-      </c>
-      <c r="K9">
-        <v>0.3176666510065388</v>
-      </c>
-      <c r="L9">
-        <v>0.1825073141890119</v>
-      </c>
-      <c r="M9">
-        <v>0.06369906959141966</v>
-      </c>
-      <c r="N9">
-        <v>0.09242060598424554</v>
-      </c>
-      <c r="O9">
-        <v>0.2183076076472925</v>
-      </c>
-      <c r="P9">
-        <v>0.2429474498563134</v>
-      </c>
-      <c r="Q9">
-        <v>0.1959518239489925</v>
-      </c>
-      <c r="R9">
-        <v>0.1173750184156176</v>
-      </c>
-      <c r="S9">
-        <v>0.06143480215109117</v>
-      </c>
-      <c r="T9">
-        <v>0.06177265395118151</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>0.2130136691675457</v>
-      </c>
-      <c r="B10">
-        <v>0.2615605781870524</v>
-      </c>
-      <c r="C10">
-        <v>0.3653138216993341</v>
-      </c>
-      <c r="D10">
-        <v>0.4315367078702758</v>
-      </c>
-      <c r="E10">
-        <v>0.4027882660009957</v>
-      </c>
-      <c r="F10">
-        <v>0.3495653898376362</v>
-      </c>
-      <c r="G10">
-        <v>0.3971934429935327</v>
-      </c>
-      <c r="H10">
-        <v>0.4994260594263915</v>
-      </c>
-      <c r="I10">
-        <v>0.5613574847325287</v>
-      </c>
-      <c r="J10">
-        <v>0.4745459886969166</v>
-      </c>
-      <c r="K10">
-        <v>0.4235267145408604</v>
-      </c>
-      <c r="L10">
-        <v>0.2918812884041569</v>
-      </c>
-      <c r="M10">
-        <v>0.1501568235309526</v>
-      </c>
-      <c r="N10">
-        <v>0.1355213634866495</v>
-      </c>
-      <c r="O10">
-        <v>0.2635742866869794</v>
-      </c>
-      <c r="P10">
-        <v>0.3737735111619492</v>
-      </c>
-      <c r="Q10">
-        <v>0.2822088363422483</v>
-      </c>
-      <c r="R10">
-        <v>0.1241793923021155</v>
-      </c>
-      <c r="S10">
-        <v>0.08821431487690372</v>
-      </c>
-      <c r="T10">
-        <v>0.09239008330989305</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>0.2561279365929036</v>
-      </c>
-      <c r="B11">
-        <v>0.2986338678354722</v>
-      </c>
-      <c r="C11">
-        <v>0.3513039178436391</v>
-      </c>
-      <c r="D11">
-        <v>0.4135752902499622</v>
-      </c>
-      <c r="E11">
-        <v>0.417090768551214</v>
-      </c>
-      <c r="F11">
-        <v>0.37740228443223</v>
-      </c>
-      <c r="G11">
-        <v>0.3677974671181423</v>
-      </c>
-      <c r="H11">
-        <v>0.3903354646186666</v>
-      </c>
-      <c r="I11">
-        <v>0.4154902142867312</v>
-      </c>
-      <c r="J11">
-        <v>0.4523335337690499</v>
-      </c>
-      <c r="K11">
-        <v>0.4073616988620368</v>
-      </c>
-      <c r="L11">
-        <v>0.3425953343219355</v>
-      </c>
-      <c r="M11">
-        <v>0.2743868988431832</v>
-      </c>
-      <c r="N11">
-        <v>0.2584926536970513</v>
-      </c>
-      <c r="O11">
-        <v>0.3364730054644882</v>
-      </c>
-      <c r="P11">
-        <v>0.416248617609534</v>
-      </c>
-      <c r="Q11">
-        <v>0.3183208754226509</v>
-      </c>
-      <c r="R11">
-        <v>0.2084883995618063</v>
-      </c>
-      <c r="S11">
-        <v>0.1983363785230241</v>
-      </c>
-      <c r="T11">
-        <v>0.1574746867492611</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>0.2807820459670086</v>
-      </c>
-      <c r="B12">
-        <v>0.2901818518338922</v>
-      </c>
-      <c r="C12">
-        <v>0.2548286213214391</v>
-      </c>
-      <c r="D12">
-        <v>0.2699724746088546</v>
-      </c>
-      <c r="E12">
-        <v>0.3300745131340836</v>
-      </c>
-      <c r="F12">
-        <v>0.3562773832184037</v>
-      </c>
-      <c r="G12">
-        <v>0.3745172657254493</v>
-      </c>
-      <c r="H12">
-        <v>0.3665951948336275</v>
-      </c>
-      <c r="I12">
-        <v>0.3389815643285671</v>
-      </c>
-      <c r="J12">
-        <v>0.3460798721255978</v>
-      </c>
-      <c r="K12">
-        <v>0.4117491494298414</v>
-      </c>
-      <c r="L12">
-        <v>0.3831617455205872</v>
-      </c>
-      <c r="M12">
-        <v>0.3201823395618427</v>
-      </c>
-      <c r="N12">
-        <v>0.3462392587977526</v>
-      </c>
-      <c r="O12">
-        <v>0.4182149158696167</v>
-      </c>
-      <c r="P12">
-        <v>0.3961599267304587</v>
-      </c>
-      <c r="Q12">
-        <v>0.2632949568532102</v>
-      </c>
-      <c r="R12">
-        <v>0.1988288425219971</v>
-      </c>
-      <c r="S12">
-        <v>0.1737941158956429</v>
-      </c>
-      <c r="T12">
-        <v>0.08641231443462839</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>0.2491186032007755</v>
-      </c>
-      <c r="B13">
-        <v>0.2436626941340612</v>
-      </c>
-      <c r="C13">
-        <v>0.1866053596541807</v>
-      </c>
-      <c r="D13">
-        <v>0.1714225061272372</v>
-      </c>
-      <c r="E13">
-        <v>0.2319242994503501</v>
-      </c>
-      <c r="F13">
-        <v>0.2732457514629568</v>
-      </c>
-      <c r="G13">
-        <v>0.3200010851755654</v>
-      </c>
-      <c r="H13">
-        <v>0.3431038059984941</v>
-      </c>
-      <c r="I13">
-        <v>0.3040816488317588</v>
-      </c>
-      <c r="J13">
-        <v>0.3070682957932286</v>
-      </c>
-      <c r="K13">
-        <v>0.3597532598683225</v>
-      </c>
-      <c r="L13">
-        <v>0.3770518255500321</v>
-      </c>
-      <c r="M13">
-        <v>0.2985858359728966</v>
-      </c>
-      <c r="N13">
-        <v>0.3705150390864854</v>
-      </c>
-      <c r="O13">
-        <v>0.396401655376859</v>
-      </c>
-      <c r="P13">
-        <v>0.2485217981130445</v>
-      </c>
-      <c r="Q13">
-        <v>0.07588105451944779</v>
-      </c>
-      <c r="R13">
-        <v>0.009455037519537154</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0.001838267680409688</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>0.2276257065748339</v>
-      </c>
-      <c r="B14">
-        <v>0.256019588736533</v>
-      </c>
-      <c r="C14">
-        <v>0.2308603596298423</v>
-      </c>
-      <c r="D14">
-        <v>0.198401099859625</v>
-      </c>
-      <c r="E14">
-        <v>0.1825542769983736</v>
-      </c>
-      <c r="F14">
-        <v>0.1726182925430133</v>
-      </c>
-      <c r="G14">
-        <v>0.208190349558862</v>
-      </c>
-      <c r="H14">
-        <v>0.2657900050560054</v>
-      </c>
-      <c r="I14">
-        <v>0.2806628987163436</v>
-      </c>
-      <c r="J14">
-        <v>0.2772065959671479</v>
-      </c>
-      <c r="K14">
-        <v>0.293061713005996</v>
-      </c>
-      <c r="L14">
-        <v>0.2759871102636826</v>
-      </c>
-      <c r="M14">
-        <v>0.2558135294182728</v>
-      </c>
-      <c r="N14">
-        <v>0.2910412708957663</v>
-      </c>
-      <c r="O14">
-        <v>0.2560967652523193</v>
-      </c>
-      <c r="P14">
-        <v>0.1177440864666109</v>
-      </c>
-      <c r="Q14">
-        <v>0.0525728584117619</v>
-      </c>
-      <c r="R14">
-        <v>0.03742098596321433</v>
-      </c>
-      <c r="S14">
-        <v>0.03902220505174032</v>
-      </c>
-      <c r="T14">
-        <v>0.07712863713044485</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>0.2020727938515073</v>
-      </c>
-      <c r="B15">
-        <v>0.2619690914926166</v>
-      </c>
-      <c r="C15">
-        <v>0.2465841162506514</v>
-      </c>
-      <c r="D15">
-        <v>0.1890381040700135</v>
-      </c>
-      <c r="E15">
-        <v>0.1739329692509307</v>
-      </c>
-      <c r="F15">
-        <v>0.1491135321997493</v>
-      </c>
-      <c r="G15">
-        <v>0.1200852483669649</v>
-      </c>
-      <c r="H15">
-        <v>0.1810956485128181</v>
-      </c>
-      <c r="I15">
-        <v>0.2365440489347368</v>
-      </c>
-      <c r="J15">
-        <v>0.1921327671620414</v>
-      </c>
-      <c r="K15">
-        <v>0.1698078990642573</v>
-      </c>
-      <c r="L15">
-        <v>0.2080934829288983</v>
-      </c>
-      <c r="M15">
-        <v>0.2398354300827885</v>
-      </c>
-      <c r="N15">
-        <v>0.2586014564759143</v>
-      </c>
-      <c r="O15">
-        <v>0.2062485287234396</v>
-      </c>
-      <c r="P15">
-        <v>0.1629268286318301</v>
-      </c>
-      <c r="Q15">
-        <v>0.1847570764054173</v>
-      </c>
-      <c r="R15">
-        <v>0.187068226284201</v>
-      </c>
-      <c r="S15">
-        <v>0.1582576202737719</v>
-      </c>
-      <c r="T15">
-        <v>0.1223678956647874</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>0.2027860016089384</v>
-      </c>
-      <c r="B16">
-        <v>0.2518402364119742</v>
-      </c>
-      <c r="C16">
-        <v>0.2308305515208636</v>
-      </c>
-      <c r="D16">
-        <v>0.1857868670598066</v>
-      </c>
-      <c r="E16">
-        <v>0.2032859237911823</v>
-      </c>
-      <c r="F16">
-        <v>0.183908891232112</v>
-      </c>
-      <c r="G16">
-        <v>0.1162763229715039</v>
-      </c>
-      <c r="H16">
-        <v>0.1226011111796995</v>
-      </c>
-      <c r="I16">
-        <v>0.1555794524495832</v>
-      </c>
-      <c r="J16">
-        <v>0.157290081623961</v>
-      </c>
-      <c r="K16">
-        <v>0.142899846409248</v>
-      </c>
-      <c r="L16">
-        <v>0.1694971128681451</v>
-      </c>
-      <c r="M16">
-        <v>0.240032979306831</v>
-      </c>
-      <c r="N16">
-        <v>0.2743463142224273</v>
-      </c>
-      <c r="O16">
-        <v>0.3032289305939576</v>
-      </c>
-      <c r="P16">
-        <v>0.2256077297589247</v>
-      </c>
-      <c r="Q16">
-        <v>0.1497795709954628</v>
-      </c>
-      <c r="R16">
-        <v>0.139251306028873</v>
-      </c>
-      <c r="S16">
-        <v>0.1548447460507273</v>
-      </c>
-      <c r="T16">
-        <v>0.1409392132426348</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>0.2417941192854121</v>
-      </c>
-      <c r="B17">
-        <v>0.2488165476978455</v>
-      </c>
-      <c r="C17">
-        <v>0.2144031044235164</v>
-      </c>
-      <c r="D17">
-        <v>0.211701961571978</v>
-      </c>
-      <c r="E17">
-        <v>0.2263787276893708</v>
-      </c>
-      <c r="F17">
-        <v>0.1971547489962666</v>
-      </c>
-      <c r="G17">
-        <v>0.1540600394417813</v>
-      </c>
-      <c r="H17">
-        <v>0.1294987199952343</v>
-      </c>
-      <c r="I17">
-        <v>0.1496805252503723</v>
-      </c>
-      <c r="J17">
-        <v>0.2306215683716791</v>
-      </c>
-      <c r="K17">
-        <v>0.2166177311423786</v>
-      </c>
-      <c r="L17">
-        <v>0.1625347398088147</v>
-      </c>
-      <c r="M17">
-        <v>0.2039031390778112</v>
-      </c>
-      <c r="N17">
-        <v>0.2530915236528331</v>
-      </c>
-      <c r="O17">
-        <v>0.2756507615068976</v>
-      </c>
-      <c r="P17">
-        <v>0.200664462379682</v>
-      </c>
-      <c r="Q17">
-        <v>0.0425555442075356</v>
-      </c>
-      <c r="R17">
-        <v>0.06558842732994513</v>
-      </c>
-      <c r="S17">
-        <v>0.1237259516626564</v>
-      </c>
-      <c r="T17">
-        <v>0.1598106481387185</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>0.1751722740163386</v>
-      </c>
-      <c r="B18">
-        <v>0.1760388014809528</v>
-      </c>
-      <c r="C18">
-        <v>0.1372175486236876</v>
-      </c>
-      <c r="D18">
-        <v>0.1749133716158487</v>
-      </c>
-      <c r="E18">
-        <v>0.2422639363623698</v>
-      </c>
-      <c r="F18">
-        <v>0.1906280688006546</v>
-      </c>
-      <c r="G18">
-        <v>0.1387859821864891</v>
-      </c>
-      <c r="H18">
-        <v>0.1500568983389944</v>
-      </c>
-      <c r="I18">
-        <v>0.1695978261042771</v>
-      </c>
-      <c r="J18">
-        <v>0.1932787287937616</v>
-      </c>
-      <c r="K18">
-        <v>0.1727884207173988</v>
-      </c>
-      <c r="L18">
-        <v>0.169540565879216</v>
-      </c>
-      <c r="M18">
-        <v>0.20784549162441</v>
-      </c>
-      <c r="N18">
-        <v>0.218436482888499</v>
-      </c>
-      <c r="O18">
-        <v>0.2095457308094245</v>
-      </c>
-      <c r="P18">
-        <v>0.1319988365924914</v>
-      </c>
-      <c r="Q18">
-        <v>0.03249211359150817</v>
-      </c>
-      <c r="R18">
-        <v>0.08131283317214132</v>
-      </c>
-      <c r="S18">
-        <v>0.1022375439203081</v>
-      </c>
-      <c r="T18">
-        <v>0.1243283892945017</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>0.08843731242110733</v>
-      </c>
-      <c r="B19">
-        <v>0.1139403721628998</v>
-      </c>
-      <c r="C19">
-        <v>0.1132565782663051</v>
-      </c>
-      <c r="D19">
-        <v>0.1389605566040495</v>
-      </c>
-      <c r="E19">
-        <v>0.1947611626107494</v>
-      </c>
-      <c r="F19">
-        <v>0.1719789800525421</v>
-      </c>
-      <c r="G19">
-        <v>0.1709274380740054</v>
-      </c>
-      <c r="H19">
-        <v>0.1911599122484131</v>
-      </c>
-      <c r="I19">
-        <v>0.1537619057153024</v>
-      </c>
-      <c r="J19">
-        <v>0.0845047387511971</v>
-      </c>
-      <c r="K19">
-        <v>0.07918230809103201</v>
-      </c>
-      <c r="L19">
-        <v>0.1637939235632805</v>
-      </c>
-      <c r="M19">
-        <v>0.2131873285085642</v>
-      </c>
-      <c r="N19">
-        <v>0.1832460559849558</v>
-      </c>
-      <c r="O19">
-        <v>0.1390285070615614</v>
-      </c>
-      <c r="P19">
-        <v>0.1219142129264034</v>
-      </c>
-      <c r="Q19">
-        <v>0.1085960977720158</v>
-      </c>
-      <c r="R19">
-        <v>0.06883866010502948</v>
-      </c>
-      <c r="S19">
-        <v>0.08720591948542705</v>
-      </c>
-      <c r="T19">
-        <v>0.1155907423831779</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>0.1056738905992459</v>
-      </c>
-      <c r="B20">
-        <v>0.1159446135483233</v>
-      </c>
-      <c r="C20">
-        <v>0.1367286748013433</v>
-      </c>
-      <c r="D20">
-        <v>0.1284126695465682</v>
-      </c>
-      <c r="E20">
-        <v>0.09733658726073244</v>
-      </c>
-      <c r="F20">
-        <v>0.1048231466434116</v>
-      </c>
-      <c r="G20">
-        <v>0.1776406135353747</v>
-      </c>
-      <c r="H20">
-        <v>0.1990370558926928</v>
-      </c>
-      <c r="I20">
-        <v>0.1316556309132151</v>
-      </c>
-      <c r="J20">
-        <v>0.03777296282222754</v>
-      </c>
-      <c r="K20">
-        <v>0.02676789018399944</v>
-      </c>
-      <c r="L20">
-        <v>0.09620331877282577</v>
-      </c>
-      <c r="M20">
-        <v>0.1346934985566945</v>
-      </c>
-      <c r="N20">
-        <v>0.1515315081086999</v>
-      </c>
-      <c r="O20">
-        <v>0.1812239928309569</v>
-      </c>
-      <c r="P20">
-        <v>0.2144396060705681</v>
-      </c>
-      <c r="Q20">
-        <v>0.1767047336777171</v>
-      </c>
-      <c r="R20">
-        <v>0.09501566268937761</v>
-      </c>
-      <c r="S20">
-        <v>0.0301280932764624</v>
-      </c>
-      <c r="T20">
-        <v>0.0534602863761895</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>0.1177667740231567</v>
-      </c>
-      <c r="B21">
-        <v>0.1154974997325495</v>
-      </c>
-      <c r="C21">
-        <v>0.1324210169313093</v>
-      </c>
-      <c r="D21">
-        <v>0.1150773858320615</v>
-      </c>
-      <c r="E21">
-        <v>0.06226498365464454</v>
-      </c>
-      <c r="F21">
-        <v>0.04856189887284382</v>
-      </c>
-      <c r="G21">
-        <v>0.09064962664311332</v>
-      </c>
-      <c r="H21">
-        <v>0.1251175155179825</v>
-      </c>
-      <c r="I21">
-        <v>0.09997876860610679</v>
-      </c>
-      <c r="J21">
-        <v>0.0388584333899154</v>
-      </c>
-      <c r="K21">
-        <v>0.02433292892081456</v>
-      </c>
-      <c r="L21">
-        <v>0.04696147014190749</v>
-      </c>
-      <c r="M21">
-        <v>0.06928300732768269</v>
-      </c>
-      <c r="N21">
-        <v>0.1392656641291485</v>
-      </c>
-      <c r="O21">
-        <v>0.2214856423464082</v>
-      </c>
-      <c r="P21">
-        <v>0.2324078483237996</v>
-      </c>
-      <c r="Q21">
-        <v>0.2067743724174012</v>
-      </c>
-      <c r="R21">
-        <v>0.1582574724474686</v>
-      </c>
-      <c r="S21">
-        <v>0.07340512278868945</v>
-      </c>
-      <c r="T21">
-        <v>0.02643000748335663</v>
+        <v>0.02643000738922212</v>
       </c>
     </row>
   </sheetData>
